--- a/Data/Products_Lazada_filtered.xlsx
+++ b/Data/Products_Lazada_filtered.xlsx
@@ -39,10 +39,10 @@
     <x:t>Sold</x:t>
   </x:si>
   <x:si>
+    <x:t>price_cleaned</x:t>
+  </x:si>
+  <x:si>
     <x:t>sold_cleaned</x:t>
-  </x:si>
-  <x:si>
-    <x:t>price_cleaned</x:t>
   </x:si>
   <x:si>
     <x:t>Comfortable and wear-resistant slip-on sneakers, breathable and versatile mesh, hollow mesh, men's and women's running lightweight casual sports shoes</x:t>
@@ -1685,10 +1685,10 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="E2" s="0">
+        <x:v>14.9</x:v>
+      </x:c>
+      <x:c r="F2" s="0">
         <x:v>43</x:v>
-      </x:c>
-      <x:c r="F2" s="0">
-        <x:v>15</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:6">
@@ -1705,10 +1705,10 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="E3" s="0">
+        <x:v>9.9</x:v>
+      </x:c>
+      <x:c r="F3" s="0">
         <x:v>2200</x:v>
-      </x:c>
-      <x:c r="F3" s="0">
-        <x:v>10</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:6">
@@ -1725,10 +1725,10 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="E4" s="0">
+        <x:v>18.9</x:v>
+      </x:c>
+      <x:c r="F4" s="0">
         <x:v>823</x:v>
-      </x:c>
-      <x:c r="F4" s="0">
-        <x:v>19</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:6">
@@ -1745,10 +1745,10 @@
         <x:v>18</x:v>
       </x:c>
       <x:c r="E5" s="0">
+        <x:v>17.9</x:v>
+      </x:c>
+      <x:c r="F5" s="0">
         <x:v>495</x:v>
-      </x:c>
-      <x:c r="F5" s="0">
-        <x:v>18</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:6">
@@ -1765,10 +1765,10 @@
         <x:v>20</x:v>
       </x:c>
       <x:c r="E6" s="0">
+        <x:v>14.9</x:v>
+      </x:c>
+      <x:c r="F6" s="0">
         <x:v>58</x:v>
-      </x:c>
-      <x:c r="F6" s="0">
-        <x:v>15</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:6">
@@ -1785,10 +1785,10 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="E7" s="0">
+        <x:v>30.77</x:v>
+      </x:c>
+      <x:c r="F7" s="0">
         <x:v>3500</x:v>
-      </x:c>
-      <x:c r="F7" s="0">
-        <x:v>31</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:6">
@@ -1805,10 +1805,10 @@
         <x:v>26</x:v>
       </x:c>
       <x:c r="E8" s="0">
+        <x:v>11.9</x:v>
+      </x:c>
+      <x:c r="F8" s="0">
         <x:v>605</x:v>
-      </x:c>
-      <x:c r="F8" s="0">
-        <x:v>12</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:6">
@@ -1825,10 +1825,10 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="E9" s="0">
+        <x:v>17.9</x:v>
+      </x:c>
+      <x:c r="F9" s="0">
         <x:v>85</x:v>
-      </x:c>
-      <x:c r="F9" s="0">
-        <x:v>18</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:6">
@@ -1845,10 +1845,10 @@
         <x:v>30</x:v>
       </x:c>
       <x:c r="E10" s="0">
+        <x:v>16.95</x:v>
+      </x:c>
+      <x:c r="F10" s="0">
         <x:v>13</x:v>
-      </x:c>
-      <x:c r="F10" s="0">
-        <x:v>17</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:6">
@@ -1865,10 +1865,10 @@
         <x:v>33</x:v>
       </x:c>
       <x:c r="E11" s="0">
+        <x:v>79</x:v>
+      </x:c>
+      <x:c r="F11" s="0">
         <x:v>407</x:v>
-      </x:c>
-      <x:c r="F11" s="0">
-        <x:v>79</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:6">
@@ -1885,10 +1885,10 @@
         <x:v>36</x:v>
       </x:c>
       <x:c r="E12" s="0">
+        <x:v>109</x:v>
+      </x:c>
+      <x:c r="F12" s="0">
         <x:v>246</x:v>
-      </x:c>
-      <x:c r="F12" s="0">
-        <x:v>109</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="1:6">
@@ -1905,10 +1905,10 @@
         <x:v>39</x:v>
       </x:c>
       <x:c r="E13" s="0">
+        <x:v>76.3</x:v>
+      </x:c>
+      <x:c r="F13" s="0">
         <x:v>178</x:v>
-      </x:c>
-      <x:c r="F13" s="0">
-        <x:v>76</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:6">
@@ -1925,10 +1925,10 @@
         <x:v>41</x:v>
       </x:c>
       <x:c r="E14" s="0">
+        <x:v>14.9</x:v>
+      </x:c>
+      <x:c r="F14" s="0">
         <x:v>22</x:v>
-      </x:c>
-      <x:c r="F14" s="0">
-        <x:v>15</x:v>
       </x:c>
     </x:row>
     <x:row r="15" spans="1:6">
@@ -1945,10 +1945,10 @@
         <x:v>44</x:v>
       </x:c>
       <x:c r="E15" s="0">
+        <x:v>119</x:v>
+      </x:c>
+      <x:c r="F15" s="0">
         <x:v>152</x:v>
-      </x:c>
-      <x:c r="F15" s="0">
-        <x:v>119</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="1:6">
@@ -1965,10 +1965,10 @@
         <x:v>47</x:v>
       </x:c>
       <x:c r="E16" s="0">
+        <x:v>99</x:v>
+      </x:c>
+      <x:c r="F16" s="0">
         <x:v>1700</x:v>
-      </x:c>
-      <x:c r="F16" s="0">
-        <x:v>99</x:v>
       </x:c>
     </x:row>
     <x:row r="17" spans="1:6">
@@ -1985,10 +1985,10 @@
         <x:v>50</x:v>
       </x:c>
       <x:c r="E17" s="0">
+        <x:v>62.3</x:v>
+      </x:c>
+      <x:c r="F17" s="0">
         <x:v>143</x:v>
-      </x:c>
-      <x:c r="F17" s="0">
-        <x:v>62</x:v>
       </x:c>
     </x:row>
     <x:row r="18" spans="1:6">
@@ -2005,10 +2005,10 @@
         <x:v>54</x:v>
       </x:c>
       <x:c r="E18" s="0">
+        <x:v>121.22</x:v>
+      </x:c>
+      <x:c r="F18" s="0">
         <x:v>10</x:v>
-      </x:c>
-      <x:c r="F18" s="0">
-        <x:v>121</x:v>
       </x:c>
     </x:row>
     <x:row r="19" spans="1:6">
@@ -2025,10 +2025,10 @@
         <x:v>56</x:v>
       </x:c>
       <x:c r="E19" s="0">
+        <x:v>109</x:v>
+      </x:c>
+      <x:c r="F19" s="0">
         <x:v>507</x:v>
-      </x:c>
-      <x:c r="F19" s="0">
-        <x:v>109</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="1:6">
@@ -2045,10 +2045,10 @@
         <x:v>59</x:v>
       </x:c>
       <x:c r="E20" s="0">
+        <x:v>105</x:v>
+      </x:c>
+      <x:c r="F20" s="0">
         <x:v>15</x:v>
-      </x:c>
-      <x:c r="F20" s="0">
-        <x:v>105</x:v>
       </x:c>
     </x:row>
     <x:row r="21" spans="1:6">
@@ -2065,10 +2065,10 @@
         <x:v>62</x:v>
       </x:c>
       <x:c r="E21" s="0">
+        <x:v>289.9</x:v>
+      </x:c>
+      <x:c r="F21" s="0">
         <x:v>14</x:v>
-      </x:c>
-      <x:c r="F21" s="0">
-        <x:v>290</x:v>
       </x:c>
     </x:row>
     <x:row r="22" spans="1:6">
@@ -2085,10 +2085,10 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="E22" s="0">
+        <x:v>79</x:v>
+      </x:c>
+      <x:c r="F22" s="0">
         <x:v>297</x:v>
-      </x:c>
-      <x:c r="F22" s="0">
-        <x:v>79</x:v>
       </x:c>
     </x:row>
     <x:row r="23" spans="1:6">
@@ -2105,10 +2105,10 @@
         <x:v>67</x:v>
       </x:c>
       <x:c r="E23" s="0">
+        <x:v>59.4</x:v>
+      </x:c>
+      <x:c r="F23" s="0">
         <x:v>30</x:v>
-      </x:c>
-      <x:c r="F23" s="0">
-        <x:v>59</x:v>
       </x:c>
     </x:row>
     <x:row r="24" spans="1:6">
@@ -2125,10 +2125,10 @@
         <x:v>70</x:v>
       </x:c>
       <x:c r="E24" s="0">
+        <x:v>159</x:v>
+      </x:c>
+      <x:c r="F24" s="0">
         <x:v>191</x:v>
-      </x:c>
-      <x:c r="F24" s="0">
-        <x:v>159</x:v>
       </x:c>
     </x:row>
     <x:row r="25" spans="1:6">
@@ -2145,10 +2145,10 @@
         <x:v>73</x:v>
       </x:c>
       <x:c r="E25" s="0">
+        <x:v>60</x:v>
+      </x:c>
+      <x:c r="F25" s="0">
         <x:v>90</x:v>
-      </x:c>
-      <x:c r="F25" s="0">
-        <x:v>60</x:v>
       </x:c>
     </x:row>
     <x:row r="26" spans="1:6">
@@ -2165,10 +2165,10 @@
         <x:v>76</x:v>
       </x:c>
       <x:c r="E26" s="0">
+        <x:v>127.02</x:v>
+      </x:c>
+      <x:c r="F26" s="0">
         <x:v>9</x:v>
-      </x:c>
-      <x:c r="F26" s="0">
-        <x:v>127</x:v>
       </x:c>
     </x:row>
     <x:row r="27" spans="1:6">
@@ -2185,10 +2185,10 @@
         <x:v>79</x:v>
       </x:c>
       <x:c r="E27" s="0">
+        <x:v>58</x:v>
+      </x:c>
+      <x:c r="F27" s="0">
         <x:v>413</x:v>
-      </x:c>
-      <x:c r="F27" s="0">
-        <x:v>58</x:v>
       </x:c>
     </x:row>
     <x:row r="28" spans="1:6">
@@ -2205,10 +2205,10 @@
         <x:v>81</x:v>
       </x:c>
       <x:c r="E28" s="0">
+        <x:v>99</x:v>
+      </x:c>
+      <x:c r="F28" s="0">
         <x:v>809</x:v>
-      </x:c>
-      <x:c r="F28" s="0">
-        <x:v>99</x:v>
       </x:c>
     </x:row>
     <x:row r="29" spans="1:6">
@@ -2225,10 +2225,10 @@
         <x:v>83</x:v>
       </x:c>
       <x:c r="E29" s="0">
+        <x:v>79</x:v>
+      </x:c>
+      <x:c r="F29" s="0">
         <x:v>126</x:v>
-      </x:c>
-      <x:c r="F29" s="0">
-        <x:v>79</x:v>
       </x:c>
     </x:row>
     <x:row r="30" spans="1:6">
@@ -2245,10 +2245,10 @@
         <x:v>86</x:v>
       </x:c>
       <x:c r="E30" s="0">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="F30" s="0">
         <x:v>81</x:v>
-      </x:c>
-      <x:c r="F30" s="0">
-        <x:v>52</x:v>
       </x:c>
     </x:row>
     <x:row r="31" spans="1:6">
@@ -2265,10 +2265,10 @@
         <x:v>88</x:v>
       </x:c>
       <x:c r="E31" s="0">
+        <x:v>105</x:v>
+      </x:c>
+      <x:c r="F31" s="0">
         <x:v>11</x:v>
-      </x:c>
-      <x:c r="F31" s="0">
-        <x:v>105</x:v>
       </x:c>
     </x:row>
     <x:row r="32" spans="1:6">
@@ -2285,10 +2285,10 @@
         <x:v>90</x:v>
       </x:c>
       <x:c r="E32" s="0">
+        <x:v>159</x:v>
+      </x:c>
+      <x:c r="F32" s="0">
         <x:v>84</x:v>
-      </x:c>
-      <x:c r="F32" s="0">
-        <x:v>159</x:v>
       </x:c>
     </x:row>
     <x:row r="33" spans="1:6">
@@ -2305,10 +2305,10 @@
         <x:v>92</x:v>
       </x:c>
       <x:c r="E33" s="0">
+        <x:v>76.3</x:v>
+      </x:c>
+      <x:c r="F33" s="0">
         <x:v>117</x:v>
-      </x:c>
-      <x:c r="F33" s="0">
-        <x:v>76</x:v>
       </x:c>
     </x:row>
     <x:row r="34" spans="1:6">
@@ -2325,10 +2325,10 @@
         <x:v>95</x:v>
       </x:c>
       <x:c r="E34" s="0">
+        <x:v>107.4</x:v>
+      </x:c>
+      <x:c r="F34" s="0">
         <x:v>12</x:v>
-      </x:c>
-      <x:c r="F34" s="0">
-        <x:v>107</x:v>
       </x:c>
     </x:row>
     <x:row r="35" spans="1:6">
@@ -2345,10 +2345,10 @@
         <x:v>98</x:v>
       </x:c>
       <x:c r="E35" s="0">
+        <x:v>29.9</x:v>
+      </x:c>
+      <x:c r="F35" s="0">
         <x:v>233</x:v>
-      </x:c>
-      <x:c r="F35" s="0">
-        <x:v>30</x:v>
       </x:c>
     </x:row>
     <x:row r="36" spans="1:6">
@@ -2365,10 +2365,10 @@
         <x:v>101</x:v>
       </x:c>
       <x:c r="E36" s="0">
+        <x:v>89</x:v>
+      </x:c>
+      <x:c r="F36" s="0">
         <x:v>33</x:v>
-      </x:c>
-      <x:c r="F36" s="0">
-        <x:v>89</x:v>
       </x:c>
     </x:row>
     <x:row r="37" spans="1:6">
@@ -2385,10 +2385,10 @@
         <x:v>104</x:v>
       </x:c>
       <x:c r="E37" s="0">
+        <x:v>129</x:v>
+      </x:c>
+      <x:c r="F37" s="0">
         <x:v>211</x:v>
-      </x:c>
-      <x:c r="F37" s="0">
-        <x:v>129</x:v>
       </x:c>
     </x:row>
     <x:row r="38" spans="1:6">
@@ -2405,10 +2405,10 @@
         <x:v>106</x:v>
       </x:c>
       <x:c r="E38" s="0">
+        <x:v>18.9</x:v>
+      </x:c>
+      <x:c r="F38" s="0">
         <x:v>1600</x:v>
-      </x:c>
-      <x:c r="F38" s="0">
-        <x:v>19</x:v>
       </x:c>
     </x:row>
     <x:row r="39" spans="1:6">
@@ -2425,10 +2425,10 @@
         <x:v>109</x:v>
       </x:c>
       <x:c r="E39" s="0">
+        <x:v>65.4</x:v>
+      </x:c>
+      <x:c r="F39" s="0">
         <x:v>38</x:v>
-      </x:c>
-      <x:c r="F39" s="0">
-        <x:v>65</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -2488,10 +2488,10 @@
         <x:v>26</x:v>
       </x:c>
       <x:c r="E2" s="0">
+        <x:v>11.9</x:v>
+      </x:c>
+      <x:c r="F2" s="0">
         <x:v>605</x:v>
-      </x:c>
-      <x:c r="F2" s="0">
-        <x:v>12</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:6">
@@ -2508,10 +2508,10 @@
         <x:v>112</x:v>
       </x:c>
       <x:c r="E3" s="0">
+        <x:v>26.9</x:v>
+      </x:c>
+      <x:c r="F3" s="0">
         <x:v>345</x:v>
-      </x:c>
-      <x:c r="F3" s="0">
-        <x:v>27</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:6">
@@ -2528,10 +2528,10 @@
         <x:v>114</x:v>
       </x:c>
       <x:c r="E4" s="0">
+        <x:v>17.9</x:v>
+      </x:c>
+      <x:c r="F4" s="0">
         <x:v>408</x:v>
-      </x:c>
-      <x:c r="F4" s="0">
-        <x:v>18</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:6">
@@ -2548,10 +2548,10 @@
         <x:v>117</x:v>
       </x:c>
       <x:c r="E5" s="0">
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="F5" s="0">
         <x:v>104</x:v>
-      </x:c>
-      <x:c r="F5" s="0">
-        <x:v>49</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:6">
@@ -2568,10 +2568,10 @@
         <x:v>120</x:v>
       </x:c>
       <x:c r="E6" s="0">
+        <x:v>9.99</x:v>
+      </x:c>
+      <x:c r="F6" s="0">
         <x:v>5</x:v>
-      </x:c>
-      <x:c r="F6" s="0">
-        <x:v>10</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:6">
@@ -2588,10 +2588,10 @@
         <x:v>123</x:v>
       </x:c>
       <x:c r="E7" s="0">
+        <x:v>49.4</x:v>
+      </x:c>
+      <x:c r="F7" s="0">
         <x:v>950</x:v>
-      </x:c>
-      <x:c r="F7" s="0">
-        <x:v>49</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:6">
@@ -2608,10 +2608,10 @@
         <x:v>126</x:v>
       </x:c>
       <x:c r="E8" s="0">
+        <x:v>39.5</x:v>
+      </x:c>
+      <x:c r="F8" s="0">
         <x:v>102</x:v>
-      </x:c>
-      <x:c r="F8" s="0">
-        <x:v>40</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:6">
@@ -2628,10 +2628,10 @@
         <x:v>128</x:v>
       </x:c>
       <x:c r="E9" s="0">
+        <x:v>79</x:v>
+      </x:c>
+      <x:c r="F9" s="0">
         <x:v>62</x:v>
-      </x:c>
-      <x:c r="F9" s="0">
-        <x:v>79</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:6">
@@ -2648,10 +2648,10 @@
         <x:v>131</x:v>
       </x:c>
       <x:c r="E10" s="0">
+        <x:v>28.9</x:v>
+      </x:c>
+      <x:c r="F10" s="0">
         <x:v>61</x:v>
-      </x:c>
-      <x:c r="F10" s="0">
-        <x:v>29</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:6">
@@ -2668,10 +2668,10 @@
         <x:v>133</x:v>
       </x:c>
       <x:c r="E11" s="0">
+        <x:v>159</x:v>
+      </x:c>
+      <x:c r="F11" s="0">
         <x:v>45</x:v>
-      </x:c>
-      <x:c r="F11" s="0">
-        <x:v>159</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:6">
@@ -2688,10 +2688,10 @@
         <x:v>136</x:v>
       </x:c>
       <x:c r="E12" s="0">
+        <x:v>198</x:v>
+      </x:c>
+      <x:c r="F12" s="0">
         <x:v>21</x:v>
-      </x:c>
-      <x:c r="F12" s="0">
-        <x:v>198</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="1:6">
@@ -2708,10 +2708,10 @@
         <x:v>67</x:v>
       </x:c>
       <x:c r="E13" s="0">
+        <x:v>159</x:v>
+      </x:c>
+      <x:c r="F13" s="0">
         <x:v>30</x:v>
-      </x:c>
-      <x:c r="F13" s="0">
-        <x:v>159</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:6">
@@ -2728,10 +2728,10 @@
         <x:v>139</x:v>
       </x:c>
       <x:c r="E14" s="0">
+        <x:v>76.3</x:v>
+      </x:c>
+      <x:c r="F14" s="0">
         <x:v>26</x:v>
-      </x:c>
-      <x:c r="F14" s="0">
-        <x:v>76</x:v>
       </x:c>
     </x:row>
     <x:row r="15" spans="1:6">
@@ -2748,10 +2748,10 @@
         <x:v>141</x:v>
       </x:c>
       <x:c r="E15" s="0">
+        <x:v>99</x:v>
+      </x:c>
+      <x:c r="F15" s="0">
         <x:v>35</x:v>
-      </x:c>
-      <x:c r="F15" s="0">
-        <x:v>99</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="1:6">
@@ -2768,10 +2768,10 @@
         <x:v>133</x:v>
       </x:c>
       <x:c r="E16" s="0">
+        <x:v>65.4</x:v>
+      </x:c>
+      <x:c r="F16" s="0">
         <x:v>45</x:v>
-      </x:c>
-      <x:c r="F16" s="0">
-        <x:v>65</x:v>
       </x:c>
     </x:row>
     <x:row r="17" spans="1:6">
@@ -2788,10 +2788,10 @@
         <x:v>144</x:v>
       </x:c>
       <x:c r="E17" s="0">
+        <x:v>65.4</x:v>
+      </x:c>
+      <x:c r="F17" s="0">
         <x:v>99</x:v>
-      </x:c>
-      <x:c r="F17" s="0">
-        <x:v>65</x:v>
       </x:c>
     </x:row>
     <x:row r="18" spans="1:6">
@@ -2808,10 +2808,10 @@
         <x:v>147</x:v>
       </x:c>
       <x:c r="E18" s="0">
-        <x:v>8</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="F18" s="0">
-        <x:v>53</x:v>
+        <x:v>8</x:v>
       </x:c>
     </x:row>
     <x:row r="19" spans="1:6">
@@ -2828,10 +2828,10 @@
         <x:v>54</x:v>
       </x:c>
       <x:c r="E19" s="0">
+        <x:v>159</x:v>
+      </x:c>
+      <x:c r="F19" s="0">
         <x:v>10</x:v>
-      </x:c>
-      <x:c r="F19" s="0">
-        <x:v>159</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="1:6">
@@ -2848,10 +2848,10 @@
         <x:v>147</x:v>
       </x:c>
       <x:c r="E20" s="0">
-        <x:v>8</x:v>
+        <x:v>159.6</x:v>
       </x:c>
       <x:c r="F20" s="0">
-        <x:v>160</x:v>
+        <x:v>8</x:v>
       </x:c>
     </x:row>
     <x:row r="21" spans="1:6">
@@ -2868,10 +2868,10 @@
         <x:v>152</x:v>
       </x:c>
       <x:c r="E21" s="0">
+        <x:v>198</x:v>
+      </x:c>
+      <x:c r="F21" s="0">
         <x:v>32</x:v>
-      </x:c>
-      <x:c r="F21" s="0">
-        <x:v>198</x:v>
       </x:c>
     </x:row>
     <x:row r="22" spans="1:6">
@@ -2888,10 +2888,10 @@
         <x:v>154</x:v>
       </x:c>
       <x:c r="E22" s="0">
+        <x:v>198</x:v>
+      </x:c>
+      <x:c r="F22" s="0">
         <x:v>42</x:v>
-      </x:c>
-      <x:c r="F22" s="0">
-        <x:v>198</x:v>
       </x:c>
     </x:row>
     <x:row r="23" spans="1:6">
@@ -2908,10 +2908,10 @@
         <x:v>156</x:v>
       </x:c>
       <x:c r="E23" s="0">
+        <x:v>159</x:v>
+      </x:c>
+      <x:c r="F23" s="0">
         <x:v>23</x:v>
-      </x:c>
-      <x:c r="F23" s="0">
-        <x:v>159</x:v>
       </x:c>
     </x:row>
     <x:row r="24" spans="1:6">
@@ -2928,10 +2928,10 @@
         <x:v>159</x:v>
       </x:c>
       <x:c r="E24" s="0">
+        <x:v>119.9</x:v>
+      </x:c>
+      <x:c r="F24" s="0">
         <x:v>6</x:v>
-      </x:c>
-      <x:c r="F24" s="0">
-        <x:v>120</x:v>
       </x:c>
     </x:row>
     <x:row r="25" spans="1:6">
@@ -2948,10 +2948,10 @@
         <x:v>160</x:v>
       </x:c>
       <x:c r="E25" s="0">
+        <x:v>159</x:v>
+      </x:c>
+      <x:c r="F25" s="0">
         <x:v>215</x:v>
-      </x:c>
-      <x:c r="F25" s="0">
-        <x:v>159</x:v>
       </x:c>
     </x:row>
     <x:row r="26" spans="1:6">
@@ -2968,10 +2968,10 @@
         <x:v>162</x:v>
       </x:c>
       <x:c r="E26" s="0">
+        <x:v>89</x:v>
+      </x:c>
+      <x:c r="F26" s="0">
         <x:v>165</x:v>
-      </x:c>
-      <x:c r="F26" s="0">
-        <x:v>89</x:v>
       </x:c>
     </x:row>
     <x:row r="27" spans="1:6">
@@ -2988,10 +2988,10 @@
         <x:v>67</x:v>
       </x:c>
       <x:c r="E27" s="0">
+        <x:v>71</x:v>
+      </x:c>
+      <x:c r="F27" s="0">
         <x:v>30</x:v>
-      </x:c>
-      <x:c r="F27" s="0">
-        <x:v>71</x:v>
       </x:c>
     </x:row>
     <x:row r="28" spans="1:6">
@@ -3008,10 +3008,10 @@
         <x:v>88</x:v>
       </x:c>
       <x:c r="E28" s="0">
+        <x:v>114.9</x:v>
+      </x:c>
+      <x:c r="F28" s="0">
         <x:v>11</x:v>
-      </x:c>
-      <x:c r="F28" s="0">
-        <x:v>115</x:v>
       </x:c>
     </x:row>
     <x:row r="29" spans="1:6">
@@ -3028,10 +3028,10 @@
         <x:v>169</x:v>
       </x:c>
       <x:c r="E29" s="0">
+        <x:v>145</x:v>
+      </x:c>
+      <x:c r="F29" s="0">
         <x:v>37</x:v>
-      </x:c>
-      <x:c r="F29" s="0">
-        <x:v>145</x:v>
       </x:c>
     </x:row>
     <x:row r="30" spans="1:6">
@@ -3048,10 +3048,10 @@
         <x:v>170</x:v>
       </x:c>
       <x:c r="E30" s="0">
+        <x:v>159</x:v>
+      </x:c>
+      <x:c r="F30" s="0">
         <x:v>24</x:v>
-      </x:c>
-      <x:c r="F30" s="0">
-        <x:v>159</x:v>
       </x:c>
     </x:row>
     <x:row r="31" spans="1:6">
@@ -3068,10 +3068,10 @@
         <x:v>170</x:v>
       </x:c>
       <x:c r="E31" s="0">
+        <x:v>159</x:v>
+      </x:c>
+      <x:c r="F31" s="0">
         <x:v>24</x:v>
-      </x:c>
-      <x:c r="F31" s="0">
-        <x:v>159</x:v>
       </x:c>
     </x:row>
     <x:row r="32" spans="1:6">
@@ -3088,10 +3088,10 @@
         <x:v>109</x:v>
       </x:c>
       <x:c r="E32" s="0">
+        <x:v>119</x:v>
+      </x:c>
+      <x:c r="F32" s="0">
         <x:v>38</x:v>
-      </x:c>
-      <x:c r="F32" s="0">
-        <x:v>119</x:v>
       </x:c>
     </x:row>
     <x:row r="33" spans="1:6">
@@ -3108,10 +3108,10 @@
         <x:v>59</x:v>
       </x:c>
       <x:c r="E33" s="0">
+        <x:v>119.9</x:v>
+      </x:c>
+      <x:c r="F33" s="0">
         <x:v>15</x:v>
-      </x:c>
-      <x:c r="F33" s="0">
-        <x:v>120</x:v>
       </x:c>
     </x:row>
     <x:row r="34" spans="1:6">
@@ -3128,10 +3128,10 @@
         <x:v>175</x:v>
       </x:c>
       <x:c r="E34" s="0">
+        <x:v>89.9</x:v>
+      </x:c>
+      <x:c r="F34" s="0">
         <x:v>310</x:v>
-      </x:c>
-      <x:c r="F34" s="0">
-        <x:v>90</x:v>
       </x:c>
     </x:row>
     <x:row r="35" spans="1:6">
@@ -3148,10 +3148,10 @@
         <x:v>30</x:v>
       </x:c>
       <x:c r="E35" s="0">
+        <x:v>76.3</x:v>
+      </x:c>
+      <x:c r="F35" s="0">
         <x:v>13</x:v>
-      </x:c>
-      <x:c r="F35" s="0">
-        <x:v>76</x:v>
       </x:c>
     </x:row>
     <x:row r="36" spans="1:6">
@@ -3168,10 +3168,10 @@
         <x:v>178</x:v>
       </x:c>
       <x:c r="E36" s="0">
+        <x:v>119</x:v>
+      </x:c>
+      <x:c r="F36" s="0">
         <x:v>65</x:v>
-      </x:c>
-      <x:c r="F36" s="0">
-        <x:v>119</x:v>
       </x:c>
     </x:row>
     <x:row r="37" spans="1:6">
@@ -3188,10 +3188,10 @@
         <x:v>181</x:v>
       </x:c>
       <x:c r="E37" s="0">
+        <x:v>169</x:v>
+      </x:c>
+      <x:c r="F37" s="0">
         <x:v>18</x:v>
-      </x:c>
-      <x:c r="F37" s="0">
-        <x:v>169</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -3251,10 +3251,10 @@
         <x:v>184</x:v>
       </x:c>
       <x:c r="E2" s="0">
+        <x:v>7.2</x:v>
+      </x:c>
+      <x:c r="F2" s="0">
         <x:v>470</x:v>
-      </x:c>
-      <x:c r="F2" s="0">
-        <x:v>7</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:6">
@@ -3271,10 +3271,10 @@
         <x:v>187</x:v>
       </x:c>
       <x:c r="E3" s="0">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="F3" s="0">
         <x:v>1200</x:v>
-      </x:c>
-      <x:c r="F3" s="0">
-        <x:v>6</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:6">
@@ -3291,10 +3291,10 @@
         <x:v>190</x:v>
       </x:c>
       <x:c r="E4" s="0">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="F4" s="0">
         <x:v>4200</x:v>
-      </x:c>
-      <x:c r="F4" s="0">
-        <x:v>5</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:6">
@@ -3311,10 +3311,10 @@
         <x:v>193</x:v>
       </x:c>
       <x:c r="E5" s="0">
+        <x:v>5.5</x:v>
+      </x:c>
+      <x:c r="F5" s="0">
         <x:v>532</x:v>
-      </x:c>
-      <x:c r="F5" s="0">
-        <x:v>6</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:6">
@@ -3331,10 +3331,10 @@
         <x:v>196</x:v>
       </x:c>
       <x:c r="E6" s="0">
+        <x:v>7.9</x:v>
+      </x:c>
+      <x:c r="F6" s="0">
         <x:v>3400</x:v>
-      </x:c>
-      <x:c r="F6" s="0">
-        <x:v>8</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:6">
@@ -3351,10 +3351,10 @@
         <x:v>199</x:v>
       </x:c>
       <x:c r="E7" s="0">
+        <x:v>6.8</x:v>
+      </x:c>
+      <x:c r="F7" s="0">
         <x:v>862</x:v>
-      </x:c>
-      <x:c r="F7" s="0">
-        <x:v>7</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:6">
@@ -3371,10 +3371,10 @@
         <x:v>201</x:v>
       </x:c>
       <x:c r="E8" s="0">
+        <x:v>7.9</x:v>
+      </x:c>
+      <x:c r="F8" s="0">
         <x:v>203</x:v>
-      </x:c>
-      <x:c r="F8" s="0">
-        <x:v>8</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:6">
@@ -3391,10 +3391,10 @@
         <x:v>204</x:v>
       </x:c>
       <x:c r="E9" s="0">
+        <x:v>6.3</x:v>
+      </x:c>
+      <x:c r="F9" s="0">
         <x:v>4600</x:v>
-      </x:c>
-      <x:c r="F9" s="0">
-        <x:v>6</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:6">
@@ -3411,10 +3411,10 @@
         <x:v>207</x:v>
       </x:c>
       <x:c r="E10" s="0">
+        <x:v>6.7</x:v>
+      </x:c>
+      <x:c r="F10" s="0">
         <x:v>4900</x:v>
-      </x:c>
-      <x:c r="F10" s="0">
-        <x:v>7</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:6">
@@ -3431,10 +3431,10 @@
         <x:v>196</x:v>
       </x:c>
       <x:c r="E11" s="0">
+        <x:v>5.3</x:v>
+      </x:c>
+      <x:c r="F11" s="0">
         <x:v>3400</x:v>
-      </x:c>
-      <x:c r="F11" s="0">
-        <x:v>5</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:6">
@@ -3451,10 +3451,10 @@
         <x:v>187</x:v>
       </x:c>
       <x:c r="E12" s="0">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="F12" s="0">
         <x:v>1200</x:v>
-      </x:c>
-      <x:c r="F12" s="0">
-        <x:v>10</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="1:6">
@@ -3471,10 +3471,10 @@
         <x:v>213</x:v>
       </x:c>
       <x:c r="E13" s="0">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="F13" s="0">
         <x:v>89</x:v>
-      </x:c>
-      <x:c r="F13" s="0">
-        <x:v>5</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:6">
@@ -3491,10 +3491,10 @@
         <x:v>47</x:v>
       </x:c>
       <x:c r="E14" s="0">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="F14" s="0">
         <x:v>1700</x:v>
-      </x:c>
-      <x:c r="F14" s="0">
-        <x:v>25</x:v>
       </x:c>
     </x:row>
     <x:row r="15" spans="1:6">
@@ -3511,10 +3511,10 @@
         <x:v>218</x:v>
       </x:c>
       <x:c r="E15" s="0">
+        <x:v>19.9</x:v>
+      </x:c>
+      <x:c r="F15" s="0">
         <x:v>198</x:v>
-      </x:c>
-      <x:c r="F15" s="0">
-        <x:v>20</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="1:6">
@@ -3531,10 +3531,10 @@
         <x:v>221</x:v>
       </x:c>
       <x:c r="E16" s="0">
+        <x:v>10.5</x:v>
+      </x:c>
+      <x:c r="F16" s="0">
         <x:v>876</x:v>
-      </x:c>
-      <x:c r="F16" s="0">
-        <x:v>10</x:v>
       </x:c>
     </x:row>
     <x:row r="17" spans="1:6">
@@ -3551,10 +3551,10 @@
         <x:v>224</x:v>
       </x:c>
       <x:c r="E17" s="0">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="F17" s="0">
         <x:v>437</x:v>
-      </x:c>
-      <x:c r="F17" s="0">
-        <x:v>12</x:v>
       </x:c>
     </x:row>
     <x:row r="18" spans="1:6">
@@ -3571,10 +3571,10 @@
         <x:v>36</x:v>
       </x:c>
       <x:c r="E18" s="0">
+        <x:v>8.9</x:v>
+      </x:c>
+      <x:c r="F18" s="0">
         <x:v>246</x:v>
-      </x:c>
-      <x:c r="F18" s="0">
-        <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="19" spans="1:6">
@@ -3591,10 +3591,10 @@
         <x:v>229</x:v>
       </x:c>
       <x:c r="E19" s="0">
+        <x:v>5.7</x:v>
+      </x:c>
+      <x:c r="F19" s="0">
         <x:v>225</x:v>
-      </x:c>
-      <x:c r="F19" s="0">
-        <x:v>6</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="1:6">
@@ -3611,10 +3611,10 @@
         <x:v>232</x:v>
       </x:c>
       <x:c r="E20" s="0">
+        <x:v>4.9</x:v>
+      </x:c>
+      <x:c r="F20" s="0">
         <x:v>229</x:v>
-      </x:c>
-      <x:c r="F20" s="0">
-        <x:v>5</x:v>
       </x:c>
     </x:row>
     <x:row r="21" spans="1:6">
@@ -3631,10 +3631,10 @@
         <x:v>76</x:v>
       </x:c>
       <x:c r="E21" s="0">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="F21" s="0">
         <x:v>9</x:v>
-      </x:c>
-      <x:c r="F21" s="0">
-        <x:v>20</x:v>
       </x:c>
     </x:row>
     <x:row r="22" spans="1:6">
@@ -3651,10 +3651,10 @@
         <x:v>59</x:v>
       </x:c>
       <x:c r="E22" s="0">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="F22" s="0">
         <x:v>15</x:v>
-      </x:c>
-      <x:c r="F22" s="0">
-        <x:v>12</x:v>
       </x:c>
     </x:row>
     <x:row r="23" spans="1:6">
@@ -3671,10 +3671,10 @@
         <x:v>238</x:v>
       </x:c>
       <x:c r="E23" s="0">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="F23" s="0">
         <x:v>7</x:v>
-      </x:c>
-      <x:c r="F23" s="0">
-        <x:v>23</x:v>
       </x:c>
     </x:row>
     <x:row r="24" spans="1:6">
@@ -3691,10 +3691,10 @@
         <x:v>240</x:v>
       </x:c>
       <x:c r="E24" s="0">
+        <x:v>9.9</x:v>
+      </x:c>
+      <x:c r="F24" s="0">
         <x:v>780</x:v>
-      </x:c>
-      <x:c r="F24" s="0">
-        <x:v>10</x:v>
       </x:c>
     </x:row>
     <x:row r="25" spans="1:6">
@@ -3711,10 +3711,10 @@
         <x:v>242</x:v>
       </x:c>
       <x:c r="E25" s="0">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="F25" s="0">
         <x:v>16</x:v>
-      </x:c>
-      <x:c r="F25" s="0">
-        <x:v>20</x:v>
       </x:c>
     </x:row>
     <x:row r="26" spans="1:6">
@@ -3731,10 +3731,10 @@
         <x:v>244</x:v>
       </x:c>
       <x:c r="E26" s="0">
+        <x:v>14.9</x:v>
+      </x:c>
+      <x:c r="F26" s="0">
         <x:v>66</x:v>
-      </x:c>
-      <x:c r="F26" s="0">
-        <x:v>15</x:v>
       </x:c>
     </x:row>
     <x:row r="27" spans="1:6">
@@ -3751,10 +3751,10 @@
         <x:v>246</x:v>
       </x:c>
       <x:c r="E27" s="0">
+        <x:v>5.5</x:v>
+      </x:c>
+      <x:c r="F27" s="0">
         <x:v>598</x:v>
-      </x:c>
-      <x:c r="F27" s="0">
-        <x:v>6</x:v>
       </x:c>
     </x:row>
     <x:row r="28" spans="1:6">
@@ -3771,10 +3771,10 @@
         <x:v>248</x:v>
       </x:c>
       <x:c r="E28" s="0">
+        <x:v>7.2</x:v>
+      </x:c>
+      <x:c r="F28" s="0">
         <x:v>196</x:v>
-      </x:c>
-      <x:c r="F28" s="0">
-        <x:v>7</x:v>
       </x:c>
     </x:row>
     <x:row r="29" spans="1:6">
@@ -3791,10 +3791,10 @@
         <x:v>250</x:v>
       </x:c>
       <x:c r="E29" s="0">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="F29" s="0">
         <x:v>56</x:v>
-      </x:c>
-      <x:c r="F29" s="0">
-        <x:v>25</x:v>
       </x:c>
     </x:row>
     <x:row r="30" spans="1:6">
@@ -3811,10 +3811,10 @@
         <x:v>156</x:v>
       </x:c>
       <x:c r="E30" s="0">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="F30" s="0">
         <x:v>23</x:v>
-      </x:c>
-      <x:c r="F30" s="0">
-        <x:v>20</x:v>
       </x:c>
     </x:row>
     <x:row r="31" spans="1:6">
@@ -3831,10 +3831,10 @@
         <x:v>54</x:v>
       </x:c>
       <x:c r="E31" s="0">
+        <x:v>8.9</x:v>
+      </x:c>
+      <x:c r="F31" s="0">
         <x:v>10</x:v>
-      </x:c>
-      <x:c r="F31" s="0">
-        <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="32" spans="1:6">
@@ -3851,10 +3851,10 @@
         <x:v>159</x:v>
       </x:c>
       <x:c r="E32" s="0">
+        <x:v>59</x:v>
+      </x:c>
+      <x:c r="F32" s="0">
         <x:v>6</x:v>
-      </x:c>
-      <x:c r="F32" s="0">
-        <x:v>59</x:v>
       </x:c>
     </x:row>
     <x:row r="33" spans="1:6">
@@ -3871,10 +3871,10 @@
         <x:v>256</x:v>
       </x:c>
       <x:c r="E33" s="0">
+        <x:v>29.9</x:v>
+      </x:c>
+      <x:c r="F33" s="0">
         <x:v>48</x:v>
-      </x:c>
-      <x:c r="F33" s="0">
-        <x:v>30</x:v>
       </x:c>
     </x:row>
     <x:row r="34" spans="1:6">
@@ -3891,7 +3891,7 @@
         <x:v>59</x:v>
       </x:c>
       <x:c r="E34" s="0">
-        <x:v>15</x:v>
+        <x:v>14.95</x:v>
       </x:c>
       <x:c r="F34" s="0">
         <x:v>15</x:v>
@@ -3911,10 +3911,10 @@
         <x:v>88</x:v>
       </x:c>
       <x:c r="E35" s="0">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="F35" s="0">
         <x:v>11</x:v>
-      </x:c>
-      <x:c r="F35" s="0">
-        <x:v>23</x:v>
       </x:c>
     </x:row>
     <x:row r="36" spans="1:6">
@@ -3931,10 +3931,10 @@
         <x:v>261</x:v>
       </x:c>
       <x:c r="E36" s="0">
+        <x:v>9.9</x:v>
+      </x:c>
+      <x:c r="F36" s="0">
         <x:v>114</x:v>
-      </x:c>
-      <x:c r="F36" s="0">
-        <x:v>10</x:v>
       </x:c>
     </x:row>
     <x:row r="37" spans="1:6">
@@ -3951,10 +3951,10 @@
         <x:v>263</x:v>
       </x:c>
       <x:c r="E37" s="0">
+        <x:v>8.9</x:v>
+      </x:c>
+      <x:c r="F37" s="0">
         <x:v>300</x:v>
-      </x:c>
-      <x:c r="F37" s="0">
-        <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="38" spans="1:6">
@@ -3971,10 +3971,10 @@
         <x:v>265</x:v>
       </x:c>
       <x:c r="E38" s="0">
+        <x:v>14.9</x:v>
+      </x:c>
+      <x:c r="F38" s="0">
         <x:v>17</x:v>
-      </x:c>
-      <x:c r="F38" s="0">
-        <x:v>15</x:v>
       </x:c>
     </x:row>
     <x:row r="39" spans="1:6">
@@ -3991,10 +3991,10 @@
         <x:v>95</x:v>
       </x:c>
       <x:c r="E39" s="0">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="F39" s="0">
         <x:v>12</x:v>
-      </x:c>
-      <x:c r="F39" s="0">
-        <x:v>39</x:v>
       </x:c>
     </x:row>
     <x:row r="40" spans="1:6">
@@ -4011,10 +4011,10 @@
         <x:v>159</x:v>
       </x:c>
       <x:c r="E40" s="0">
+        <x:v>59</x:v>
+      </x:c>
+      <x:c r="F40" s="0">
         <x:v>6</x:v>
-      </x:c>
-      <x:c r="F40" s="0">
-        <x:v>59</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -4074,10 +4074,10 @@
         <x:v>95</x:v>
       </x:c>
       <x:c r="E2" s="0">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="F2" s="0">
         <x:v>12</x:v>
-      </x:c>
-      <x:c r="F2" s="0">
-        <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:8">
@@ -4114,10 +4114,10 @@
         <x:v>95</x:v>
       </x:c>
       <x:c r="E4" s="0">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="F4" s="0">
         <x:v>12</x:v>
-      </x:c>
-      <x:c r="F4" s="0">
-        <x:v>16</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:8">
@@ -4134,10 +4134,10 @@
         <x:v>54</x:v>
       </x:c>
       <x:c r="E5" s="0">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="F5" s="0">
         <x:v>10</x:v>
-      </x:c>
-      <x:c r="F5" s="0">
-        <x:v>13</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:8">
@@ -4154,10 +4154,10 @@
         <x:v>279</x:v>
       </x:c>
       <x:c r="E6" s="0">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="F6" s="0">
         <x:v>53</x:v>
-      </x:c>
-      <x:c r="F6" s="0">
-        <x:v>11</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:8">
@@ -4174,10 +4174,10 @@
         <x:v>120</x:v>
       </x:c>
       <x:c r="E7" s="0">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="F7" s="0">
         <x:v>5</x:v>
-      </x:c>
-      <x:c r="F7" s="0">
-        <x:v>13</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:8">
@@ -4194,10 +4194,10 @@
         <x:v>62</x:v>
       </x:c>
       <x:c r="E8" s="0">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="F8" s="0">
         <x:v>14</x:v>
-      </x:c>
-      <x:c r="F8" s="0">
-        <x:v>13</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:8">
@@ -4214,10 +4214,10 @@
         <x:v>283</x:v>
       </x:c>
       <x:c r="E9" s="0">
+        <x:v>8.9</x:v>
+      </x:c>
+      <x:c r="F9" s="0">
         <x:v>118</x:v>
-      </x:c>
-      <x:c r="F9" s="0">
-        <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:8">
@@ -4234,10 +4234,10 @@
         <x:v>285</x:v>
       </x:c>
       <x:c r="E10" s="0">
+        <x:v>9.99</x:v>
+      </x:c>
+      <x:c r="F10" s="0">
         <x:v>340</x:v>
-      </x:c>
-      <x:c r="F10" s="0">
-        <x:v>10</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:8">
@@ -4254,10 +4254,10 @@
         <x:v>287</x:v>
       </x:c>
       <x:c r="E11" s="0">
+        <x:v>14.9</x:v>
+      </x:c>
+      <x:c r="F11" s="0">
         <x:v>1000</x:v>
-      </x:c>
-      <x:c r="F11" s="0">
-        <x:v>15</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:8">
@@ -4274,10 +4274,10 @@
         <x:v>59</x:v>
       </x:c>
       <x:c r="E12" s="0">
+        <x:v>20.75</x:v>
+      </x:c>
+      <x:c r="F12" s="0">
         <x:v>15</x:v>
-      </x:c>
-      <x:c r="F12" s="0">
-        <x:v>21</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="1:8">
@@ -4294,10 +4294,10 @@
         <x:v>292</x:v>
       </x:c>
       <x:c r="E13" s="0">
+        <x:v>16.9</x:v>
+      </x:c>
+      <x:c r="F13" s="0">
         <x:v>63</x:v>
-      </x:c>
-      <x:c r="F13" s="0">
-        <x:v>17</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:8">
@@ -4314,10 +4314,10 @@
         <x:v>62</x:v>
       </x:c>
       <x:c r="E14" s="0">
+        <x:v>39.98</x:v>
+      </x:c>
+      <x:c r="F14" s="0">
         <x:v>14</x:v>
-      </x:c>
-      <x:c r="F14" s="0">
-        <x:v>40</x:v>
       </x:c>
     </x:row>
     <x:row r="15" spans="1:8">
@@ -4334,10 +4334,10 @@
         <x:v>238</x:v>
       </x:c>
       <x:c r="E15" s="0">
+        <x:v>69</x:v>
+      </x:c>
+      <x:c r="F15" s="0">
         <x:v>7</x:v>
-      </x:c>
-      <x:c r="F15" s="0">
-        <x:v>69</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="1:8">
@@ -4354,10 +4354,10 @@
         <x:v>120</x:v>
       </x:c>
       <x:c r="E16" s="0">
+        <x:v>218</x:v>
+      </x:c>
+      <x:c r="F16" s="0">
         <x:v>5</x:v>
-      </x:c>
-      <x:c r="F16" s="0">
-        <x:v>218</x:v>
       </x:c>
     </x:row>
     <x:row r="17" spans="1:8">
@@ -4374,10 +4374,10 @@
         <x:v>76</x:v>
       </x:c>
       <x:c r="E17" s="0">
+        <x:v>42.99</x:v>
+      </x:c>
+      <x:c r="F17" s="0">
         <x:v>9</x:v>
-      </x:c>
-      <x:c r="F17" s="0">
-        <x:v>43</x:v>
       </x:c>
     </x:row>
     <x:row r="18" spans="1:8">
@@ -4394,10 +4394,10 @@
         <x:v>302</x:v>
       </x:c>
       <x:c r="E18" s="0">
+        <x:v>59</x:v>
+      </x:c>
+      <x:c r="F18" s="0">
         <x:v>34</x:v>
-      </x:c>
-      <x:c r="F18" s="0">
-        <x:v>59</x:v>
       </x:c>
     </x:row>
     <x:row r="19" spans="1:8">
@@ -4414,10 +4414,10 @@
         <x:v>305</x:v>
       </x:c>
       <x:c r="E19" s="0">
+        <x:v>40.95</x:v>
+      </x:c>
+      <x:c r="F19" s="0">
         <x:v>31</x:v>
-      </x:c>
-      <x:c r="F19" s="0">
-        <x:v>41</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="1:8">
@@ -4434,10 +4434,10 @@
         <x:v>308</x:v>
       </x:c>
       <x:c r="E20" s="0">
+        <x:v>47.9</x:v>
+      </x:c>
+      <x:c r="F20" s="0">
         <x:v>39</x:v>
-      </x:c>
-      <x:c r="F20" s="0">
-        <x:v>48</x:v>
       </x:c>
     </x:row>
     <x:row r="21" spans="1:8">
@@ -4454,10 +4454,10 @@
         <x:v>310</x:v>
       </x:c>
       <x:c r="E21" s="0">
+        <x:v>29.9</x:v>
+      </x:c>
+      <x:c r="F21" s="0">
         <x:v>25</x:v>
-      </x:c>
-      <x:c r="F21" s="0">
-        <x:v>30</x:v>
       </x:c>
     </x:row>
     <x:row r="22" spans="1:8">
@@ -4474,10 +4474,10 @@
         <x:v>313</x:v>
       </x:c>
       <x:c r="E22" s="0">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="F22" s="0">
         <x:v>76</x:v>
-      </x:c>
-      <x:c r="F22" s="0">
-        <x:v>22</x:v>
       </x:c>
     </x:row>
     <x:row r="23" spans="1:8">
@@ -4494,10 +4494,10 @@
         <x:v>265</x:v>
       </x:c>
       <x:c r="E23" s="0">
+        <x:v>40.95</x:v>
+      </x:c>
+      <x:c r="F23" s="0">
         <x:v>17</x:v>
-      </x:c>
-      <x:c r="F23" s="0">
-        <x:v>41</x:v>
       </x:c>
     </x:row>
     <x:row r="24" spans="1:8">
@@ -4514,10 +4514,10 @@
         <x:v>317</x:v>
       </x:c>
       <x:c r="E24" s="0">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="F24" s="0">
         <x:v>79</x:v>
-      </x:c>
-      <x:c r="F24" s="0">
-        <x:v>26</x:v>
       </x:c>
     </x:row>
     <x:row r="25" spans="1:8">
@@ -4534,10 +4534,10 @@
         <x:v>319</x:v>
       </x:c>
       <x:c r="E25" s="0">
+        <x:v>18.9</x:v>
+      </x:c>
+      <x:c r="F25" s="0">
         <x:v>853</x:v>
-      </x:c>
-      <x:c r="F25" s="0">
-        <x:v>19</x:v>
       </x:c>
     </x:row>
     <x:row r="26" spans="1:8">
@@ -4554,10 +4554,10 @@
         <x:v>322</x:v>
       </x:c>
       <x:c r="E26" s="0">
+        <x:v>121.72</x:v>
+      </x:c>
+      <x:c r="F26" s="0">
         <x:v>74</x:v>
-      </x:c>
-      <x:c r="F26" s="0">
-        <x:v>122</x:v>
       </x:c>
     </x:row>
     <x:row r="27" spans="1:8">
@@ -4574,10 +4574,10 @@
         <x:v>54</x:v>
       </x:c>
       <x:c r="E27" s="0">
+        <x:v>82.95</x:v>
+      </x:c>
+      <x:c r="F27" s="0">
         <x:v>10</x:v>
-      </x:c>
-      <x:c r="F27" s="0">
-        <x:v>83</x:v>
       </x:c>
     </x:row>
     <x:row r="28" spans="1:8">
@@ -4594,10 +4594,10 @@
         <x:v>88</x:v>
       </x:c>
       <x:c r="E28" s="0">
+        <x:v>36.9</x:v>
+      </x:c>
+      <x:c r="F28" s="0">
         <x:v>11</x:v>
-      </x:c>
-      <x:c r="F28" s="0">
-        <x:v>37</x:v>
       </x:c>
     </x:row>
     <x:row r="29" spans="1:8">
@@ -4614,10 +4614,10 @@
         <x:v>265</x:v>
       </x:c>
       <x:c r="E29" s="0">
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="F29" s="0">
         <x:v>17</x:v>
-      </x:c>
-      <x:c r="F29" s="0">
-        <x:v>49</x:v>
       </x:c>
     </x:row>
     <x:row r="30" spans="1:8">
@@ -4634,10 +4634,10 @@
         <x:v>120</x:v>
       </x:c>
       <x:c r="E30" s="0">
+        <x:v>197.6</x:v>
+      </x:c>
+      <x:c r="F30" s="0">
         <x:v>5</x:v>
-      </x:c>
-      <x:c r="F30" s="0">
-        <x:v>198</x:v>
       </x:c>
     </x:row>
     <x:row r="31" spans="1:8">
@@ -4654,10 +4654,10 @@
         <x:v>181</x:v>
       </x:c>
       <x:c r="E31" s="0">
+        <x:v>29.9</x:v>
+      </x:c>
+      <x:c r="F31" s="0">
         <x:v>18</x:v>
-      </x:c>
-      <x:c r="F31" s="0">
-        <x:v>30</x:v>
       </x:c>
     </x:row>
     <x:row r="32" spans="1:8">
@@ -4674,10 +4674,10 @@
         <x:v>238</x:v>
       </x:c>
       <x:c r="E32" s="0">
+        <x:v>40.95</x:v>
+      </x:c>
+      <x:c r="F32" s="0">
         <x:v>7</x:v>
-      </x:c>
-      <x:c r="F32" s="0">
-        <x:v>41</x:v>
       </x:c>
     </x:row>
     <x:row r="33" spans="1:8">
@@ -4694,10 +4694,10 @@
         <x:v>322</x:v>
       </x:c>
       <x:c r="E33" s="0">
+        <x:v>14.16</x:v>
+      </x:c>
+      <x:c r="F33" s="0">
         <x:v>74</x:v>
-      </x:c>
-      <x:c r="F33" s="0">
-        <x:v>14</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -4757,10 +4757,10 @@
         <x:v>95</x:v>
       </x:c>
       <x:c r="E2" s="0">
+        <x:v>6.5</x:v>
+      </x:c>
+      <x:c r="F2" s="0">
         <x:v>12</x:v>
-      </x:c>
-      <x:c r="F2" s="0">
-        <x:v>6</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:8">
@@ -4777,10 +4777,10 @@
         <x:v>338</x:v>
       </x:c>
       <x:c r="E3" s="0">
+        <x:v>3.8</x:v>
+      </x:c>
+      <x:c r="F3" s="0">
         <x:v>439</x:v>
-      </x:c>
-      <x:c r="F3" s="0">
-        <x:v>4</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:8">
@@ -4797,10 +4797,10 @@
         <x:v>341</x:v>
       </x:c>
       <x:c r="E4" s="0">
+        <x:v>4.75</x:v>
+      </x:c>
+      <x:c r="F4" s="0">
         <x:v>366</x:v>
-      </x:c>
-      <x:c r="F4" s="0">
-        <x:v>5</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:8">
@@ -4817,10 +4817,10 @@
         <x:v>343</x:v>
       </x:c>
       <x:c r="E5" s="0">
+        <x:v>5.3</x:v>
+      </x:c>
+      <x:c r="F5" s="0">
         <x:v>185</x:v>
-      </x:c>
-      <x:c r="F5" s="0">
-        <x:v>5</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:8">
@@ -4837,10 +4837,10 @@
         <x:v>47</x:v>
       </x:c>
       <x:c r="E6" s="0">
+        <x:v>3.2</x:v>
+      </x:c>
+      <x:c r="F6" s="0">
         <x:v>1700</x:v>
-      </x:c>
-      <x:c r="F6" s="0">
-        <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:8">
@@ -4857,10 +4857,10 @@
         <x:v>348</x:v>
       </x:c>
       <x:c r="E7" s="0">
+        <x:v>1.49</x:v>
+      </x:c>
+      <x:c r="F7" s="0">
         <x:v>2800</x:v>
-      </x:c>
-      <x:c r="F7" s="0">
-        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:8">
@@ -4877,10 +4877,10 @@
         <x:v>117</x:v>
       </x:c>
       <x:c r="E8" s="0">
+        <x:v>7.9</x:v>
+      </x:c>
+      <x:c r="F8" s="0">
         <x:v>104</x:v>
-      </x:c>
-      <x:c r="F8" s="0">
-        <x:v>8</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:8">
@@ -4897,10 +4897,10 @@
         <x:v>352</x:v>
       </x:c>
       <x:c r="E9" s="0">
+        <x:v>2.95</x:v>
+      </x:c>
+      <x:c r="F9" s="0">
         <x:v>484</x:v>
-      </x:c>
-      <x:c r="F9" s="0">
-        <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:8">
@@ -4917,10 +4917,10 @@
         <x:v>354</x:v>
       </x:c>
       <x:c r="E10" s="0">
+        <x:v>7.9</x:v>
+      </x:c>
+      <x:c r="F10" s="0">
         <x:v>135</x:v>
-      </x:c>
-      <x:c r="F10" s="0">
-        <x:v>8</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:8">
@@ -4937,10 +4937,10 @@
         <x:v>357</x:v>
       </x:c>
       <x:c r="E11" s="0">
+        <x:v>13.79</x:v>
+      </x:c>
+      <x:c r="F11" s="0">
         <x:v>377</x:v>
-      </x:c>
-      <x:c r="F11" s="0">
-        <x:v>14</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:8">
@@ -4957,10 +4957,10 @@
         <x:v>360</x:v>
       </x:c>
       <x:c r="E12" s="0">
+        <x:v>87</x:v>
+      </x:c>
+      <x:c r="F12" s="0">
         <x:v>2300</x:v>
-      </x:c>
-      <x:c r="F12" s="0">
-        <x:v>87</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="1:8">
@@ -4977,10 +4977,10 @@
         <x:v>363</x:v>
       </x:c>
       <x:c r="E13" s="0">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="F13" s="0">
         <x:v>4400</x:v>
-      </x:c>
-      <x:c r="F13" s="0">
-        <x:v>29</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:8">
@@ -4997,10 +4997,10 @@
         <x:v>366</x:v>
       </x:c>
       <x:c r="E14" s="0">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="F14" s="0">
         <x:v>263</x:v>
-      </x:c>
-      <x:c r="F14" s="0">
-        <x:v>35</x:v>
       </x:c>
     </x:row>
     <x:row r="15" spans="1:8">
@@ -5017,10 +5017,10 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="E15" s="0">
+        <x:v>2.89</x:v>
+      </x:c>
+      <x:c r="F15" s="0">
         <x:v>2200</x:v>
-      </x:c>
-      <x:c r="F15" s="0">
-        <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="1:8">
@@ -5037,10 +5037,10 @@
         <x:v>371</x:v>
       </x:c>
       <x:c r="E16" s="0">
+        <x:v>13.9</x:v>
+      </x:c>
+      <x:c r="F16" s="0">
         <x:v>228</x:v>
-      </x:c>
-      <x:c r="F16" s="0">
-        <x:v>14</x:v>
       </x:c>
     </x:row>
     <x:row r="17" spans="1:8">
@@ -5057,10 +5057,10 @@
         <x:v>374</x:v>
       </x:c>
       <x:c r="E17" s="0">
+        <x:v>2.39</x:v>
+      </x:c>
+      <x:c r="F17" s="0">
         <x:v>107</x:v>
-      </x:c>
-      <x:c r="F17" s="0">
-        <x:v>2</x:v>
       </x:c>
     </x:row>
     <x:row r="18" spans="1:8">
@@ -5077,10 +5077,10 @@
         <x:v>377</x:v>
       </x:c>
       <x:c r="E18" s="0">
+        <x:v>1.79</x:v>
+      </x:c>
+      <x:c r="F18" s="0">
         <x:v>3800</x:v>
-      </x:c>
-      <x:c r="F18" s="0">
-        <x:v>2</x:v>
       </x:c>
     </x:row>
     <x:row r="19" spans="1:8">
@@ -5097,10 +5097,10 @@
         <x:v>62</x:v>
       </x:c>
       <x:c r="E19" s="0">
+        <x:v>12.26</x:v>
+      </x:c>
+      <x:c r="F19" s="0">
         <x:v>14</x:v>
-      </x:c>
-      <x:c r="F19" s="0">
-        <x:v>12</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="1:8">
@@ -5117,10 +5117,10 @@
         <x:v>382</x:v>
       </x:c>
       <x:c r="E20" s="0">
+        <x:v>1.99</x:v>
+      </x:c>
+      <x:c r="F20" s="0">
         <x:v>581</x:v>
-      </x:c>
-      <x:c r="F20" s="0">
-        <x:v>2</x:v>
       </x:c>
     </x:row>
     <x:row r="21" spans="1:8">
@@ -5137,10 +5137,10 @@
         <x:v>385</x:v>
       </x:c>
       <x:c r="E21" s="0">
+        <x:v>13.35</x:v>
+      </x:c>
+      <x:c r="F21" s="0">
         <x:v>75</x:v>
-      </x:c>
-      <x:c r="F21" s="0">
-        <x:v>13</x:v>
       </x:c>
     </x:row>
     <x:row r="22" spans="1:8">
@@ -5157,10 +5157,10 @@
         <x:v>302</x:v>
       </x:c>
       <x:c r="E22" s="0">
+        <x:v>27.9</x:v>
+      </x:c>
+      <x:c r="F22" s="0">
         <x:v>34</x:v>
-      </x:c>
-      <x:c r="F22" s="0">
-        <x:v>28</x:v>
       </x:c>
     </x:row>
     <x:row r="23" spans="1:8">
@@ -5177,10 +5177,10 @@
         <x:v>178</x:v>
       </x:c>
       <x:c r="E23" s="0">
+        <x:v>16.5</x:v>
+      </x:c>
+      <x:c r="F23" s="0">
         <x:v>65</x:v>
-      </x:c>
-      <x:c r="F23" s="0">
-        <x:v>16</x:v>
       </x:c>
     </x:row>
     <x:row r="24" spans="1:8">
@@ -5197,10 +5197,10 @@
         <x:v>392</x:v>
       </x:c>
       <x:c r="E24" s="0">
+        <x:v>3.5</x:v>
+      </x:c>
+      <x:c r="F24" s="0">
         <x:v>481</x:v>
-      </x:c>
-      <x:c r="F24" s="0">
-        <x:v>4</x:v>
       </x:c>
     </x:row>
     <x:row r="25" spans="1:8">
@@ -5217,10 +5217,10 @@
         <x:v>395</x:v>
       </x:c>
       <x:c r="E25" s="0">
+        <x:v>2.25</x:v>
+      </x:c>
+      <x:c r="F25" s="0">
         <x:v>141</x:v>
-      </x:c>
-      <x:c r="F25" s="0">
-        <x:v>2</x:v>
       </x:c>
     </x:row>
     <x:row r="26" spans="1:8">
@@ -5237,10 +5237,10 @@
         <x:v>238</x:v>
       </x:c>
       <x:c r="E26" s="0">
+        <x:v>23.66</x:v>
+      </x:c>
+      <x:c r="F26" s="0">
         <x:v>7</x:v>
-      </x:c>
-      <x:c r="F26" s="0">
-        <x:v>24</x:v>
       </x:c>
     </x:row>
     <x:row r="27" spans="1:8">
@@ -5257,10 +5257,10 @@
         <x:v>399</x:v>
       </x:c>
       <x:c r="E27" s="0">
+        <x:v>7.9</x:v>
+      </x:c>
+      <x:c r="F27" s="0">
         <x:v>140</x:v>
-      </x:c>
-      <x:c r="F27" s="0">
-        <x:v>8</x:v>
       </x:c>
     </x:row>
     <x:row r="28" spans="1:8">
@@ -5277,10 +5277,10 @@
         <x:v>128</x:v>
       </x:c>
       <x:c r="E28" s="0">
+        <x:v>24.56</x:v>
+      </x:c>
+      <x:c r="F28" s="0">
         <x:v>62</x:v>
-      </x:c>
-      <x:c r="F28" s="0">
-        <x:v>25</x:v>
       </x:c>
     </x:row>
     <x:row r="29" spans="1:8">
@@ -5297,10 +5297,10 @@
         <x:v>404</x:v>
       </x:c>
       <x:c r="E29" s="0">
+        <x:v>12.9</x:v>
+      </x:c>
+      <x:c r="F29" s="0">
         <x:v>670</x:v>
-      </x:c>
-      <x:c r="F29" s="0">
-        <x:v>13</x:v>
       </x:c>
     </x:row>
     <x:row r="30" spans="1:8">
@@ -5317,10 +5317,10 @@
         <x:v>147</x:v>
       </x:c>
       <x:c r="E30" s="0">
-        <x:v>8</x:v>
+        <x:v>37.99</x:v>
       </x:c>
       <x:c r="F30" s="0">
-        <x:v>38</x:v>
+        <x:v>8</x:v>
       </x:c>
     </x:row>
     <x:row r="31" spans="1:8">
@@ -5337,10 +5337,10 @@
         <x:v>47</x:v>
       </x:c>
       <x:c r="E31" s="0">
+        <x:v>3.79</x:v>
+      </x:c>
+      <x:c r="F31" s="0">
         <x:v>1700</x:v>
-      </x:c>
-      <x:c r="F31" s="0">
-        <x:v>4</x:v>
       </x:c>
     </x:row>
     <x:row r="32" spans="1:8">
@@ -5357,10 +5357,10 @@
         <x:v>159</x:v>
       </x:c>
       <x:c r="E32" s="0">
+        <x:v>24.5</x:v>
+      </x:c>
+      <x:c r="F32" s="0">
         <x:v>6</x:v>
-      </x:c>
-      <x:c r="F32" s="0">
-        <x:v>24</x:v>
       </x:c>
     </x:row>
     <x:row r="33" spans="1:8">
@@ -5377,10 +5377,10 @@
         <x:v>147</x:v>
       </x:c>
       <x:c r="E33" s="0">
-        <x:v>8</x:v>
+        <x:v>27.9</x:v>
       </x:c>
       <x:c r="F33" s="0">
-        <x:v>28</x:v>
+        <x:v>8</x:v>
       </x:c>
     </x:row>
     <x:row r="34" spans="1:8">
@@ -5397,10 +5397,10 @@
         <x:v>86</x:v>
       </x:c>
       <x:c r="E34" s="0">
+        <x:v>159.95</x:v>
+      </x:c>
+      <x:c r="F34" s="0">
         <x:v>81</x:v>
-      </x:c>
-      <x:c r="F34" s="0">
-        <x:v>160</x:v>
       </x:c>
     </x:row>
     <x:row r="35" spans="1:8">
@@ -5417,10 +5417,10 @@
         <x:v>415</x:v>
       </x:c>
       <x:c r="E35" s="0">
+        <x:v>8.2</x:v>
+      </x:c>
+      <x:c r="F35" s="0">
         <x:v>565</x:v>
-      </x:c>
-      <x:c r="F35" s="0">
-        <x:v>8</x:v>
       </x:c>
     </x:row>
     <x:row r="36" spans="1:8">
@@ -5437,10 +5437,10 @@
         <x:v>417</x:v>
       </x:c>
       <x:c r="E36" s="0">
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="F36" s="0">
         <x:v>87</x:v>
-      </x:c>
-      <x:c r="F36" s="0">
-        <x:v>49</x:v>
       </x:c>
     </x:row>
     <x:row r="37" spans="1:8">
@@ -5457,10 +5457,10 @@
         <x:v>141</x:v>
       </x:c>
       <x:c r="E37" s="0">
+        <x:v>49.9</x:v>
+      </x:c>
+      <x:c r="F37" s="0">
         <x:v>35</x:v>
-      </x:c>
-      <x:c r="F37" s="0">
-        <x:v>50</x:v>
       </x:c>
     </x:row>
     <x:row r="38" spans="1:8">
@@ -5477,10 +5477,10 @@
         <x:v>95</x:v>
       </x:c>
       <x:c r="E38" s="0">
+        <x:v>108</x:v>
+      </x:c>
+      <x:c r="F38" s="0">
         <x:v>12</x:v>
-      </x:c>
-      <x:c r="F38" s="0">
-        <x:v>108</x:v>
       </x:c>
     </x:row>
     <x:row r="39" spans="1:8">
@@ -5497,10 +5497,10 @@
         <x:v>88</x:v>
       </x:c>
       <x:c r="E39" s="0">
+        <x:v>12.26</x:v>
+      </x:c>
+      <x:c r="F39" s="0">
         <x:v>11</x:v>
-      </x:c>
-      <x:c r="F39" s="0">
-        <x:v>12</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/Data/Products_Lazada_filtered.xlsx
+++ b/Data/Products_Lazada_filtered.xlsx
@@ -80,835 +80,865 @@
     <x:t>64 sold</x:t>
   </x:si>
   <x:si>
+    <x:t>Casual Sneakers Cushioning Outdoor Running Shoes for Men Non-slip Sport Male Shoes Professional Athletic Training Men Air Shoes</x:t>
+  </x:si>
+  <x:si>
+    <x:t>RM37.94</x:t>
+  </x:si>
+  <x:si>
+    <x:t>China</x:t>
+  </x:si>
+  <x:si>
+    <x:t>772 sold</x:t>
+  </x:si>
+  <x:si>
     <x:t>【READY STOCK】Men's low top sports shoes, youth college style flat shoes, round toe lace up running shoes.</x:t>
   </x:si>
   <x:si>
     <x:t>RM26.10</x:t>
   </x:si>
   <x:si>
-    <x:t>China</x:t>
-  </x:si>
-  <x:si>
     <x:t>704 sold</x:t>
   </x:si>
   <x:si>
-    <x:t>Hot Sale Flying Woven Men's Shoes Fashion Soft Sole Casual Shoes Outdoor Sports Running Shoes</x:t>
+    <x:t>Men Low Top Running Shoes without Grinding Feet Sneakers Suitable for Camping Indoor Walking</x:t>
+  </x:si>
+  <x:si>
+    <x:t>RM19.95</x:t>
+  </x:si>
+  <x:si>
+    <x:t>26 sold</x:t>
+  </x:si>
+  <x:si>
+    <x:t>GRIMO Malaysia - DKEE Sneaker Women's Sport's Shoes Kasut Outdoor Lelaki Wanita Unisex Men's Sneakers Travel Casual Gift Korea Japan NEW Travel Comfort Selesa Women Ladies Girls New October 2022 ks13921</x:t>
+  </x:si>
+  <x:si>
+    <x:t>RM10.90</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2.0K sold</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Sports Daddy Men's Shoes Celebrity Summer New Fashionable In Trend Breathable Old Wild/Men Shoes</x:t>
+  </x:si>
+  <x:si>
+    <x:t>RM13.95</x:t>
+  </x:si>
+  <x:si>
+    <x:t>28 sold</x:t>
+  </x:si>
+  <x:si>
+    <x:t>READY STOCK Men's Sport Shoes Sneakers Fashion Harga Murah Kasut Lelaki Murah Walking Running Sport</x:t>
+  </x:si>
+  <x:si>
+    <x:t>RM7.93</x:t>
+  </x:si>
+  <x:si>
+    <x:t>34 sold</x:t>
+  </x:si>
+  <x:si>
+    <x:t>New Balance Official Store NB574 Sneaker Grey Blue 574NSF Sports Shoes for Men women running 【Lazada Guarantee】</x:t>
+  </x:si>
+  <x:si>
+    <x:t>RM134.00</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Kedah</x:t>
+  </x:si>
+  <x:si>
+    <x:t>62 sold</x:t>
+  </x:si>
+  <x:si>
+    <x:t>New balance 530 MR530AA1 NB530 Shoes off-White Sneakers Sports Sneakers Running Shoes unisex-next day delivery【Lazada Guarantee】</x:t>
+  </x:si>
+  <x:si>
+    <x:t>RM128.00</x:t>
+  </x:si>
+  <x:si>
+    <x:t>22 sold</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Sports Shoes for Men Sneaker Casual Shoes Fashion Korean Style On Sale Original Soft Low top Shoes New Flat Sneaker</x:t>
+  </x:si>
+  <x:si>
+    <x:t>RM27.90</x:t>
+  </x:si>
+  <x:si>
+    <x:t>32 sold</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Kasut Lelaki Musim Luruh Baru Tinggi -Top Daddy Shoes Belia Bergaya Running Kasut Kasual Kasut Sukan Kasut Pu Kasut Pu</x:t>
+  </x:si>
+  <x:si>
+    <x:t>RM38.34</x:t>
+  </x:si>
+  <x:si>
+    <x:t>185 sold</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Men's Fashion Trend Outdoor Mountaineering Sports Large Dad Shoes Running Shoes</x:t>
+  </x:si>
+  <x:si>
+    <x:t>24 sold</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Men Sneakers Sports Shoes Running Sneakers Men Shoes Kasut Sukan Lelaki Kasut Lelaki Shoes Lelaki</x:t>
+  </x:si>
+  <x:si>
+    <x:t>RM14.95</x:t>
+  </x:si>
+  <x:si>
+    <x:t>10 sold</x:t>
+  </x:si>
+  <x:si>
+    <x:t>【HOT SALE】Tiger TOKUTEN 66 SLIP-ON Black White 1183A360-205 Low Top Unisex Sneakers One Year Warranty</x:t>
+  </x:si>
+  <x:si>
+    <x:t>RM129.00</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Melaka</x:t>
+  </x:si>
+  <x:si>
+    <x:t>7 sold</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2025 Raya READY STOCK Second Generation Alpha Air Zoom Kasut Sukan Lelaki Cushion Couple Sneakers Kasut Joging Lelaki</x:t>
+  </x:si>
+  <x:si>
+    <x:t>RM39.99</x:t>
+  </x:si>
+  <x:si>
+    <x:t>RM23.34</x:t>
+  </x:si>
+  <x:si>
+    <x:t>269 sold</x:t>
+  </x:si>
+  <x:si>
+    <x:t>240 sold</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Men’s Casual Sport Shoes Korean Style Flying Woven Mesh Shoes Lace-Up Sport Running Shoes Kasut Kasual Kasut Lari 运动休闲鞋</x:t>
+  </x:si>
+  <x:si>
+    <x:t>RM13.64</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Perak</x:t>
+  </x:si>
+  <x:si>
+    <x:t>723 sold</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Original Black Men's Sports Shoes Imported Men's Shoes Lightweight And Casual Running Shoes</x:t>
+  </x:si>
+  <x:si>
+    <x:t>77 sold</x:t>
+  </x:si>
+  <x:si>
+    <x:t>【READY STOCK】Men's Mesh Sports Shoes Lightweight Flat Running Shoes Breathable Mesh Casual Board Shoes</x:t>
+  </x:si>
+  <x:si>
+    <x:t>163 sold</x:t>
+  </x:si>
+  <x:si>
+    <x:t>15 sold</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ORNGMALL New Spring And Summer Men Sport Sneakers Casual Shoes Men Women Sneakers Wear-Resisting Non-Slip Male Footwears Couple Shoes Plus Size Shoes 36-47</x:t>
+  </x:si>
+  <x:si>
+    <x:t>RM33.59</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1.9K sold</x:t>
+  </x:si>
+  <x:si>
+    <x:t>GRIMO Malaysia - Inferno-burn Sneaker Men's Sport Kasut Outdoor Shoe Lelaki Sukan Women's Sneakers Travel ks12228</x:t>
+  </x:si>
+  <x:si>
+    <x:t>RM27.45</x:t>
+  </x:si>
+  <x:si>
+    <x:t>438 sold</x:t>
+  </x:si>
+  <x:si>
+    <x:t>RM8.73</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6 sold</x:t>
+  </x:si>
+  <x:si>
+    <x:t>RM35.00</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Johor</x:t>
+  </x:si>
+  <x:si>
+    <x:t>922 sold</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Cool Men's Sports Shoes Latest Styles Of Men's Sports Shoes Running Shoes</x:t>
+  </x:si>
+  <x:si>
+    <x:t>RM29.90</x:t>
+  </x:si>
+  <x:si>
+    <x:t>73 sold</x:t>
+  </x:si>
+  <x:si>
+    <x:t>High quality trendy student board shoes casual for men's shoes Breathable upper Wear-resistant sole</x:t>
+  </x:si>
+  <x:si>
+    <x:t>RM25.80</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1.0K sold</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Women's Mesh Sports Shoes Lightweight Flat Running Shoes Breathable Mesh Casual Board Shoes</x:t>
+  </x:si>
+  <x:si>
+    <x:t>RM17.90</x:t>
+  </x:si>
+  <x:si>
+    <x:t>68 sold</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Casual Women Sport Shoes Sneakers Kasut Sukan Perempuan Fashion Harga Murah Harga Lelong Female Girl Cantik Running</x:t>
+  </x:si>
+  <x:si>
+    <x:t>RM9.49</x:t>
+  </x:si>
+  <x:si>
+    <x:t>484 sold</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Fashion Nova _xD83D__xDC9D_ READY STOCK Sport Slip on Sneaker Women's Sport Shoes Kasut Walking Running Lady Perempuan Wanita Lawa Gift</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3.5K sold</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Sneakers Breathable Increase height fashion casual shoes and Korean simple and cute women's shoes</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3.0K sold</x:t>
+  </x:si>
+  <x:si>
+    <x:t>READY STOCK Women Sport Shoes Sneakers Kasut Sukan Perempuan Fashion Harga Murah Harga Lelong Female Girl Cantik Running</x:t>
+  </x:si>
+  <x:si>
+    <x:t>RM8.49</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4.8K sold</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Sneaker Women's Sport Shoes Kasut Outdoor Shoe Kasut Sukan Perempuan</x:t>
+  </x:si>
+  <x:si>
+    <x:t>RM17.00</x:t>
+  </x:si>
+  <x:si>
+    <x:t>39 sold</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Korean HAlF SHOES FOR WOMEN two color lace up platform women's shoes Girl Walking Shoes Casual Footwear</x:t>
+  </x:si>
+  <x:si>
+    <x:t>RM22.80</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1.6K sold</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Student cute little white shoes for women 2024 summer new breathable versatile thick-soled height-enhancing big-toe shoes super hot sports shoes</x:t>
+  </x:si>
+  <x:si>
+    <x:t>RM27.80</x:t>
+  </x:si>
+  <x:si>
+    <x:t>877 sold</x:t>
+  </x:si>
+  <x:si>
+    <x:t>READY STOCK Meowme Korean Casual Women's Shoes - Stylish Flyknit Mesh Sneakers for Summer Activities KP437</x:t>
+  </x:si>
+  <x:si>
+    <x:t>RM16.50</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Pahang</x:t>
+  </x:si>
+  <x:si>
+    <x:t>31 sold</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Limited Offer! Newbalance MS327DT jogging shoes for women&amp;man-Retro bluish beige|Breathable Material&amp;Retro Style For Casual</x:t>
+  </x:si>
+  <x:si>
+    <x:t>RM297.60</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Wp Kuala Lumpur</x:t>
+  </x:si>
+  <x:si>
+    <x:t>GRIMO Malaysia - Jiqueen Cover Shoe Women's Oxfords Shoes Loafers Flat Kasut Wanita Casual Gift Travel Comfort Selesa Women Ladies Girls New December 2022 ks14975</x:t>
+  </x:si>
+  <x:si>
+    <x:t>RM9.90</x:t>
+  </x:si>
+  <x:si>
+    <x:t>947 sold</x:t>
+  </x:si>
+  <x:si>
+    <x:t>BT Kasut Perempuan Kasut Wanita Shoes for Women Korean Version on Sale Flat Shoes Casual Women Leather Shoes Rubber Heighten Platform Loafers Women Shoes Plue Size 35-44</x:t>
+  </x:si>
+  <x:si>
+    <x:t>RM26.22</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2.7K sold</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Non Slip Wearable All-Match Soft Bottom Casual Shoes Breathable Running Shoes Sneaker New Mesh Spring and Summer Super Light Women</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Handmade Embroidered Tiger Head Shoes 3cm Heel Soft Bottom Comfortable Old Beijing Cloth Shoes Increased Height Inner Design</x:t>
+  </x:si>
+  <x:si>
+    <x:t>RM62.38</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Overseas</x:t>
+  </x:si>
+  <x:si>
+    <x:t>375 sold</x:t>
+  </x:si>
+  <x:si>
+    <x:t>_xD83C__xDF4B_ READY STOCK_xD83C__xDF4B_Latest Fashion shoe kasut women's casual shoes , shoes for work</x:t>
+  </x:si>
+  <x:si>
+    <x:t>200 sold</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Jiqueen Cover Shoe Women's Oxfords Shoes Loafers Flat Kasut Wanita</x:t>
+  </x:si>
+  <x:si>
+    <x:t>RM8.50</x:t>
+  </x:si>
+  <x:si>
+    <x:t>135 sold</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Brand GenGeGo COD Sport Running Shoes Sport Shoes Women Sneakers Casual Running Shoes Jogging Shoes Jogging Perempuan Sneakers For Women Sepatu Wanita Impor Terbaru White Shoes</x:t>
+  </x:si>
+  <x:si>
+    <x:t>RM16.00</x:t>
+  </x:si>
+  <x:si>
+    <x:t>14 sold</x:t>
+  </x:si>
+  <x:si>
+    <x:t>RM12.99</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1.8K sold</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Kasut Sukan Wanita Berkuality Shoes Women Sneakers K207 Sport Shoes Kasut Runnig Sport Outdoor</x:t>
+  </x:si>
+  <x:si>
+    <x:t>RM17.85</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1.7K sold</x:t>
+  </x:si>
+  <x:si>
+    <x:t>READY STOCK_xD83D__xDD25_OLL Women Sandal pearl leather Shoes Wanita Selipar</x:t>
+  </x:si>
+  <x:si>
+    <x:t>RM7.90</x:t>
+  </x:si>
+  <x:si>
+    <x:t>902 sold</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Fashion Nova _xD83C__xDF81_ Ready Stock _xD83C__xDF08_ Men's and \Women's single shoes breathable mesh shoes mother shoes middle-aged and elderly walking shoes stall shoes manufacturers</x:t>
+  </x:si>
+  <x:si>
+    <x:t>RM7.50</x:t>
+  </x:si>
+  <x:si>
+    <x:t>545 sold</x:t>
+  </x:si>
+  <x:si>
+    <x:t>READY STOCK_xD83D__xDD25_KFS Shiunis Sandal Women's Kasut Shoe Slipper Lady Perempuan Wanita Girl Lawa Casual Shoes</x:t>
+  </x:si>
+  <x:si>
+    <x:t>RM6.99</x:t>
+  </x:si>
+  <x:si>
+    <x:t>GRIMO Malaysia - Or-lik Women Sneaker Shoe Women Running Outdoor Sport Kasut Casual Walking Perempuan Wanita Women Perempuan Lady Kasut Lelaki Man Gaya Sport for Raya Murah Pretty Hadiah Gift Korea Japan NEW Travel August 2019 Perempuan Lady</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1.5K sold</x:t>
+  </x:si>
+  <x:si>
+    <x:t>_xD83C__xDF4B_ READY STOCK_xD83C__xDF4B_Mesh Thick-Soled Sandals Women Nurse Shoes Mother Shoes Work Shoes Work Shoes Flat-Soled Hole Beach Shoes</x:t>
+  </x:si>
+  <x:si>
+    <x:t>RM8.75</x:t>
+  </x:si>
+  <x:si>
+    <x:t>121 sold</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ready Stock Korean Style Fashion shoes Women Men hot running models All-match casual sports student kasut sukan wanita</x:t>
+  </x:si>
+  <x:si>
+    <x:t>RM19.99</x:t>
+  </x:si>
+  <x:si>
+    <x:t>82 sold</x:t>
+  </x:si>
+  <x:si>
+    <x:t>_xD83C__xDF4B_ READY STOCK_xD83C__xDF4B_Women's Flat OL Kasut Wanita Women Rubber Shoes Ribbon -3</x:t>
+  </x:si>
+  <x:si>
+    <x:t>RM11.99</x:t>
+  </x:si>
+  <x:si>
+    <x:t>355 sold</x:t>
+  </x:si>
+  <x:si>
+    <x:t>READY STOCK MeowMe Women's Outdoor Sneakers Sport Shoes Kasut Sukan Wanita</x:t>
+  </x:si>
+  <x:si>
+    <x:t>45 sold</x:t>
+  </x:si>
+  <x:si>
+    <x:t>GRIMO Malaysia - Gloo-rick Sneaker Women's Sport Shoes Kasut Walking Running Lady Perempuan Wanita Lawa Gift ks12193</x:t>
+  </x:si>
+  <x:si>
+    <x:t>RM24.38</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ready Stock Fashion Women Sneakers Casual Female Shoe Outdoor Sport Shoes Kasut Sukan Wanita Kanvas Perempuan Sneaker</x:t>
+  </x:si>
+  <x:si>
+    <x:t>23 sold</x:t>
+  </x:si>
+  <x:si>
+    <x:t>RM7.89</x:t>
+  </x:si>
+  <x:si>
+    <x:t>230 sold</x:t>
+  </x:si>
+  <x:si>
+    <x:t>SELESA Canvas Shoes Women Kasut Kanvas Perempuan Sneakers Women Plus Size Kasut Plus Size Canvas Sneakers Platform</x:t>
   </x:si>
   <x:si>
     <x:t>RM24.90</x:t>
   </x:si>
   <x:si>
-    <x:t>106 sold</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Men Low Top Running Shoes without Grinding Feet Sneakers Suitable for Camping Indoor Walking</x:t>
-  </x:si>
-  <x:si>
-    <x:t>RM19.95</x:t>
-  </x:si>
-  <x:si>
-    <x:t>26 sold</x:t>
-  </x:si>
-  <x:si>
-    <x:t>READY STOCK Men's Sport Shoes Sneakers Fashion Harga Murah Kasut Lelaki Murah Walking Running Sport</x:t>
-  </x:si>
-  <x:si>
-    <x:t>RM7.93</x:t>
-  </x:si>
-  <x:si>
-    <x:t>34 sold</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Sports Daddy Men's Shoes Celebrity Summer New Fashionable In Trend Breathable Old Wild/Men Shoes</x:t>
-  </x:si>
-  <x:si>
-    <x:t>RM13.95</x:t>
-  </x:si>
-  <x:si>
-    <x:t>28 sold</x:t>
-  </x:si>
-  <x:si>
-    <x:t>GRIMO Malaysia - DKEE Sneaker Women's Sport's Shoes Kasut Outdoor Lelaki Wanita Unisex Men's Sneakers Travel Casual Gift Korea Japan NEW Travel Comfort Selesa Women Ladies Girls New October 2022 ks13921</x:t>
-  </x:si>
-  <x:si>
-    <x:t>RM10.90</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2.0K sold</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Men's Fashion Trend Outdoor Mountaineering Sports Large Dad Shoes Running Shoes</x:t>
-  </x:si>
-  <x:si>
-    <x:t>24 sold</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Men Sneakers Sports Shoes Running Sneakers Men Shoes Kasut Sukan Lelaki Kasut Lelaki Shoes Lelaki</x:t>
-  </x:si>
-  <x:si>
-    <x:t>RM14.95</x:t>
-  </x:si>
-  <x:si>
-    <x:t>10 sold</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Kasut Lelaki Musim Luruh Baru Tinggi -Top Daddy Shoes Belia Bergaya Running Kasut Kasual Kasut Sukan Kasut Pu Kasut Pu</x:t>
-  </x:si>
-  <x:si>
-    <x:t>RM38.34</x:t>
-  </x:si>
-  <x:si>
-    <x:t>185 sold</x:t>
-  </x:si>
-  <x:si>
-    <x:t>RM8.43</x:t>
-  </x:si>
-  <x:si>
-    <x:t>14 sold</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Flying Woven Men's Shoes Fashion Soft Sole Casual Shoes Outdoor Sports Running Shoes Lightweight Outdoor Running Shoes</x:t>
-  </x:si>
-  <x:si>
-    <x:t>18 sold</x:t>
-  </x:si>
-  <x:si>
-    <x:t>【READY STOCK】Men's Mesh Sports Shoes Lightweight Flat Running Shoes Breathable Mesh Casual Board Shoes</x:t>
-  </x:si>
-  <x:si>
-    <x:t>RM27.90</x:t>
-  </x:si>
-  <x:si>
-    <x:t>163 sold</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Original Black Men's Sports Shoes Imported Men's Shoes Lightweight And Casual Running Shoes</x:t>
-  </x:si>
-  <x:si>
-    <x:t>77 sold</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Men's Mesh High Top Sports Shoes Lightweight Flat Running Shoes Breathable Mesh Casual Board Shoes.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>5 sold</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2025 Raya READY STOCK Second Generation Alpha Air Zoom Kasut Sukan Lelaki Cushion Couple Sneakers Kasut Joging Lelaki</x:t>
-  </x:si>
-  <x:si>
-    <x:t>RM39.99</x:t>
-  </x:si>
-  <x:si>
-    <x:t>15 sold</x:t>
-  </x:si>
-  <x:si>
-    <x:t>[ READY STCOK ] SP7725 Space Men Black | Rubber Shoe Men | Labour Shoe | Sport Shoe</x:t>
-  </x:si>
-  <x:si>
-    <x:t>RM11.90</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Perak</x:t>
-  </x:si>
-  <x:si>
-    <x:t>169 sold</x:t>
-  </x:si>
-  <x:si>
-    <x:t>GRIMO Malaysia - Inferno-burn Sneaker Men's Sport Kasut Outdoor Shoe Lelaki Sukan Women's Sneakers Travel ks12228</x:t>
-  </x:si>
-  <x:si>
-    <x:t>RM27.45</x:t>
-  </x:si>
-  <x:si>
-    <x:t>438 sold</x:t>
-  </x:si>
-  <x:si>
-    <x:t>RM8.73</x:t>
-  </x:si>
-  <x:si>
-    <x:t>6 sold</x:t>
-  </x:si>
-  <x:si>
-    <x:t>RM35.00</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Johor</x:t>
-  </x:si>
-  <x:si>
-    <x:t>922 sold</x:t>
-  </x:si>
-  <x:si>
-    <x:t>High quality trendy student board shoes casual for men's shoes Breathable upper Wear-resistant sole</x:t>
-  </x:si>
-  <x:si>
-    <x:t>RM25.80</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1.0K sold</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Cool Men's Sports Shoes Latest Styles Of Men's Sports Shoes Running Shoes</x:t>
-  </x:si>
-  <x:si>
-    <x:t>RM29.90</x:t>
-  </x:si>
-  <x:si>
-    <x:t>73 sold</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Ready Stock Fashion Men Sport Shoes Breathable Sneakers Running Shoes Lelaki Kasut Sukan</x:t>
-  </x:si>
-  <x:si>
-    <x:t>RM9.59</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Pahang</x:t>
-  </x:si>
-  <x:si>
-    <x:t>683 sold</x:t>
-  </x:si>
-  <x:si>
-    <x:t>GRIMO Malaysia - Loli-tack Sneaker Men's Sport's Shoes Kasut Outdoor Lelaki Wanita Women's Sneakers Travel ks11589</x:t>
-  </x:si>
-  <x:si>
-    <x:t>RM18.50</x:t>
-  </x:si>
-  <x:si>
-    <x:t>833 sold</x:t>
-  </x:si>
-  <x:si>
-    <x:t>JUSTKIDDIN123 MALAYSIA Englex Sneaker Men's Sport's Kasut Shoe Lelaki Sekolah Women's Sneakers Casual Travel Outdoor</x:t>
-  </x:si>
-  <x:si>
-    <x:t>RM9.72</x:t>
-  </x:si>
-  <x:si>
-    <x:t>READY STOCK Meowme Kasut Mens Comfortable Casual Fashion Shoes Running Shoes SM485</x:t>
+    <x:t>2.2K sold</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ready Stock_xD83C__xDDF2__xD83C__xDDFE_Men Short Sleeve Button Collar Shirt Plain Casual Baju Lelaki Kemeja Berkolar Butang Lengan Pendek</x:t>
+  </x:si>
+  <x:si>
+    <x:t>RM10.97</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3.9K sold</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Premium T-shirt Lelaki Perempuan Unisex Men Women Unisex New Design T shirt Murah Baju Round Neck Size S~5XL</x:t>
+  </x:si>
+  <x:si>
+    <x:t>RM4.89</x:t>
+  </x:si>
+  <x:si>
+    <x:t>12.7K sold</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Summer fashion T-shirt, round neck short sleeved shirt, top, T-shirt, men's T-shirt#T138</x:t>
+  </x:si>
+  <x:si>
+    <x:t>RM5.90</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2.3K sold</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ZEKE Kemeja Lelaki Long Sleeve Slim Fit Suit Shirt Plus Size Business Formal Shirt Men baju kemeja lelaki READY STOCK</x:t>
+  </x:si>
+  <x:si>
+    <x:t>RM15.34</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6.1K sold</x:t>
+  </x:si>
+  <x:si>
+    <x:t>T-shirt lelaki, T-shirt leher bulat, T-shirt fashionable, lengan pendek, warna berbilang untuk dipilih dari#T51</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1.4K sold</x:t>
+  </x:si>
+  <x:si>
+    <x:t>【From Perak】ProMan baju t shirt lelaki ice Silk Quick-Drying Short-Sleeved T-Shirt Men Summer Fitness Sports Breathable Cool Lightweight Printed Top Round Neck 男士运动衫短袖T恤</x:t>
+  </x:si>
+  <x:si>
+    <x:t>RM8.81</x:t>
+  </x:si>
+  <x:si>
+    <x:t>YOCHO Summer New Short Sleeve Tshirt Mens Round Neck Korean Version Pullover Slim MEN Tshirt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>RM6.34</x:t>
+  </x:si>
+  <x:si>
+    <x:t>276 sold</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Korea COD，2024 t shirt,Baju Cotton LUCAS OIL MOTOR ,Premium Quality Cotton ADULT T-Shirt / LUCAS OIL Dusty Pink COD</x:t>
+  </x:si>
+  <x:si>
+    <x:t>RM7.81</x:t>
+  </x:si>
+  <x:si>
+    <x:t>779 sold</x:t>
+  </x:si>
+  <x:si>
+    <x:t>YOCHO Men's Short Sleeved POLO Shirt Print Student POLO t-Shirt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>RM7.34</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4.3K sold</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Plain Polo T-Shirt Short sleeve Unisex Men Polo Shirt Fit Premium Quality (Beige/Orange Colour)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>RM5.00</x:t>
+  </x:si>
+  <x:si>
+    <x:t>POLO Summer Korean Style Fashion All Short Sleeved T Shirt Men Top T Shirt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>RM21.90</x:t>
+  </x:si>
+  <x:si>
+    <x:t>21 sold</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Men's 100% cotton summer loose size PARIS letter Graphic printed slim fit casual sports round neck short sleeved T-shirt top</x:t>
+  </x:si>
+  <x:si>
+    <x:t>RM14.97</x:t>
+  </x:si>
+  <x:si>
+    <x:t>78 sold</x:t>
+  </x:si>
+  <x:si>
+    <x:t>POLO Fashion brand Round Neck Men T-shirts Casual T Shirt Youth Short Sleeve Tees Sports T Shirt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>"B" series cotton round neck men's short 2025 summer new five-quarter sleeve fashion brand men's loos short sleeve simpl</x:t>
+  </x:si>
+  <x:si>
+    <x:t>POLO Men's high street letter-printed short sleeve T-shirt men's summer loose cotton fashion brand T-shirt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>POLO Short-sleeved T-shirt men's new summer trend brand oversize niche high street American loose shirt ins</x:t>
+  </x:si>
+  <x:si>
+    <x:t>New Arive High Quality Azfar Men Kurta Como Crepe</x:t>
+  </x:si>
+  <x:si>
+    <x:t>815 sold</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Halloween Style Staples MY Distro T-Shirt KAOS- naga biru - Distro Upgrade Cotton Top tee Short Sleeve Tshirt baju t shirt lelaki Unisex Bahagian belakang depan ​COD christmas</x:t>
+  </x:si>
+  <x:si>
+    <x:t>RM8.90</x:t>
+  </x:si>
+  <x:si>
+    <x:t>27 sold</x:t>
+  </x:si>
+  <x:si>
+    <x:t>SMC ProMan lelaki men Short Sleeve Solid Color Simple And Easy Matching Waffle Fabric M-3Xl</x:t>
+  </x:si>
+  <x:si>
+    <x:t>RM3.98</x:t>
+  </x:si>
+  <x:si>
+    <x:t>130 sold</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Plain Polo T-Shirt Short sleeve Unisex Men Polo Shirt Fit Premium Quality (Khaki/Black Colour)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1.3K sold</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2025 Summer Men's Fashion Business Loose Pure Solid Color Simple Casual Cool Versatile Polo Neck Short Sleeve T-shirt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>RM14.00</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1.1K sold</x:t>
+  </x:si>
+  <x:si>
+    <x:t>KURTA SLIM FIT WITH MODREN DESIGN Cotton Plain Kemeja</x:t>
+  </x:si>
+  <x:si>
+    <x:t>RM26.74</x:t>
+  </x:si>
+  <x:si>
+    <x:t>435 sold</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Feveld cotton Men's Undershirt Bottoming Shirt 1 Pcs Cotton Men Casual Top Shirt Soft Breathable Slim Male Undershirt Summer Wear</x:t>
+  </x:si>
+  <x:si>
+    <x:t>RM5.62</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6.5K sold</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ADVO Microfiber T-shirt Quick Dry T Shirt Plain Gym Exercise Men Women Training Workout Sportswear Baju Lelaki Jersey Murah</x:t>
+  </x:si>
+  <x:si>
+    <x:t>RM6.90</x:t>
+  </x:si>
+  <x:si>
+    <x:t>47.3K sold</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 Summer Men Clothing T-shirts Casual O-neck Tops Tees Fashion Golden Letters Printing Male All-match Kpop Breathable T Shirt S-XL</x:t>
+  </x:si>
+  <x:si>
+    <x:t>40 sold</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Spring/Summer New European and American Men's Shirts Large Casual Loose Short sleeved Shirts Trendy Men's Shirts</x:t>
+  </x:si>
+  <x:si>
+    <x:t>RM15.44</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Dress for women 2024 summer new fashion casual slimming comfortable dress for women long skirt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>RM12.11</x:t>
+  </x:si>
+  <x:si>
+    <x:t>47 sold</x:t>
+  </x:si>
+  <x:si>
+    <x:t>IBeauty Elegant Slim Fit Printed Dress for Women Plus Size 688</x:t>
+  </x:si>
+  <x:si>
+    <x:t>RM8.34</x:t>
+  </x:si>
+  <x:si>
+    <x:t>79 sold</x:t>
+  </x:si>
+  <x:si>
+    <x:t>IBeauty Floral Long Dress for Women Plus Size</x:t>
+  </x:si>
+  <x:si>
+    <x:t>RM10.10</x:t>
+  </x:si>
+  <x:si>
+    <x:t>249 sold</x:t>
+  </x:si>
+  <x:si>
+    <x:t>✅【READY STOCK At Johor】Beryl Solid Color Short-Sleeved Wrap Dress For Women Above The Knee Round Neck Slim Fit Dres</x:t>
+  </x:si>
+  <x:si>
+    <x:t>63 sold</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Summer Dresses for Women 2022 Black Elegant Dress Office Lady Sleeveless Casual Dress Spaghetti Strap Tight Through Dress Party Mini Dress</x:t>
+  </x:si>
+  <x:si>
+    <x:t>RM4.84</x:t>
+  </x:si>
+  <x:si>
+    <x:t>53 sold</x:t>
+  </x:si>
+  <x:si>
+    <x:t>IBeauty Floral Dress for Women Plus Size Short Sleeve Print Maxi Dress 160</x:t>
+  </x:si>
+  <x:si>
+    <x:t>RM13.43</x:t>
+  </x:si>
+  <x:si>
+    <x:t>133 sold</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Plus Size Dress for Women Floral Printing Dresses Fake Two-piece Dress</x:t>
+  </x:si>
+  <x:si>
+    <x:t>RM14.10</x:t>
+  </x:si>
+  <x:si>
+    <x:t>415 sold</x:t>
+  </x:si>
+  <x:si>
+    <x:t>IBeauty Cotton Dress for Women Plus Size Casual Floral Long Dresses</x:t>
+  </x:si>
+  <x:si>
+    <x:t>RM13.10</x:t>
+  </x:si>
+  <x:si>
+    <x:t>96 sold</x:t>
+  </x:si>
+  <x:si>
+    <x:t>black floral dress for women white korean dress style midi plus size dress 3xl dinner long summer dress woman</x:t>
+  </x:si>
+  <x:si>
+    <x:t>646 sold</x:t>
+  </x:si>
+  <x:si>
+    <x:t>IBeauty Plus Size Irregular Dress for Women Retro Slim Fit Print Shirt Dress</x:t>
+  </x:si>
+  <x:si>
+    <x:t>RM10.83</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Kaftan Viral/ Baju Kelawar</x:t>
+  </x:si>
+  <x:si>
+    <x:t>316 sold</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Kaftan Dubai Borong Baju Kelawar Cantik Sejuk dan Sangat SELESA_xD83D__xDD25_</x:t>
+  </x:si>
+  <x:si>
+    <x:t>RM7.69</x:t>
+  </x:si>
+  <x:si>
+    <x:t>376 sold</x:t>
+  </x:si>
+  <x:si>
+    <x:t>_xD83D__xDD25_KAFTAN MURAH_xD83D__xDD25_Baju kelawar kaftan black series - Ready stock</x:t>
+  </x:si>
+  <x:si>
+    <x:t>RM8.80</x:t>
+  </x:si>
+  <x:si>
+    <x:t>334 sold</x:t>
+  </x:si>
+  <x:si>
+    <x:t>IRONLESS KAFTAN SARA WITH POCKET FREE SIZE ABAYA PLAIN ROBE &amp; JUBAH LONG ABAYA MAXI LONG DRESS GAMIS JUBAH UMRAH NURSING JUBAH MUSLIMAH DRESS MODEST FASHION</x:t>
+  </x:si>
+  <x:si>
+    <x:t>RM19.00</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3.2K sold</x:t>
+  </x:si>
+  <x:si>
+    <x:t>INNER JUBAH ABAYA/LONG INNER/KAFTAN/MUSLIMAH LONG INNER DRESS T120</x:t>
+  </x:si>
+  <x:si>
+    <x:t>126 sold</x:t>
+  </x:si>
+  <x:si>
+    <x:t>_xD83C__xDDF2__xD83C__xDDFE_ DESINCE Women Dress Vintage Puff Long Sleeve Maxi Dress Solid O Neck Muslimah Dress Perempuan Dress Panjang WW 007</x:t>
+  </x:si>
+  <x:si>
+    <x:t>RM22.67</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Sexy Skirt Women Maxi Dress Loose Straight Skirt Sleeveless Dresses O-neck Sling Long Party Dress</x:t>
+  </x:si>
+  <x:si>
+    <x:t>212 sold</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MARISSA ABAYA LACE CEY IRONLESS</x:t>
+  </x:si>
+  <x:si>
+    <x:t>RM16.99</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Negeri Sembilan</x:t>
+  </x:si>
+  <x:si>
+    <x:t>59 sold</x:t>
+  </x:si>
+  <x:si>
+    <x:t>KM Khadeeja Kaftan Dubai Long Dress Short Sleeves [D2753A]</x:t>
+  </x:si>
+  <x:si>
+    <x:t>RM10.00</x:t>
+  </x:si>
+  <x:si>
+    <x:t>175 sold</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ZANZEA Muslimah Womens Muslim Casual Holiday Sundress Bubble Long Sleeve Hippie Wedding Dresses</x:t>
+  </x:si>
+  <x:si>
+    <x:t>RM32.50</x:t>
+  </x:si>
+  <x:si>
+    <x:t>406 sold</x:t>
+  </x:si>
+  <x:si>
+    <x:t>NEW MUSLIMA KAFTAN VIRAL (BERTALI) MURAH</x:t>
+  </x:si>
+  <x:si>
+    <x:t>RM18.99</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Muslimah Jubah Dress Pario Kaftan KAFTAN PARIO READY STOCK</x:t>
+  </x:si>
+  <x:si>
+    <x:t>RM16.89</x:t>
+  </x:si>
+  <x:si>
+    <x:t>TRADITIONAL Jubah Abaya Centik Lace Dress Lovely Jubah Diana ERA AINA– DIANA LACE</x:t>
+  </x:si>
+  <x:si>
+    <x:t>RM31.00</x:t>
+  </x:si>
+  <x:si>
+    <x:t>52 sold</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Plain cey ironless kaftan</x:t>
+  </x:si>
+  <x:si>
+    <x:t>RM13.20</x:t>
+  </x:si>
+  <x:si>
+    <x:t>19 sold</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Baju Raya 2025 Sports Muslim dress Jersey Plus Size Baju Muslimah Sportwear Customization Name/Number Loose Muslimah Jersey T-shirt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>RM21.26</x:t>
+  </x:si>
+  <x:si>
+    <x:t>KAFTAN VIRAL BF FRIENDLY IRONLES CEY EMBROIDERY with pocket</x:t>
   </x:si>
   <x:si>
     <x:t>RM19.70</x:t>
   </x:si>
   <x:si>
-    <x:t>Women's Mesh Sports Shoes Lightweight Flat Running Shoes Breathable Mesh Casual Board Shoes</x:t>
-  </x:si>
-  <x:si>
-    <x:t>RM17.90</x:t>
-  </x:si>
-  <x:si>
-    <x:t>68 sold</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Casual Women Sport Shoes Sneakers Kasut Sukan Perempuan Fashion Harga Murah Harga Lelong Female Girl Cantik Running</x:t>
-  </x:si>
-  <x:si>
-    <x:t>RM9.49</x:t>
-  </x:si>
-  <x:si>
-    <x:t>484 sold</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Fashion Nova _xD83D__xDC9D_ READY STOCK Sport Slip on Sneaker Women's Sport Shoes Kasut Walking Running Lady Perempuan Wanita Lawa Gift</x:t>
-  </x:si>
-  <x:si>
-    <x:t>3.5K sold</x:t>
-  </x:si>
-  <x:si>
-    <x:t>READY STOCK Women Sport Shoes Sneakers Kasut Sukan Perempuan Fashion Harga Murah Harga Lelong Female Girl Cantik Running</x:t>
-  </x:si>
-  <x:si>
-    <x:t>RM8.49</x:t>
-  </x:si>
-  <x:si>
-    <x:t>4.8K sold</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Sneakers Breathable Increase height fashion casual shoes and Korean simple and cute women's shoes</x:t>
-  </x:si>
-  <x:si>
-    <x:t>3.0K sold</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Sneaker Women's Sport Shoes Kasut Outdoor Shoe Kasut Sukan Perempuan</x:t>
-  </x:si>
-  <x:si>
-    <x:t>RM17.00</x:t>
-  </x:si>
-  <x:si>
-    <x:t>39 sold</x:t>
-  </x:si>
-  <x:si>
-    <x:t>READY STOCK Meowme Korean Casual Women's Shoes - Stylish Flyknit Mesh Sneakers for Summer Activities KP437</x:t>
-  </x:si>
-  <x:si>
-    <x:t>RM16.50</x:t>
-  </x:si>
-  <x:si>
-    <x:t>31 sold</x:t>
-  </x:si>
-  <x:si>
-    <x:t>RM12.99</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1.8K sold</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Korean HAlF SHOES FOR WOMEN two color lace up platform women's shoes Girl Walking Shoes Casual Footwear</x:t>
-  </x:si>
-  <x:si>
-    <x:t>RM22.80</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1.6K sold</x:t>
-  </x:si>
-  <x:si>
-    <x:t>GRIMO Malaysia - Jiqueen Cover Shoe Women's Oxfords Shoes Loafers Flat Kasut Wanita Casual Gift Travel Comfort Selesa Women Ladies Girls New December 2022 ks14975</x:t>
-  </x:si>
-  <x:si>
-    <x:t>RM9.90</x:t>
-  </x:si>
-  <x:si>
-    <x:t>947 sold</x:t>
-  </x:si>
-  <x:si>
-    <x:t>BT Kasut Perempuan Kasut Wanita Shoes for Women Korean Version on Sale Flat Shoes Casual Women Leather Shoes Rubber Heighten Platform Loafers Women Shoes Plue Size 35-44</x:t>
-  </x:si>
-  <x:si>
-    <x:t>RM26.22</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2.7K sold</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Non Slip Wearable All-Match Soft Bottom Casual Shoes Breathable Running Shoes Sneaker New Mesh Spring and Summer Super Light Women</x:t>
-  </x:si>
-  <x:si>
-    <x:t>_xD83C__xDF4B_ READY STOCK_xD83C__xDF4B_Latest Fashion shoe kasut women's casual shoes , shoes for work</x:t>
-  </x:si>
-  <x:si>
-    <x:t>200 sold</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Student cute little white shoes for women 2024 summer new breathable versatile thick-soled height-enhancing big-toe shoes super hot sports shoes</x:t>
-  </x:si>
-  <x:si>
-    <x:t>RM27.80</x:t>
-  </x:si>
-  <x:si>
-    <x:t>877 sold</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Handmade Embroidered Tiger Head Shoes 3cm Heel Soft Bottom Comfortable Old Beijing Cloth Shoes Increased Height Inner Design</x:t>
-  </x:si>
-  <x:si>
-    <x:t>RM62.38</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Overseas</x:t>
-  </x:si>
-  <x:si>
-    <x:t>375 sold</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Jiqueen Cover Shoe Women's Oxfords Shoes Loafers Flat Kasut Wanita</x:t>
-  </x:si>
-  <x:si>
-    <x:t>RM8.50</x:t>
-  </x:si>
-  <x:si>
-    <x:t>135 sold</x:t>
-  </x:si>
-  <x:si>
-    <x:t>READY STOCK_xD83D__xDD25_KFS Shiunis Sandal Women's Kasut Shoe Slipper Lady Perempuan Wanita Girl Lawa Casual Shoes</x:t>
-  </x:si>
-  <x:si>
-    <x:t>RM6.99</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1.9K sold</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Kasut Sukan Wanita Berkuality Shoes Women Sneakers K207 Sport Shoes Kasut Runnig Sport Outdoor</x:t>
-  </x:si>
-  <x:si>
-    <x:t>RM17.85</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1.7K sold</x:t>
-  </x:si>
-  <x:si>
-    <x:t>READY STOCK_xD83D__xDD25_OLL Women Sandal pearl leather Shoes Wanita Selipar</x:t>
-  </x:si>
-  <x:si>
-    <x:t>RM7.90</x:t>
-  </x:si>
-  <x:si>
-    <x:t>902 sold</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Fashion Nova _xD83C__xDF81_ Ready Stock _xD83C__xDF08_ Men's and \Women's single shoes breathable mesh shoes mother shoes middle-aged and elderly walking shoes stall shoes manufacturers</x:t>
-  </x:si>
-  <x:si>
-    <x:t>RM7.50</x:t>
-  </x:si>
-  <x:si>
-    <x:t>545 sold</x:t>
-  </x:si>
-  <x:si>
-    <x:t>GRIMO Malaysia - Or-lik Women Sneaker Shoe Women Running Outdoor Sport Kasut Casual Walking Perempuan Wanita Women Perempuan Lady Kasut Lelaki Man Gaya Sport for Raya Murah Pretty Hadiah Gift Korea Japan NEW Travel August 2019 Perempuan Lady</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1.5K sold</x:t>
-  </x:si>
-  <x:si>
-    <x:t>_xD83C__xDF4B_ READY STOCK_xD83C__xDF4B_Mesh Thick-Soled Sandals Women Nurse Shoes Mother Shoes Work Shoes Work Shoes Flat-Soled Hole Beach Shoes</x:t>
-  </x:si>
-  <x:si>
-    <x:t>RM8.75</x:t>
-  </x:si>
-  <x:si>
-    <x:t>121 sold</x:t>
-  </x:si>
-  <x:si>
-    <x:t>_xD83C__xDF4B_ READY STOCK_xD83C__xDF4B_Women's Flat OL Kasut Wanita Women Rubber Shoes Ribbon -3</x:t>
-  </x:si>
-  <x:si>
-    <x:t>RM11.99</x:t>
-  </x:si>
-  <x:si>
-    <x:t>355 sold</x:t>
-  </x:si>
-  <x:si>
-    <x:t>GRIMO Malaysia - Gloo-rick Sneaker Women's Sport Shoes Kasut Walking Running Lady Perempuan Wanita Lawa Gift ks12193</x:t>
-  </x:si>
-  <x:si>
-    <x:t>RM24.38</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Ready Stock Fashion Women Sneakers Casual Female Shoe Outdoor Sport Shoes Kasut Sukan Wanita Kanvas Perempuan Sneaker</x:t>
-  </x:si>
-  <x:si>
-    <x:t>23 sold</x:t>
-  </x:si>
-  <x:si>
-    <x:t>READY STOCK MeowMe Women's Outdoor Sneakers Sport Shoes Kasut Sukan Wanita</x:t>
-  </x:si>
-  <x:si>
-    <x:t>45 sold</x:t>
-  </x:si>
-  <x:si>
-    <x:t>RM7.89</x:t>
-  </x:si>
-  <x:si>
-    <x:t>230 sold</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Ballet Shoes for Kids Adult Canvas Dance Shoes Women Sneakers Class Practice Shoes</x:t>
-  </x:si>
-  <x:si>
-    <x:t>16 sold</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Women Lazy Slip-On Rounded Flat Heels Shoe Soft &amp; comfortable to wear</x:t>
-  </x:si>
-  <x:si>
-    <x:t>RM6.49</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2.9K sold</x:t>
-  </x:si>
-  <x:si>
-    <x:t>SELESA Canvas Shoes Women Kasut Kanvas Perempuan Sneakers Women Plus Size Kasut Plus Size Canvas Sneakers Platform</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2.2K sold</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Ready Stock_xD83C__xDDF2__xD83C__xDDFE_Men Short Sleeve Button Collar Shirt Plain Casual Baju Lelaki Kemeja Berkolar Butang Lengan Pendek</x:t>
-  </x:si>
-  <x:si>
-    <x:t>RM10.97</x:t>
-  </x:si>
-  <x:si>
-    <x:t>3.9K sold</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Premium T-shirt Lelaki Perempuan Unisex Men Women Unisex New Design T shirt Murah Baju Round Neck Size S~5XL</x:t>
-  </x:si>
-  <x:si>
-    <x:t>RM4.89</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Melaka</x:t>
-  </x:si>
-  <x:si>
-    <x:t>12.7K sold</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Summer fashion T-shirt, round neck short sleeved shirt, top, T-shirt, men's T-shirt#T138</x:t>
-  </x:si>
-  <x:si>
-    <x:t>RM5.90</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2.3K sold</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ZEKE Kemeja Lelaki Long Sleeve Slim Fit Suit Shirt Plus Size Business Formal Shirt Men baju kemeja lelaki READY STOCK</x:t>
-  </x:si>
-  <x:si>
-    <x:t>RM15.34</x:t>
-  </x:si>
-  <x:si>
-    <x:t>6.1K sold</x:t>
-  </x:si>
-  <x:si>
-    <x:t>T-shirt lelaki, T-shirt leher bulat, T-shirt fashionable, lengan pendek, warna berbilang untuk dipilih dari#T51</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1.4K sold</x:t>
-  </x:si>
-  <x:si>
-    <x:t>【From Perak】ProMan baju t shirt lelaki ice Silk Quick-Drying Short-Sleeved T-Shirt Men Summer Fitness Sports Breathable Cool Lightweight Printed Top Round Neck 男士运动衫短袖T恤</x:t>
-  </x:si>
-  <x:si>
-    <x:t>RM8.81</x:t>
-  </x:si>
-  <x:si>
-    <x:t>YOCHO Summer New Short Sleeve Tshirt Mens Round Neck Korean Version Pullover Slim MEN Tshirt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>RM6.34</x:t>
-  </x:si>
-  <x:si>
-    <x:t>276 sold</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Korea COD，2024 t shirt,Baju Cotton LUCAS OIL MOTOR ,Premium Quality Cotton ADULT T-Shirt / LUCAS OIL Dusty Pink COD</x:t>
-  </x:si>
-  <x:si>
-    <x:t>RM7.81</x:t>
-  </x:si>
-  <x:si>
-    <x:t>779 sold</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Halloween 100% Cotton Men's T-Shirt S671 christmas</x:t>
-  </x:si>
-  <x:si>
-    <x:t>RM8.90</x:t>
-  </x:si>
-  <x:si>
-    <x:t>158 sold</x:t>
-  </x:si>
-  <x:si>
-    <x:t>YOCHO Men's Short Sleeved POLO Shirt Print Student POLO t-Shirt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>RM7.34</x:t>
-  </x:si>
-  <x:si>
-    <x:t>4.3K sold</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Plain Polo T-Shirt Short sleeve Unisex Men Polo Shirt Fit Premium Quality (Beige/Orange Colour)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>RM5.00</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Wp Kuala Lumpur</x:t>
-  </x:si>
-  <x:si>
-    <x:t>POLO Summer Korean Style Fashion All Short Sleeved T Shirt Men Top T Shirt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>RM21.90</x:t>
-  </x:si>
-  <x:si>
-    <x:t>21 sold</x:t>
-  </x:si>
-  <x:si>
-    <x:t>POLO Fashion brand Round Neck Men T-shirts Casual T Shirt Youth Short Sleeve Tees Sports T Shirt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>"B" series cotton round neck men's short 2025 summer new five-quarter sleeve fashion brand men's loos short sleeve simpl</x:t>
-  </x:si>
-  <x:si>
-    <x:t>POLO Short-sleeved T-shirt men's new summer trend brand oversize niche high street American loose shirt ins</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Men Kurta Shirt Casual Smart Kurta Long Sleeve Side Pocket Formal Raya Plain Top Lelaki Baju Berkolar Baju / S to 2XL</x:t>
-  </x:si>
-  <x:si>
-    <x:t>RM19.99</x:t>
-  </x:si>
-  <x:si>
-    <x:t>85 sold</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Halloween Style Staples MY Distro T-Shirt KAOS- naga biru - Distro Upgrade Cotton Top tee Short Sleeve Tshirt baju t shirt lelaki Unisex Bahagian belakang depan ​COD christmas</x:t>
-  </x:si>
-  <x:si>
-    <x:t>27 sold</x:t>
-  </x:si>
-  <x:si>
-    <x:t>SMC ProMan lelaki men Short Sleeve Solid Color Simple And Easy Matching Waffle Fabric M-3Xl</x:t>
-  </x:si>
-  <x:si>
-    <x:t>RM3.98</x:t>
-  </x:si>
-  <x:si>
-    <x:t>130 sold</x:t>
-  </x:si>
-  <x:si>
-    <x:t>_xD83C__xDDF2__xD83C__xDDFE_ DESINCE _xD83D__xDE0E_ Men Formal Shirt Smart Casual Top Kurta Lelaki Baju Berkolar Baju Raya Lengan Panjang MT 071</x:t>
-  </x:si>
-  <x:si>
-    <x:t>965 sold</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Premium T-shirt New Design T-shirt Unisex T shirt size S M L XL 2XL 3XL</x:t>
-  </x:si>
-  <x:si>
-    <x:t>RM5.67</x:t>
-  </x:si>
-  <x:si>
-    <x:t>685 sold</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2025 Summer Men's Fashion Business Loose Pure Solid Color Simple Casual Cool Versatile Polo Neck Short Sleeve T-shirt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>RM14.00</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1.1K sold</x:t>
-  </x:si>
-  <x:si>
-    <x:t>KURTA SLIM FIT WITH MODREN DESIGN Cotton Plain Kemeja</x:t>
-  </x:si>
-  <x:si>
-    <x:t>RM26.74</x:t>
-  </x:si>
-  <x:si>
-    <x:t>435 sold</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Feveld cotton Men's Undershirt Bottoming Shirt 1 Pcs Cotton Men Casual Top Shirt Soft Breathable Slim Male Undershirt Summer Wear</x:t>
-  </x:si>
-  <x:si>
-    <x:t>RM5.62</x:t>
-  </x:si>
-  <x:si>
-    <x:t>6.5K sold</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ADVO Microfiber T-shirt Quick Dry T Shirt Plain Gym Exercise Men Women Training Workout Sportswear Baju Lelaki Jersey Murah</x:t>
-  </x:si>
-  <x:si>
-    <x:t>RM6.90</x:t>
-  </x:si>
-  <x:si>
-    <x:t>47.3K sold</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2024 Summer Men Clothing T-shirts Casual O-neck Tops Tees Fashion Golden Letters Printing Male All-match Kpop Breathable T Shirt S-XL</x:t>
-  </x:si>
-  <x:si>
-    <x:t>40 sold</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Spring/Summer New European and American Men's Shirts Large Casual Loose Short sleeved Shirts Trendy Men's Shirts</x:t>
-  </x:si>
-  <x:si>
-    <x:t>RM15.44</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Dress for women 2024 summer new fashion casual slimming comfortable dress for women long skirt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>RM12.11</x:t>
-  </x:si>
-  <x:si>
-    <x:t>47 sold</x:t>
-  </x:si>
-  <x:si>
-    <x:t>IBeauty Elegant Slim Fit Printed Dress for Women Plus Size 688</x:t>
-  </x:si>
-  <x:si>
-    <x:t>RM8.34</x:t>
-  </x:si>
-  <x:si>
-    <x:t>79 sold</x:t>
-  </x:si>
-  <x:si>
-    <x:t>✅【READY STOCK At Johor】Beryl Solid Color Short-Sleeved Wrap Dress For Women Above The Knee Round Neck Slim Fit Dres</x:t>
-  </x:si>
-  <x:si>
-    <x:t>63 sold</x:t>
-  </x:si>
-  <x:si>
-    <x:t>IBeauty Floral Long Dress for Women Plus Size</x:t>
-  </x:si>
-  <x:si>
-    <x:t>RM10.10</x:t>
-  </x:si>
-  <x:si>
-    <x:t>249 sold</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Summer Dresses for Women 2022 Black Elegant Dress Office Lady Sleeveless Casual Dress Spaghetti Strap Tight Through Dress Party Mini Dress</x:t>
-  </x:si>
-  <x:si>
-    <x:t>RM4.84</x:t>
-  </x:si>
-  <x:si>
-    <x:t>53 sold</x:t>
-  </x:si>
-  <x:si>
-    <x:t>IBeauty Floral Dress for Women Plus Size Short Sleeve Print Maxi Dress 160</x:t>
-  </x:si>
-  <x:si>
-    <x:t>RM13.43</x:t>
-  </x:si>
-  <x:si>
-    <x:t>133 sold</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Plus Size Dress for Women Floral Printing Dresses Fake Two-piece Dress</x:t>
-  </x:si>
-  <x:si>
-    <x:t>RM14.10</x:t>
-  </x:si>
-  <x:si>
-    <x:t>415 sold</x:t>
-  </x:si>
-  <x:si>
-    <x:t>IBeauty Cotton Dress for Women Plus Size Casual Floral Long Dresses</x:t>
-  </x:si>
-  <x:si>
-    <x:t>RM13.10</x:t>
-  </x:si>
-  <x:si>
-    <x:t>96 sold</x:t>
-  </x:si>
-  <x:si>
-    <x:t>black floral dress for women white korean dress style midi plus size dress 3xl dinner long summer dress woman</x:t>
-  </x:si>
-  <x:si>
-    <x:t>646 sold</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Korean Style Polka Dot Mid-length Dress For Women Casual Suspender Skirt One-shoulder Slim Dresses Strap Bottoming Skirt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>RM15.24</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Kaftan Viral/ Baju Kelawar</x:t>
-  </x:si>
-  <x:si>
-    <x:t>316 sold</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Kaftan Dubai Borong Baju Kelawar Cantik Sejuk dan Sangat SELESA_xD83D__xDD25_</x:t>
-  </x:si>
-  <x:si>
-    <x:t>RM7.69</x:t>
-  </x:si>
-  <x:si>
-    <x:t>376 sold</x:t>
-  </x:si>
-  <x:si>
-    <x:t>IRONLESS KAFTAN SARA WITH POCKET FREE SIZE ABAYA PLAIN ROBE &amp; JUBAH LONG ABAYA MAXI LONG DRESS GAMIS JUBAH UMRAH NURSING JUBAH MUSLIMAH DRESS MODEST FASHION</x:t>
-  </x:si>
-  <x:si>
-    <x:t>RM19.00</x:t>
-  </x:si>
-  <x:si>
-    <x:t>3.2K sold</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Kaftan Dubai Baju Kelawar Murah</x:t>
-  </x:si>
-  <x:si>
-    <x:t>350 sold</x:t>
-  </x:si>
-  <x:si>
-    <x:t>INNER JUBAH ABAYA/LONG INNER/KAFTAN/MUSLIMAH LONG INNER DRESS T120</x:t>
-  </x:si>
-  <x:si>
-    <x:t>126 sold</x:t>
-  </x:si>
-  <x:si>
-    <x:t>_xD83C__xDDF2__xD83C__xDDFE_ DESINCE Women Dress Vintage Puff Long Sleeve Maxi Dress Solid O Neck Muslimah Dress Perempuan Dress Panjang WW 007</x:t>
-  </x:si>
-  <x:si>
-    <x:t>RM22.67</x:t>
-  </x:si>
-  <x:si>
-    <x:t>_xD83D__xDCA5_New Arrival_xD83D__xDCA5_Kaftan/Baju Kelawar Matahari Creaction/Terengganu/Baju Tidur/Plus Size/Murah/Cotton/Terkini</x:t>
-  </x:si>
-  <x:si>
-    <x:t>RM26.00</x:t>
-  </x:si>
-  <x:si>
-    <x:t>292 sold</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MARISSA ABAYA LACE CEY IRONLESS</x:t>
-  </x:si>
-  <x:si>
-    <x:t>RM16.99</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Negeri Sembilan</x:t>
-  </x:si>
-  <x:si>
-    <x:t>59 sold</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ZANZEA Muslimah Womens Muslim Casual Holiday Sundress Bubble Long Sleeve Hippie Wedding Dresses</x:t>
-  </x:si>
-  <x:si>
-    <x:t>RM32.50</x:t>
-  </x:si>
-  <x:si>
-    <x:t>406 sold</x:t>
-  </x:si>
-  <x:si>
-    <x:t>KM Khadeeja Kaftan Dubai Long Dress Short Sleeves [D2753A]</x:t>
-  </x:si>
-  <x:si>
-    <x:t>RM10.00</x:t>
-  </x:si>
-  <x:si>
-    <x:t>175 sold</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Plain cey ironless kaftan</x:t>
-  </x:si>
-  <x:si>
-    <x:t>RM13.20</x:t>
-  </x:si>
-  <x:si>
-    <x:t>19 sold</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Muslimah Jubah Dress Pario Kaftan KAFTAN PARIO READY STOCK</x:t>
-  </x:si>
-  <x:si>
-    <x:t>RM16.89</x:t>
-  </x:si>
-  <x:si>
-    <x:t>TRADITIONAL Jubah Abaya Centik Lace Dress Lovely Jubah Diana ERA AINA– DIANA LACE</x:t>
-  </x:si>
-  <x:si>
-    <x:t>RM31.00</x:t>
-  </x:si>
-  <x:si>
-    <x:t>52 sold</x:t>
+    <x:t>214 sold</x:t>
   </x:si>
   <x:si>
     <x:t>AYUSH KAFTAN DUBAI / BAJU KELAWAR RANDOM DESIGN &amp; COLOURS</x:t>
@@ -920,10 +950,28 @@
     <x:t>193 sold</x:t>
   </x:si>
   <x:si>
-    <x:t>KAFTAN VIRAL BF FRIENDLY IRONLES CEY EMBROIDERY with pocket</x:t>
-  </x:si>
-  <x:si>
-    <x:t>214 sold</x:t>
+    <x:t>[Malaysian stock] _xD83D__xDD25_ Malay Muslim Long Skirt Floral Long Sleeve Pullover Chiffon A-line Dress Maxi Dresses O-neck Woman Bohe Beach Party Long Dress</x:t>
+  </x:si>
+  <x:si>
+    <x:t>RM21.20</x:t>
+  </x:si>
+  <x:si>
+    <x:t>339 sold</x:t>
+  </x:si>
+  <x:si>
+    <x:t>JF Fashion Nela Jubah Dress A411</x:t>
+  </x:si>
+  <x:si>
+    <x:t>103 sold</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ZANZEA Muslimah Women Muslim Raya Clothes Sleeveless Round-Neck Side Pockets Casual Denim Dresses</x:t>
+  </x:si>
+  <x:si>
+    <x:t>RM37.95</x:t>
+  </x:si>
+  <x:si>
+    <x:t>846 sold</x:t>
   </x:si>
   <x:si>
     <x:t>Baju kelawar premium black gold series</x:t>
@@ -932,52 +980,52 @@
     <x:t>485 sold</x:t>
   </x:si>
   <x:si>
-    <x:t>ZANZEA Muslimah Women Muslim Raya Clothes Sleeveless Round-Neck Side Pockets Casual Denim Dresses</x:t>
-  </x:si>
-  <x:si>
-    <x:t>RM37.95</x:t>
-  </x:si>
-  <x:si>
-    <x:t>846 sold</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Baju Raya 2025 Sports Muslim dress Jersey Plus Size Baju Muslimah Sportwear Customization Name/Number Loose Muslimah Jersey T-shirt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>RM21.26</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Jubah Dress Zulaikha Sulam Ironless Sekali Shawl Sulam Mc180</x:t>
+    <x:t>_xD83D__xDD25_[VIRAL DRESS]_xD83D__xDD25_KAFTAN Musliamah long Musliamh Dress LENGAN PANJANG LONG free size (Fit s to 2xL++..)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>RM15.89</x:t>
+  </x:si>
+  <x:si>
+    <x:t>372 sold</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Korean Style Pleated Loose Suspenders Dresses For Women Beach Dress Solid Color Dress High-end Long Dress</x:t>
+  </x:si>
+  <x:si>
+    <x:t>RM15.50</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Baju Kaftan Baggy Korean Pleated Style | Kaftan Jubah Wanita | Baju Kaftan Jubah Viral 2024</x:t>
+  </x:si>
+  <x:si>
+    <x:t>RM29.99</x:t>
+  </x:si>
+  <x:si>
+    <x:t>11 sold</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Jubah Flary For Muslimah In Crystals abaya baju -Diana Glaze Dress</x:t>
+  </x:si>
+  <x:si>
+    <x:t>514 sold</x:t>
+  </x:si>
+  <x:si>
+    <x:t>IRONLESS JUBAH MUSLIMAH TURKI FASHION - PUFF SHOULDER DRESS / PLAIN ABAYA / JUBAH UMRAH / MAXI PLUS SIZE / GAMIS / MODEST MUSLIMAH DRESS / NURSING &amp; WUDHUK FRIENDLY</x:t>
   </x:si>
   <x:si>
     <x:t>RM29.00</x:t>
   </x:si>
   <x:si>
-    <x:t>33 sold</x:t>
-  </x:si>
-  <x:si>
-    <x:t>_xD83D__xDD25_[VIRAL DRESS]_xD83D__xDD25_KAFTAN Musliamah long Musliamh Dress LENGAN PANJANG LONG free size (Fit s to 2xL++..)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>RM15.89</x:t>
-  </x:si>
-  <x:si>
-    <x:t>372 sold</x:t>
-  </x:si>
-  <x:si>
-    <x:t>New Arrival Dress Lisa Viral Outer Muslimah hijabista Trending</x:t>
-  </x:si>
-  <x:si>
-    <x:t>RM17.39</x:t>
-  </x:si>
-  <x:si>
-    <x:t>910 sold</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Jubah Flary For Muslimah In Crystals abaya baju -Diana Glaze Dress</x:t>
-  </x:si>
-  <x:si>
-    <x:t>514 sold</x:t>
+    <x:t>803 sold</x:t>
+  </x:si>
+  <x:si>
+    <x:t>READY STOCK Platina 811 Muslimah Long Dress Maxi Jubah Kurung Raya Elegant Flower Floral Pleated Pleats Sale</x:t>
+  </x:si>
+  <x:si>
+    <x:t>RM15.00</x:t>
+  </x:si>
+  <x:si>
+    <x:t>44 sold</x:t>
   </x:si>
   <x:si>
     <x:t>Muslimah Jubah Dress Pario Kaftan KAFTAN PARIO READY STOCK kain pn ok free size</x:t>
@@ -986,18 +1034,6 @@
     <x:t>481 sold</x:t>
   </x:si>
   <x:si>
-    <x:t>Korean Style Pleated Loose Suspenders Dresses For Women Beach Dress Solid Color Dress High-end Long Dress</x:t>
-  </x:si>
-  <x:si>
-    <x:t>RM15.50</x:t>
-  </x:si>
-  <x:si>
-    <x:t>[ NEW DESIGN !!! ] Jubah Sofia Lace Raya Collection Dewasa (S to 3XL)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>51 sold</x:t>
-  </x:si>
-  <x:si>
     <x:t>MU KAFTAN KELAWAR DEWASA LENGAN PENDEK / KAFTAN INDONESIA/ FREE SIZE KAFTAN LENGAN PENDEK/ BAJU TIDUR / BUTTON SLEEPWEAR</x:t>
   </x:si>
   <x:si>
@@ -1007,30 +1043,6 @@
     <x:t>695 sold</x:t>
   </x:si>
   <x:si>
-    <x:t>READY STOCK Platina 811 Muslimah Long Dress Maxi Jubah Kurung Raya Elegant Flower Floral Pleated Pleats Sale</x:t>
-  </x:si>
-  <x:si>
-    <x:t>RM15.00</x:t>
-  </x:si>
-  <x:si>
-    <x:t>44 sold</x:t>
-  </x:si>
-  <x:si>
-    <x:t>READY STOCK Bonita Baju Muslimah Fashion Long Dress Maxi Jubah Kurung Raya Casual Basic Plain</x:t>
-  </x:si>
-  <x:si>
-    <x:t>78 sold</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Abaya Muslim Dress Plain golden zip Women Fashion Jubah Long Sleeve Dresses ready stock</x:t>
-  </x:si>
-  <x:si>
-    <x:t>RM15.99</x:t>
-  </x:si>
-  <x:si>
-    <x:t>426 sold</x:t>
-  </x:si>
-  <x:si>
     <x:t>[READY STOCK]CB_Shopreadystok DRESS PRINCESS MUSLIMAH FASHION CANTIK RAYA</x:t>
   </x:si>
   <x:si>
@@ -1049,259 +1061,250 @@
     <x:t>1.2K sold</x:t>
   </x:si>
   <x:si>
-    <x:t>Uniqlo bag Frog bag Crossbody Bag Women Canvas Bag Student Shoulder Beg Sling Bag Women Beg Viral Beg Silang frog bag 女生包</x:t>
-  </x:si>
-  <x:si>
-    <x:t>RM4.99</x:t>
-  </x:si>
-  <x:si>
-    <x:t>884 sold</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Student Tote Bag With Zip Canvas Beg Tuisyen Galas Tepi Sekolah Cute School Bag Black Oxford Cloth Murah A550</x:t>
+    <x:t>SORIVE PU Leather Women Sling Bag Fashion Simple Messenger Bag Small Hobos Shoulder Bag For Ladies Hand Bag</x:t>
+  </x:si>
+  <x:si>
+    <x:t>RM5.99</x:t>
+  </x:si>
+  <x:si>
+    <x:t>220 sold</x:t>
+  </x:si>
+  <x:si>
+    <x:t>_xD83D__xDC96_ Fashion _xD83D__xDC96_ Korean Ins Canvas Bag Female Student Shoulder Bag Casual Underarm Bag Beg Perempuan viral</x:t>
+  </x:si>
+  <x:si>
+    <x:t>RM3.88</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Women PU Leather Shoulder Bag Fashion Rhombic Embroidery Solid Color Casual Zipper Handbags Boutique</x:t>
+  </x:si>
+  <x:si>
+    <x:t>RM6.96</x:t>
+  </x:si>
+  <x:si>
+    <x:t>224 sold</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1522 ( READY STOCK ) CANVAS KOREA SLING BAG EU FASHION HOUSE</x:t>
+  </x:si>
+  <x:si>
+    <x:t>482 sold</x:t>
+  </x:si>
+  <x:si>
+    <x:t>_xD83D__xDD25_ ULTRASONIC _xD83D__xDD25_ A3 Plain Non-Woven Horizontal Recycle Bag Reusable Foldable Multi Use Grocery Shopping Party Tote Bags</x:t>
+  </x:si>
+  <x:si>
+    <x:t>RM0.54</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Higoya Handbag Women's Shoulder Bag Bags Beg Tangan Handbag Women Bags Beg Tangan Wanita 女士手提包</x:t>
+  </x:si>
+  <x:si>
+    <x:t>237 sold</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Convenient Cross-body Mobile Phone Shoulder Bag Pouch Handbag</x:t>
+  </x:si>
+  <x:si>
+    <x:t>RM10.50</x:t>
+  </x:si>
+  <x:si>
+    <x:t>294 sold</x:t>
+  </x:si>
+  <x:si>
+    <x:t>0006 Fashion Hobo Bag Sweet Lady Underarm Ins Style Hand Carry Simple Zip Bag</x:t>
+  </x:si>
+  <x:si>
+    <x:t>RM12.90</x:t>
+  </x:si>
+  <x:si>
+    <x:t>710 sold</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Shoulder Bag for Women Sling Korean Female New Underarm Bag Retro Crossbody Bag Handbag</x:t>
+  </x:si>
+  <x:si>
+    <x:t>RM18.67</x:t>
+  </x:si>
+  <x:si>
+    <x:t>GRIMO Malaysia - Lustrous Love Sling Bag Shoulder Bag Women's Tangan Wanita Perempuan Casual Wallet Purse Cross Body Gift Korea Japan Travel Ladies Girls New October 2023 fb15591</x:t>
+  </x:si>
+  <x:si>
+    <x:t>RM14.50</x:t>
+  </x:si>
+  <x:si>
+    <x:t>GRIMO Malaysia - Ni-ni-cat Enve Sling Women's Handbag Bag Tote Beg Tangan Bags Wanita Lady Perempuan Lawa Gift for Ladies Casual Dinner Cantik Girl Raya Korea Japan Ready Stock Travel Women Ladies Girls New September 2020 fb12811</x:t>
+  </x:si>
+  <x:si>
+    <x:t>RM6.89</x:t>
+  </x:si>
+  <x:si>
+    <x:t>535 sold</x:t>
+  </x:si>
+  <x:si>
+    <x:t>[2025 Raya] Original Japanese Nylon Waterproof Bag Multi-pocket Large-capacity Student shoulder bag Casual Literary Woman Bag laptop tote bag</x:t>
+  </x:si>
+  <x:si>
+    <x:t>RM12.12</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Japanese Casual Literary Woman Bag Shoulder Bag Women Handbag Nylon Waterproof Bag Sling Crossbody Bag</x:t>
+  </x:si>
+  <x:si>
+    <x:t>RM18.90</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Sling Shoulder Bag Women Plain PU Handbag Tote Beg Korean Style Bucket Bag Tangan Wanita 水桶包</x:t>
+  </x:si>
+  <x:si>
+    <x:t>RM9.60</x:t>
+  </x:si>
+  <x:si>
+    <x:t>416 sold</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Women Stylish Nylon Shopping Tote bag Handbag Lady Shoulder Bag</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 Original Japanese Nylon Waterproof Bag Multi pocket Large capacity Student Tote Bag Casual Literary Woman Bag</x:t>
+  </x:si>
+  <x:si>
+    <x:t>RM13.41</x:t>
+  </x:si>
+  <x:si>
+    <x:t>123 sold</x:t>
+  </x:si>
+  <x:si>
+    <x:t>SAVE Knit Handbag Woman Casual Knitted Bag Tote Bag Minimalist Women Bag Mini Wrist Bag Beg Wanita Hadiah Gifts L39</x:t>
+  </x:si>
+  <x:si>
+    <x:t>264 sold</x:t>
+  </x:si>
+  <x:si>
+    <x:t>( READY STOCK ) PU SLING BAG EU FASHION HOUSE 796</x:t>
+  </x:si>
+  <x:si>
+    <x:t>RM5.50</x:t>
+  </x:si>
+  <x:si>
+    <x:t>878 sold</x:t>
+  </x:si>
+  <x:si>
+    <x:t>【_xD83C__xDDF2__xD83C__xDDFE_Stock 】Dumpling Shoulder Bag Korean Sling Bag Ins Fashion Hip Hop Solid Color Shoulder Bag Casual Nylon Underarm Crossbody Bag 背包 斜挎包</x:t>
+  </x:si>
+  <x:si>
+    <x:t>RM3.78</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Knit Handbag Woman Casual Knitted Bag Tote Bag Minimalist Women Bag Mini Wrist Bag Beg Wanita Hadiah Gifts L39</x:t>
+  </x:si>
+  <x:si>
+    <x:t>159 sold</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Korean Style Handphone Bag Mobile Phone Bags Three Layer Large Capacity Ladies Flap Shoulder Bag</x:t>
+  </x:si>
+  <x:si>
+    <x:t>151 sold</x:t>
+  </x:si>
+  <x:si>
+    <x:t>JUSTKIDDIN123 Malaysia - Casual Jijeline Women's Sling Shoulder Bag</x:t>
+  </x:si>
+  <x:si>
+    <x:t>RM7.22</x:t>
+  </x:si>
+  <x:si>
+    <x:t>66 sold</x:t>
+  </x:si>
+  <x:si>
+    <x:t>《 _xD835__xDDEA__xD835__xDDD4__xD835__xDDE7__xD835__xDDD8__xD835__xDDE5__xD835__xDDE3__xD835__xDDE5__xD835__xDDE2__xD835__xDDE2__xD835__xDDD9_ 》Laminated Non Woven Fabric Bag Groceries Shopping Tote Bags Reusable Eco Green Handbag Beg Kain 环保手提袋</x:t>
+  </x:si>
+  <x:si>
+    <x:t>RM1.08</x:t>
+  </x:si>
+  <x:si>
+    <x:t>371 sold</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Dumpling bag Uniqlo bag Sling bag Crossbody bag Korean Ins Canvas Bag Female Shoulder Bag nylon bag messenger Bag Women Bag Nylon bag Tote bag Beg Perempuan viral女生背包/斜背包/网红包包 饺子包</x:t>
+  </x:si>
+  <x:si>
+    <x:t>RM4.45</x:t>
+  </x:si>
+  <x:si>
+    <x:t>13.9K sold</x:t>
+  </x:si>
+  <x:si>
+    <x:t>( READY STOCK ) CANVAS BAG KOREA EU FASHION HOUSE 957</x:t>
+  </x:si>
+  <x:si>
+    <x:t>RM2.90</x:t>
+  </x:si>
+  <x:si>
+    <x:t>607 sold</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Jannah Little Beauty Sling Shoulder Girl Handbag Beg Tangan Kenduri Travel 10R3</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4.5K sold</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Fashion Nova _xD83C__xDF08_Korean Style Bag Shoulder Handbag Sling Travel Beg Tangan Wanita Perempuan</x:t>
+  </x:si>
+  <x:si>
+    <x:t>57 sold</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Kstyle Women Elegant Fashion Classy Cute Small Simple Shiny Glittery Ultra Light Hard Edge Premium PU Leather Chain Travel Outing Handbag Sling Shoulder Bag Crossbody Bag - 9463</x:t>
+  </x:si>
+  <x:si>
+    <x:t>9.4K sold</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ready Stock Dumpling Bags Handbags Shoulder Bags Messenger Crossbody Bags Leisure Fashion Purses Cute Tote Clutch</x:t>
   </x:si>
   <x:si>
     <x:t>RM3.99</x:t>
   </x:si>
   <x:si>
-    <x:t>4.1K sold</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Shoulder Bag Women's Dumpling Bag Luxury Designer Messenger Bag 2024 Trend Female Crossbody Pack White Letter Printing Series</x:t>
-  </x:si>
-  <x:si>
-    <x:t>115 sold</x:t>
-  </x:si>
-  <x:si>
-    <x:t>_xD83C__xDF4B_ READY STOCK_xD83C__xDF4B_Large Size-Pleated Clouds Underarm Bag New Solid Color Shoulder Bag Commuter Pleated Bag Shopping Bag Korean Girls Heart</x:t>
-  </x:si>
-  <x:si>
-    <x:t>RM9.85</x:t>
-  </x:si>
-  <x:si>
-    <x:t>124 sold</x:t>
-  </x:si>
-  <x:si>
-    <x:t>iFASHION 1298 Women Korean Fashion Ins Style Student Sling Crossbody Shoulder Bags Wanita Beg Kanvas Kecil Murah</x:t>
-  </x:si>
-  <x:si>
-    <x:t>337 sold</x:t>
-  </x:si>
-  <x:si>
-    <x:t>USAMS #2045 Messenger Bag Unisex Canvas Shoulder Casual Bags Japanese Street Fashion Sports Hip-hop</x:t>
-  </x:si>
-  <x:si>
-    <x:t>RM9.23</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Kedah</x:t>
-  </x:si>
-  <x:si>
-    <x:t>759 sold</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Higoya Handbag Women's Shoulder Bag Bags Beg Tangan Handbag Women Bags Beg Tangan Wanita 女士手提包</x:t>
-  </x:si>
-  <x:si>
-    <x:t>237 sold</x:t>
-  </x:si>
-  <x:si>
-    <x:t>UNIQLO Bag Women bag Canvas Bag Dumpling Bag Shoulder Bag Underarm Bag Sling Bag Beg Perempuan viral女生背包/斜背包/网红包包</x:t>
-  </x:si>
-  <x:si>
-    <x:t>4.2K sold</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Fashion Four-Pieces PU Leather Handbag And Shoulder Bag For Women 女时尚新款纯色PU铆钉四件套休闲手拿单肩宴会女包包 Fesyen Wanita Baru Warna Tulen PU Rivet Set Empat Keping Tangan Kasual Memegang Satu Bahu Jamuan Beg Wanita</x:t>
-  </x:si>
-  <x:si>
-    <x:t>RM12.00</x:t>
-  </x:si>
-  <x:si>
-    <x:t>现货✨卡皮巴拉帆布袋 Capybara Canvas Bag 可爱水豚卡通帆布袋包包搞怪创意手提袋单肩包购物袋补习袋上课大容量学生 Cute Cartoon Tote Bag Shoulder Large Capacity</x:t>
-  </x:si>
-  <x:si>
-    <x:t>RM3.59</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1.3K sold</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Shoulder Bag for Women Sling Korean Female New Underarm Bag Retro Crossbody Bag Handbag</x:t>
-  </x:si>
-  <x:si>
-    <x:t>RM18.67</x:t>
-  </x:si>
-  <x:si>
-    <x:t>[Cloud Bazaar] Large Capacity Shopper Bag Canvas Bag Cotton Blank DIY Shopping Eco-friendly One-Shoulder Tote Bag</x:t>
-  </x:si>
-  <x:si>
-    <x:t>RM3.66</x:t>
-  </x:si>
-  <x:si>
-    <x:t>3.8K sold</x:t>
-  </x:si>
-  <x:si>
-    <x:t>[2025 Raya] Original Japanese Nylon Waterproof Bag Multi-pocket Large-capacity Student shoulder bag Casual Literary Woman Bag laptop tote bag</x:t>
-  </x:si>
-  <x:si>
-    <x:t>RM12.12</x:t>
-  </x:si>
-  <x:si>
-    <x:t>《 _xD835__xDDD4__xD835__xDFEF_ _xD835__xDDE6__xD835__xDDDC__xD835__xDDED__xD835__xDDD8_ 》 Non-Woven Horizontal Plain Tote Bag Eco-Friendly Reusable Recycle Shopping Grocery Bags Beg Kain Murah 环保袋</x:t>
-  </x:si>
-  <x:si>
-    <x:t>RM0.54</x:t>
-  </x:si>
-  <x:si>
-    <x:t>A3 Plain Non-Woven Horizontal Recycle Bag Reusable Foldable Eco-Friendly Multi Use Grocery Shopping Party Tote Bags</x:t>
-  </x:si>
-  <x:si>
-    <x:t>5.8K sold</x:t>
-  </x:si>
-  <x:si>
-    <x:t>( READY STOCK ) CANVAS KOREA BAG EU FASHION HOUSE 1344</x:t>
+    <x:t>500 sold</x:t>
+  </x:si>
+  <x:si>
+    <x:t>DROPASSIST 1197 Woman Sling Messenger Bag Chest Beg Wanita Women Shoulder Tote Bag Handbag Perempuan Bags</x:t>
+  </x:si>
+  <x:si>
+    <x:t>RM7.99</x:t>
+  </x:si>
+  <x:si>
+    <x:t>191 sold</x:t>
+  </x:si>
+  <x:si>
+    <x:t>( READY STOCK ) PU SLING BAG EU FASHION HOUSE 867</x:t>
   </x:si>
   <x:si>
     <x:t>RM6.50</x:t>
   </x:si>
   <x:si>
-    <x:t>High Quality Luxury Brand Purses and Handbags Designer Leather Shoulder Crossbody Bags for Women Straps Underarm</x:t>
-  </x:si>
-  <x:si>
-    <x:t>RM18.93</x:t>
-  </x:si>
-  <x:si>
-    <x:t>180 sold</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Sling Shoulder Bag Women Plain PU Handbag Tote Beg Korean Style Bucket Bag Tangan Wanita 水桶包</x:t>
-  </x:si>
-  <x:si>
-    <x:t>RM9.60</x:t>
-  </x:si>
-  <x:si>
-    <x:t>416 sold</x:t>
-  </x:si>
-  <x:si>
-    <x:t>GRIMO Malaysia - Ni-ni-cat Enve Sling Women's Handbag Bag Tote Beg Tangan Bags Wanita Lady Perempuan Lawa Gift for Ladies Casual Dinner Cantik Girl Raya Korea Japan Ready Stock Travel Women Ladies Girls New September 2020 fb12811</x:t>
-  </x:si>
-  <x:si>
-    <x:t>RM6.89</x:t>
-  </x:si>
-  <x:si>
-    <x:t>535 sold</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2024 Original Japanese Nylon Waterproof Bag Multi pocket Large capacity Student Tote Bag Casual Literary Woman Bag</x:t>
-  </x:si>
-  <x:si>
-    <x:t>RM13.41</x:t>
-  </x:si>
-  <x:si>
-    <x:t>123 sold</x:t>
-  </x:si>
-  <x:si>
-    <x:t>SAVE Knit Handbag Woman Casual Knitted Bag Tote Bag Minimalist Women Bag Mini Wrist Bag Beg Wanita Hadiah Gifts L39</x:t>
-  </x:si>
-  <x:si>
-    <x:t>264 sold</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Tote Bag Eye-catching Design Jute Bags Patterned Design Shopping Bag Cute Canvas Bag Corporate Event Gifts Promotional Bag Tote Beg Murah</x:t>
-  </x:si>
-  <x:si>
-    <x:t>RM3.20</x:t>
-  </x:si>
-  <x:si>
-    <x:t>741 sold</x:t>
-  </x:si>
-  <x:si>
-    <x:t>_xD83D__xDCA5_ SPACIOUS _xD83D__xDCA5_ Cartoon Felt Handbag Portable Shopping Tote Bag Mommy Baby Diaper Milk Bottle Storage Organizer Bags</x:t>
-  </x:si>
-  <x:si>
-    <x:t>RM4.96</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Borong Sling Bag Beg Viral Tangan Wanita Murah Beg Silang Perempuan Handbag Woman Tote Bag Nylon Dumpling Bag饺子斜挎包</x:t>
-  </x:si>
-  <x:si>
-    <x:t>RM3.67</x:t>
-  </x:si>
-  <x:si>
-    <x:t>100 sold</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Korean Style Handphone Bag Mobile Phone Bags Three Layer Large Capacity Ladies Flap Shoulder Bag</x:t>
-  </x:si>
-  <x:si>
-    <x:t>151 sold</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Aladdin Exclusive Sling Shoulder Women Wallet Handbag Beg Tangan Dompet Wanita 12W2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>RM8.59</x:t>
-  </x:si>
-  <x:si>
-    <x:t>3.1K sold</x:t>
-  </x:si>
-  <x:si>
-    <x:t>【_xD83C__xDDF2__xD83C__xDDFE_Stock 】Dumpling Shoulder Bag Korean Sling Bag Ins Fashion Hip Hop Solid Color Shoulder Bag Casual Nylon Underarm Crossbody Bag 背包 斜挎包</x:t>
-  </x:si>
-  <x:si>
-    <x:t>RM3.78</x:t>
-  </x:si>
-  <x:si>
-    <x:t>_xD83D__xDD25_【New】Women's Wallet Premium Lady Shoulder Bag PU Leather Crossbody Bags Large Capacity Zipper Long Purse Phone Bag Vintage Solid Color Flap Crossbody Bag Sling Bag Dompet Wanita 女式钱包 单肩包</x:t>
-  </x:si>
-  <x:si>
-    <x:t>61 sold</x:t>
-  </x:si>
-  <x:si>
-    <x:t>《 _xD835__xDDEA__xD835__xDDD4__xD835__xDDE7__xD835__xDDD8__xD835__xDDE5__xD835__xDDE3__xD835__xDDE5__xD835__xDDE2__xD835__xDDE2__xD835__xDDD9_ 》Laminated Non Woven Fabric Bag Groceries Shopping Tote Bags Reusable Eco Green Handbag Beg Kain 环保手提袋</x:t>
-  </x:si>
-  <x:si>
-    <x:t>RM1.08</x:t>
-  </x:si>
-  <x:si>
-    <x:t>371 sold</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Dumpling bag Uniqlo bag Sling bag Crossbody bag Korean Ins Canvas Bag Female Shoulder Bag nylon bag messenger Bag Women Bag Nylon bag Tote bag Beg Perempuan viral女生背包/斜背包/网红包包 饺子包</x:t>
-  </x:si>
-  <x:si>
-    <x:t>RM4.45</x:t>
-  </x:si>
-  <x:si>
-    <x:t>13.9K sold</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Jannah Apeh Waist Chest Women Men Sport Sling Bag Running Pouch Crossbody 9P3</x:t>
-  </x:si>
-  <x:si>
-    <x:t>994 sold</x:t>
-  </x:si>
-  <x:si>
-    <x:t>0006 Fashion Hobo Bag Sweet Lady Underarm Ins Style Hand Carry Simple Zip Bag</x:t>
-  </x:si>
-  <x:si>
-    <x:t>RM12.90</x:t>
-  </x:si>
-  <x:si>
-    <x:t>710 sold</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Ready Stock Dumpling Bags Handbags Shoulder Bags Messenger Crossbody Bags Leisure Fashion Purses Cute Tote Clutch</x:t>
-  </x:si>
-  <x:si>
-    <x:t>500 sold</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Kstyle Women Elegant Fashion Classy Cute Small Simple Shiny Glittery Ultra Light Hard Edge Premium PU Leather Chain Travel Outing Handbag Sling Shoulder Bag Crossbody Bag - 9463</x:t>
-  </x:si>
-  <x:si>
-    <x:t>9.4K sold</x:t>
+    <x:t>UNIQLO Bag Women bag Dumpling Bag Canvas Bag Shoulder Bag Crossbody Bag Sling Bag Beg tangan Perempuan viral女生背包/斜背包水饺包包</x:t>
+  </x:si>
+  <x:si>
+    <x:t>RM2.80</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Japan Canvas Design Tote Bag Handbag Shoulder Beg Sling Bags women mini bag beg wanita mini kecil beg tangan</x:t>
+  </x:si>
+  <x:si>
+    <x:t>RM2.69</x:t>
+  </x:si>
+  <x:si>
+    <x:t>80 sold</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Women's Sling Bag Fashion Chain Messenger Bag Small Flap Untuk Perempuan Guna Bag Leather Wanita Selempang</x:t>
+  </x:si>
+  <x:si>
+    <x:t>RM8.46</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -1772,10 +1775,10 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="E6" s="0">
-        <x:v>26.1</x:v>
+        <x:v>37.94</x:v>
       </x:c>
       <x:c r="F6" s="0">
-        <x:v>704</x:v>
+        <x:v>772</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:6">
@@ -1786,16 +1789,16 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="C7" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="D7" s="0" t="s">
         <x:v>26</x:v>
       </x:c>
       <x:c r="E7" s="0">
-        <x:v>24.9</x:v>
+        <x:v>26.1</x:v>
       </x:c>
       <x:c r="F7" s="0">
-        <x:v>106</x:v>
+        <x:v>704</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:6">
@@ -1832,10 +1835,10 @@
         <x:v>32</x:v>
       </x:c>
       <x:c r="E9" s="0">
-        <x:v>7.93</x:v>
+        <x:v>10.9</x:v>
       </x:c>
       <x:c r="F9" s="0">
-        <x:v>34</x:v>
+        <x:v>2000</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:6">
@@ -1872,10 +1875,10 @@
         <x:v>38</x:v>
       </x:c>
       <x:c r="E11" s="0">
-        <x:v>10.9</x:v>
+        <x:v>7.93</x:v>
       </x:c>
       <x:c r="F11" s="0">
-        <x:v>2000</x:v>
+        <x:v>34</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:6">
@@ -1883,379 +1886,399 @@
         <x:v>39</x:v>
       </x:c>
       <x:c r="B12" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="C12" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="D12" s="0" t="s">
-        <x:v>40</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="E12" s="0">
-        <x:v>25.9</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="F12" s="0">
-        <x:v>24</x:v>
+        <x:v>62</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="1:6">
       <x:c r="A13" s="0" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="B13" s="0" t="s">
+        <x:v>44</x:v>
+      </x:c>
+      <x:c r="C13" s="0" t="s">
         <x:v>41</x:v>
       </x:c>
-      <x:c r="B13" s="0" t="s">
-        <x:v>42</x:v>
-      </x:c>
-      <x:c r="C13" s="0" t="s">
-        <x:v>12</x:v>
-      </x:c>
       <x:c r="D13" s="0" t="s">
-        <x:v>43</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="E13" s="0">
-        <x:v>14.95</x:v>
+        <x:v>128</x:v>
       </x:c>
       <x:c r="F13" s="0">
-        <x:v>10</x:v>
+        <x:v>22</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:6">
       <x:c r="A14" s="0" t="s">
-        <x:v>44</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="B14" s="0" t="s">
-        <x:v>45</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="C14" s="0" t="s">
         <x:v>12</x:v>
       </x:c>
       <x:c r="D14" s="0" t="s">
-        <x:v>46</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="E14" s="0">
-        <x:v>38.34</x:v>
+        <x:v>27.9</x:v>
       </x:c>
       <x:c r="F14" s="0">
-        <x:v>185</x:v>
+        <x:v>32</x:v>
       </x:c>
     </x:row>
     <x:row r="15" spans="1:6">
       <x:c r="A15" s="0" t="s">
-        <x:v>30</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="B15" s="0" t="s">
-        <x:v>47</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="C15" s="0" t="s">
         <x:v>12</x:v>
       </x:c>
       <x:c r="D15" s="0" t="s">
-        <x:v>48</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="E15" s="0">
-        <x:v>8.43</x:v>
+        <x:v>38.34</x:v>
       </x:c>
       <x:c r="F15" s="0">
-        <x:v>14</x:v>
+        <x:v>185</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="1:6">
       <x:c r="A16" s="0" t="s">
-        <x:v>49</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="B16" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="C16" s="0" t="s">
         <x:v>12</x:v>
       </x:c>
       <x:c r="D16" s="0" t="s">
-        <x:v>50</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="E16" s="0">
-        <x:v>19.9</x:v>
+        <x:v>25.9</x:v>
       </x:c>
       <x:c r="F16" s="0">
-        <x:v>18</x:v>
+        <x:v>24</x:v>
       </x:c>
     </x:row>
     <x:row r="17" spans="1:6">
       <x:c r="A17" s="0" t="s">
-        <x:v>51</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="B17" s="0" t="s">
-        <x:v>52</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="C17" s="0" t="s">
         <x:v>12</x:v>
       </x:c>
       <x:c r="D17" s="0" t="s">
-        <x:v>53</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="E17" s="0">
-        <x:v>27.9</x:v>
+        <x:v>14.95</x:v>
       </x:c>
       <x:c r="F17" s="0">
-        <x:v>163</x:v>
+        <x:v>10</x:v>
       </x:c>
     </x:row>
     <x:row r="18" spans="1:6">
       <x:c r="A18" s="0" t="s">
-        <x:v>54</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="B18" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="C18" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="D18" s="0" t="s">
-        <x:v>55</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="E18" s="0">
-        <x:v>25.9</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="F18" s="0">
-        <x:v>77</x:v>
+        <x:v>7</x:v>
       </x:c>
     </x:row>
     <x:row r="19" spans="1:6">
       <x:c r="A19" s="0" t="s">
-        <x:v>56</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="B19" s="0" t="s">
-        <x:v>52</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="C19" s="0" t="s">
         <x:v>12</x:v>
       </x:c>
       <x:c r="D19" s="0" t="s">
-        <x:v>57</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="E19" s="0">
-        <x:v>27.9</x:v>
+        <x:v>39.99</x:v>
       </x:c>
       <x:c r="F19" s="0">
-        <x:v>5</x:v>
+        <x:v>34</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="1:6">
       <x:c r="A20" s="0" t="s">
-        <x:v>58</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="B20" s="0" t="s">
-        <x:v>59</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="C20" s="0" t="s">
         <x:v>12</x:v>
       </x:c>
       <x:c r="D20" s="0" t="s">
-        <x:v>60</x:v>
+        <x:v>64</x:v>
       </x:c>
       <x:c r="E20" s="0">
-        <x:v>39.99</x:v>
+        <x:v>23.34</x:v>
       </x:c>
       <x:c r="F20" s="0">
-        <x:v>15</x:v>
+        <x:v>269</x:v>
       </x:c>
     </x:row>
     <x:row r="21" spans="1:6">
       <x:c r="A21" s="0" t="s">
-        <x:v>61</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="B21" s="0" t="s">
-        <x:v>62</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="C21" s="0" t="s">
-        <x:v>63</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D21" s="0" t="s">
-        <x:v>64</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="E21" s="0">
-        <x:v>11.9</x:v>
+        <x:v>25.9</x:v>
       </x:c>
       <x:c r="F21" s="0">
-        <x:v>169</x:v>
+        <x:v>240</x:v>
       </x:c>
     </x:row>
     <x:row r="22" spans="1:6">
       <x:c r="A22" s="0" t="s">
-        <x:v>65</x:v>
+        <x:v>66</x:v>
       </x:c>
       <x:c r="B22" s="0" t="s">
-        <x:v>66</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="C22" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="D22" s="0" t="s">
-        <x:v>67</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="E22" s="0">
-        <x:v>27.45</x:v>
+        <x:v>13.64</x:v>
       </x:c>
       <x:c r="F22" s="0">
-        <x:v>438</x:v>
+        <x:v>723</x:v>
       </x:c>
     </x:row>
     <x:row r="23" spans="1:6">
       <x:c r="A23" s="0" t="s">
-        <x:v>30</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="B23" s="0" t="s">
-        <x:v>68</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="C23" s="0" t="s">
         <x:v>12</x:v>
       </x:c>
       <x:c r="D23" s="0" t="s">
-        <x:v>69</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="E23" s="0">
-        <x:v>8.73</x:v>
+        <x:v>25.9</x:v>
       </x:c>
       <x:c r="F23" s="0">
-        <x:v>6</x:v>
+        <x:v>77</x:v>
       </x:c>
     </x:row>
     <x:row r="24" spans="1:6">
       <x:c r="A24" s="0" t="s">
-        <x:v>41</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="B24" s="0" t="s">
-        <x:v>70</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="C24" s="0" t="s">
-        <x:v>71</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D24" s="0" t="s">
-        <x:v>72</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="E24" s="0">
-        <x:v>35</x:v>
+        <x:v>27.9</x:v>
       </x:c>
       <x:c r="F24" s="0">
-        <x:v>922</x:v>
+        <x:v>163</x:v>
       </x:c>
     </x:row>
     <x:row r="25" spans="1:6">
       <x:c r="A25" s="0" t="s">
-        <x:v>73</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="B25" s="0" t="s">
+        <x:v>62</x:v>
+      </x:c>
+      <x:c r="C25" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="D25" s="0" t="s">
         <x:v>74</x:v>
       </x:c>
-      <x:c r="C25" s="0" t="s">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="D25" s="0" t="s">
-        <x:v>75</x:v>
-      </x:c>
       <x:c r="E25" s="0">
-        <x:v>25.8</x:v>
+        <x:v>39.99</x:v>
       </x:c>
       <x:c r="F25" s="0">
-        <x:v>1000</x:v>
+        <x:v>15</x:v>
       </x:c>
     </x:row>
     <x:row r="26" spans="1:6">
       <x:c r="A26" s="0" t="s">
+        <x:v>75</x:v>
+      </x:c>
+      <x:c r="B26" s="0" t="s">
         <x:v>76</x:v>
       </x:c>
-      <x:c r="B26" s="0" t="s">
+      <x:c r="C26" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="D26" s="0" t="s">
         <x:v>77</x:v>
       </x:c>
-      <x:c r="C26" s="0" t="s">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="D26" s="0" t="s">
-        <x:v>78</x:v>
-      </x:c>
       <x:c r="E26" s="0">
-        <x:v>29.9</x:v>
+        <x:v>33.59</x:v>
       </x:c>
       <x:c r="F26" s="0">
-        <x:v>73</x:v>
+        <x:v>1900</x:v>
       </x:c>
     </x:row>
     <x:row r="27" spans="1:6">
       <x:c r="A27" s="0" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="B27" s="0" t="s">
         <x:v>79</x:v>
       </x:c>
-      <x:c r="B27" s="0" t="s">
+      <x:c r="C27" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="D27" s="0" t="s">
         <x:v>80</x:v>
       </x:c>
-      <x:c r="C27" s="0" t="s">
-        <x:v>81</x:v>
-      </x:c>
-      <x:c r="D27" s="0" t="s">
-        <x:v>82</x:v>
-      </x:c>
       <x:c r="E27" s="0">
-        <x:v>9.59</x:v>
+        <x:v>27.45</x:v>
       </x:c>
       <x:c r="F27" s="0">
-        <x:v>683</x:v>
+        <x:v>438</x:v>
       </x:c>
     </x:row>
     <x:row r="28" spans="1:6">
       <x:c r="A28" s="0" t="s">
-        <x:v>83</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="B28" s="0" t="s">
-        <x:v>84</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="C28" s="0" t="s">
         <x:v>12</x:v>
       </x:c>
       <x:c r="D28" s="0" t="s">
-        <x:v>85</x:v>
+        <x:v>82</x:v>
       </x:c>
       <x:c r="E28" s="0">
-        <x:v>18.5</x:v>
+        <x:v>8.73</x:v>
       </x:c>
       <x:c r="F28" s="0">
-        <x:v>833</x:v>
+        <x:v>6</x:v>
       </x:c>
     </x:row>
     <x:row r="29" spans="1:6">
       <x:c r="A29" s="0" t="s">
-        <x:v>86</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="B29" s="0" t="s">
-        <x:v>87</x:v>
+        <x:v>83</x:v>
       </x:c>
       <x:c r="C29" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="D29" s="0" t="s">
-        <x:v>57</x:v>
+        <x:v>85</x:v>
       </x:c>
       <x:c r="E29" s="0">
-        <x:v>9.72</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="F29" s="0">
-        <x:v>5</x:v>
+        <x:v>922</x:v>
       </x:c>
     </x:row>
     <x:row r="30" spans="1:6">
       <x:c r="A30" s="0" t="s">
+        <x:v>86</x:v>
+      </x:c>
+      <x:c r="B30" s="0" t="s">
+        <x:v>87</x:v>
+      </x:c>
+      <x:c r="C30" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="D30" s="0" t="s">
         <x:v>88</x:v>
       </x:c>
-      <x:c r="B30" s="0" t="s">
+      <x:c r="E30" s="0">
+        <x:v>29.9</x:v>
+      </x:c>
+      <x:c r="F30" s="0">
+        <x:v>73</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="31" spans="1:6">
+      <x:c r="A31" s="0" t="s">
         <x:v>89</x:v>
       </x:c>
-      <x:c r="C30" s="0" t="s">
-        <x:v>81</x:v>
-      </x:c>
-      <x:c r="D30" s="0" t="s">
-        <x:v>57</x:v>
-      </x:c>
-      <x:c r="E30" s="0">
-        <x:v>19.7</x:v>
-      </x:c>
-      <x:c r="F30" s="0">
-        <x:v>5</x:v>
+      <x:c r="B31" s="0" t="s">
+        <x:v>90</x:v>
+      </x:c>
+      <x:c r="C31" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="D31" s="0" t="s">
+        <x:v>91</x:v>
+      </x:c>
+      <x:c r="E31" s="0">
+        <x:v>25.8</x:v>
+      </x:c>
+      <x:c r="F31" s="0">
+        <x:v>1000</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -2300,16 +2323,16 @@
     </x:row>
     <x:row r="2" spans="1:6">
       <x:c r="A2" s="0" t="s">
-        <x:v>90</x:v>
+        <x:v>92</x:v>
       </x:c>
       <x:c r="B2" s="0" t="s">
-        <x:v>91</x:v>
+        <x:v>93</x:v>
       </x:c>
       <x:c r="C2" s="0" t="s">
         <x:v>12</x:v>
       </x:c>
       <x:c r="D2" s="0" t="s">
-        <x:v>92</x:v>
+        <x:v>94</x:v>
       </x:c>
       <x:c r="E2" s="0">
         <x:v>17.9</x:v>
@@ -2320,16 +2343,16 @@
     </x:row>
     <x:row r="3" spans="1:6">
       <x:c r="A3" s="0" t="s">
-        <x:v>93</x:v>
+        <x:v>95</x:v>
       </x:c>
       <x:c r="B3" s="0" t="s">
-        <x:v>94</x:v>
+        <x:v>96</x:v>
       </x:c>
       <x:c r="C3" s="0" t="s">
         <x:v>12</x:v>
       </x:c>
       <x:c r="D3" s="0" t="s">
-        <x:v>95</x:v>
+        <x:v>97</x:v>
       </x:c>
       <x:c r="E3" s="0">
         <x:v>9.49</x:v>
@@ -2360,16 +2383,16 @@
     </x:row>
     <x:row r="5" spans="1:6">
       <x:c r="A5" s="0" t="s">
-        <x:v>96</x:v>
+        <x:v>98</x:v>
       </x:c>
       <x:c r="B5" s="0" t="s">
-        <x:v>37</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="C5" s="0" t="s">
         <x:v>12</x:v>
       </x:c>
       <x:c r="D5" s="0" t="s">
-        <x:v>97</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="E5" s="0">
         <x:v>10.9</x:v>
@@ -2380,56 +2403,56 @@
     </x:row>
     <x:row r="6" spans="1:6">
       <x:c r="A6" s="0" t="s">
-        <x:v>98</x:v>
+        <x:v>100</x:v>
       </x:c>
       <x:c r="B6" s="0" t="s">
-        <x:v>99</x:v>
+        <x:v>90</x:v>
       </x:c>
       <x:c r="C6" s="0" t="s">
         <x:v>12</x:v>
       </x:c>
       <x:c r="D6" s="0" t="s">
-        <x:v>100</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="E6" s="0">
-        <x:v>8.49</x:v>
+        <x:v>25.8</x:v>
       </x:c>
       <x:c r="F6" s="0">
-        <x:v>4800</x:v>
+        <x:v>3000</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:6">
       <x:c r="A7" s="0" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="B7" s="0" t="s">
-        <x:v>74</x:v>
+        <x:v>103</x:v>
       </x:c>
       <x:c r="C7" s="0" t="s">
         <x:v>12</x:v>
       </x:c>
       <x:c r="D7" s="0" t="s">
-        <x:v>102</x:v>
+        <x:v>104</x:v>
       </x:c>
       <x:c r="E7" s="0">
-        <x:v>25.8</x:v>
+        <x:v>8.49</x:v>
       </x:c>
       <x:c r="F7" s="0">
-        <x:v>3000</x:v>
+        <x:v>4800</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:6">
       <x:c r="A8" s="0" t="s">
-        <x:v>103</x:v>
+        <x:v>105</x:v>
       </x:c>
       <x:c r="B8" s="0" t="s">
-        <x:v>104</x:v>
+        <x:v>106</x:v>
       </x:c>
       <x:c r="C8" s="0" t="s">
         <x:v>12</x:v>
       </x:c>
       <x:c r="D8" s="0" t="s">
-        <x:v>105</x:v>
+        <x:v>107</x:v>
       </x:c>
       <x:c r="E8" s="0">
         <x:v>17</x:v>
@@ -2440,196 +2463,196 @@
     </x:row>
     <x:row r="9" spans="1:6">
       <x:c r="A9" s="0" t="s">
-        <x:v>106</x:v>
+        <x:v>108</x:v>
       </x:c>
       <x:c r="B9" s="0" t="s">
-        <x:v>107</x:v>
+        <x:v>109</x:v>
       </x:c>
       <x:c r="C9" s="0" t="s">
-        <x:v>81</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D9" s="0" t="s">
-        <x:v>108</x:v>
+        <x:v>110</x:v>
       </x:c>
       <x:c r="E9" s="0">
-        <x:v>16.5</x:v>
+        <x:v>22.8</x:v>
       </x:c>
       <x:c r="F9" s="0">
-        <x:v>31</x:v>
+        <x:v>1600</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:6">
       <x:c r="A10" s="0" t="s">
-        <x:v>93</x:v>
+        <x:v>111</x:v>
       </x:c>
       <x:c r="B10" s="0" t="s">
-        <x:v>109</x:v>
+        <x:v>112</x:v>
       </x:c>
       <x:c r="C10" s="0" t="s">
         <x:v>12</x:v>
       </x:c>
       <x:c r="D10" s="0" t="s">
-        <x:v>110</x:v>
+        <x:v>113</x:v>
       </x:c>
       <x:c r="E10" s="0">
-        <x:v>12.99</x:v>
+        <x:v>27.8</x:v>
       </x:c>
       <x:c r="F10" s="0">
-        <x:v>1800</x:v>
+        <x:v>877</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:6">
       <x:c r="A11" s="0" t="s">
-        <x:v>111</x:v>
+        <x:v>114</x:v>
       </x:c>
       <x:c r="B11" s="0" t="s">
-        <x:v>112</x:v>
+        <x:v>115</x:v>
       </x:c>
       <x:c r="C11" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>116</x:v>
       </x:c>
       <x:c r="D11" s="0" t="s">
-        <x:v>113</x:v>
+        <x:v>117</x:v>
       </x:c>
       <x:c r="E11" s="0">
-        <x:v>22.8</x:v>
+        <x:v>16.5</x:v>
       </x:c>
       <x:c r="F11" s="0">
-        <x:v>1600</x:v>
+        <x:v>31</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:6">
       <x:c r="A12" s="0" t="s">
-        <x:v>114</x:v>
+        <x:v>118</x:v>
       </x:c>
       <x:c r="B12" s="0" t="s">
-        <x:v>115</x:v>
+        <x:v>119</x:v>
       </x:c>
       <x:c r="C12" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>120</x:v>
       </x:c>
       <x:c r="D12" s="0" t="s">
-        <x:v>116</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="E12" s="0">
-        <x:v>9.9</x:v>
+        <x:v>297.6</x:v>
       </x:c>
       <x:c r="F12" s="0">
-        <x:v>947</x:v>
+        <x:v>22</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="1:6">
       <x:c r="A13" s="0" t="s">
-        <x:v>117</x:v>
+        <x:v>121</x:v>
       </x:c>
       <x:c r="B13" s="0" t="s">
-        <x:v>118</x:v>
+        <x:v>122</x:v>
       </x:c>
       <x:c r="C13" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D13" s="0" t="s">
-        <x:v>119</x:v>
+        <x:v>123</x:v>
       </x:c>
       <x:c r="E13" s="0">
-        <x:v>26.22</x:v>
+        <x:v>9.9</x:v>
       </x:c>
       <x:c r="F13" s="0">
-        <x:v>2700</x:v>
+        <x:v>947</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:6">
       <x:c r="A14" s="0" t="s">
-        <x:v>120</x:v>
+        <x:v>124</x:v>
       </x:c>
       <x:c r="B14" s="0" t="s">
-        <x:v>91</x:v>
+        <x:v>125</x:v>
       </x:c>
       <x:c r="C14" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="D14" s="0" t="s">
-        <x:v>60</x:v>
+        <x:v>126</x:v>
       </x:c>
       <x:c r="E14" s="0">
-        <x:v>17.9</x:v>
+        <x:v>26.22</x:v>
       </x:c>
       <x:c r="F14" s="0">
-        <x:v>15</x:v>
+        <x:v>2700</x:v>
       </x:c>
     </x:row>
     <x:row r="15" spans="1:6">
       <x:c r="A15" s="0" t="s">
-        <x:v>121</x:v>
+        <x:v>127</x:v>
       </x:c>
       <x:c r="B15" s="0" t="s">
-        <x:v>94</x:v>
+        <x:v>93</x:v>
       </x:c>
       <x:c r="C15" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D15" s="0" t="s">
-        <x:v>122</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="E15" s="0">
-        <x:v>9.49</x:v>
+        <x:v>17.9</x:v>
       </x:c>
       <x:c r="F15" s="0">
-        <x:v>200</x:v>
+        <x:v>15</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="1:6">
       <x:c r="A16" s="0" t="s">
-        <x:v>123</x:v>
+        <x:v>128</x:v>
       </x:c>
       <x:c r="B16" s="0" t="s">
-        <x:v>124</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="C16" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>130</x:v>
       </x:c>
       <x:c r="D16" s="0" t="s">
-        <x:v>125</x:v>
+        <x:v>131</x:v>
       </x:c>
       <x:c r="E16" s="0">
-        <x:v>27.8</x:v>
+        <x:v>62.38</x:v>
       </x:c>
       <x:c r="F16" s="0">
-        <x:v>877</x:v>
+        <x:v>375</x:v>
       </x:c>
     </x:row>
     <x:row r="17" spans="1:6">
       <x:c r="A17" s="0" t="s">
-        <x:v>126</x:v>
+        <x:v>132</x:v>
       </x:c>
       <x:c r="B17" s="0" t="s">
-        <x:v>127</x:v>
+        <x:v>96</x:v>
       </x:c>
       <x:c r="C17" s="0" t="s">
-        <x:v>128</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="D17" s="0" t="s">
-        <x:v>129</x:v>
+        <x:v>133</x:v>
       </x:c>
       <x:c r="E17" s="0">
-        <x:v>62.38</x:v>
+        <x:v>9.49</x:v>
       </x:c>
       <x:c r="F17" s="0">
-        <x:v>375</x:v>
+        <x:v>200</x:v>
       </x:c>
     </x:row>
     <x:row r="18" spans="1:6">
       <x:c r="A18" s="0" t="s">
-        <x:v>130</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="B18" s="0" t="s">
-        <x:v>131</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="C18" s="0" t="s">
         <x:v>8</x:v>
       </x:c>
       <x:c r="D18" s="0" t="s">
-        <x:v>132</x:v>
+        <x:v>136</x:v>
       </x:c>
       <x:c r="E18" s="0">
         <x:v>8.5</x:v>
@@ -2640,281 +2663,301 @@
     </x:row>
     <x:row r="19" spans="1:6">
       <x:c r="A19" s="0" t="s">
-        <x:v>133</x:v>
+        <x:v>137</x:v>
       </x:c>
       <x:c r="B19" s="0" t="s">
-        <x:v>134</x:v>
+        <x:v>138</x:v>
       </x:c>
       <x:c r="C19" s="0" t="s">
         <x:v>12</x:v>
       </x:c>
       <x:c r="D19" s="0" t="s">
-        <x:v>135</x:v>
+        <x:v>139</x:v>
       </x:c>
       <x:c r="E19" s="0">
-        <x:v>6.99</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="F19" s="0">
-        <x:v>1900</x:v>
+        <x:v>14</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="1:6">
       <x:c r="A20" s="0" t="s">
-        <x:v>136</x:v>
+        <x:v>95</x:v>
       </x:c>
       <x:c r="B20" s="0" t="s">
-        <x:v>137</x:v>
+        <x:v>140</x:v>
       </x:c>
       <x:c r="C20" s="0" t="s">
         <x:v>12</x:v>
       </x:c>
       <x:c r="D20" s="0" t="s">
-        <x:v>138</x:v>
+        <x:v>141</x:v>
       </x:c>
       <x:c r="E20" s="0">
-        <x:v>17.85</x:v>
+        <x:v>12.99</x:v>
       </x:c>
       <x:c r="F20" s="0">
-        <x:v>1700</x:v>
+        <x:v>1800</x:v>
       </x:c>
     </x:row>
     <x:row r="21" spans="1:6">
       <x:c r="A21" s="0" t="s">
-        <x:v>139</x:v>
+        <x:v>142</x:v>
       </x:c>
       <x:c r="B21" s="0" t="s">
-        <x:v>140</x:v>
+        <x:v>143</x:v>
       </x:c>
       <x:c r="C21" s="0" t="s">
-        <x:v>81</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D21" s="0" t="s">
-        <x:v>141</x:v>
+        <x:v>144</x:v>
       </x:c>
       <x:c r="E21" s="0">
-        <x:v>7.9</x:v>
+        <x:v>17.85</x:v>
       </x:c>
       <x:c r="F21" s="0">
-        <x:v>902</x:v>
+        <x:v>1700</x:v>
       </x:c>
     </x:row>
     <x:row r="22" spans="1:6">
       <x:c r="A22" s="0" t="s">
-        <x:v>142</x:v>
+        <x:v>145</x:v>
       </x:c>
       <x:c r="B22" s="0" t="s">
-        <x:v>143</x:v>
+        <x:v>146</x:v>
       </x:c>
       <x:c r="C22" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>116</x:v>
       </x:c>
       <x:c r="D22" s="0" t="s">
-        <x:v>144</x:v>
+        <x:v>147</x:v>
       </x:c>
       <x:c r="E22" s="0">
-        <x:v>7.5</x:v>
+        <x:v>7.9</x:v>
       </x:c>
       <x:c r="F22" s="0">
-        <x:v>545</x:v>
+        <x:v>902</x:v>
       </x:c>
     </x:row>
     <x:row r="23" spans="1:6">
       <x:c r="A23" s="0" t="s">
-        <x:v>145</x:v>
+        <x:v>148</x:v>
       </x:c>
       <x:c r="B23" s="0" t="s">
-        <x:v>115</x:v>
+        <x:v>149</x:v>
       </x:c>
       <x:c r="C23" s="0" t="s">
         <x:v>12</x:v>
       </x:c>
       <x:c r="D23" s="0" t="s">
-        <x:v>146</x:v>
+        <x:v>150</x:v>
       </x:c>
       <x:c r="E23" s="0">
-        <x:v>9.9</x:v>
+        <x:v>7.5</x:v>
       </x:c>
       <x:c r="F23" s="0">
-        <x:v>1500</x:v>
+        <x:v>545</x:v>
       </x:c>
     </x:row>
     <x:row r="24" spans="1:6">
       <x:c r="A24" s="0" t="s">
-        <x:v>147</x:v>
+        <x:v>151</x:v>
       </x:c>
       <x:c r="B24" s="0" t="s">
-        <x:v>148</x:v>
+        <x:v>152</x:v>
       </x:c>
       <x:c r="C24" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D24" s="0" t="s">
-        <x:v>149</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="E24" s="0">
-        <x:v>8.75</x:v>
+        <x:v>6.99</x:v>
       </x:c>
       <x:c r="F24" s="0">
-        <x:v>121</x:v>
+        <x:v>1900</x:v>
       </x:c>
     </x:row>
     <x:row r="25" spans="1:6">
       <x:c r="A25" s="0" t="s">
-        <x:v>150</x:v>
+        <x:v>153</x:v>
       </x:c>
       <x:c r="B25" s="0" t="s">
-        <x:v>151</x:v>
+        <x:v>122</x:v>
       </x:c>
       <x:c r="C25" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D25" s="0" t="s">
-        <x:v>152</x:v>
+        <x:v>154</x:v>
       </x:c>
       <x:c r="E25" s="0">
-        <x:v>11.99</x:v>
+        <x:v>9.9</x:v>
       </x:c>
       <x:c r="F25" s="0">
-        <x:v>355</x:v>
+        <x:v>1500</x:v>
       </x:c>
     </x:row>
     <x:row r="26" spans="1:6">
       <x:c r="A26" s="0" t="s">
-        <x:v>153</x:v>
+        <x:v>155</x:v>
       </x:c>
       <x:c r="B26" s="0" t="s">
-        <x:v>154</x:v>
+        <x:v>156</x:v>
       </x:c>
       <x:c r="C26" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="D26" s="0" t="s">
-        <x:v>113</x:v>
+        <x:v>157</x:v>
       </x:c>
       <x:c r="E26" s="0">
-        <x:v>24.38</x:v>
+        <x:v>8.75</x:v>
       </x:c>
       <x:c r="F26" s="0">
-        <x:v>1600</x:v>
+        <x:v>121</x:v>
       </x:c>
     </x:row>
     <x:row r="27" spans="1:6">
       <x:c r="A27" s="0" t="s">
-        <x:v>155</x:v>
+        <x:v>158</x:v>
       </x:c>
       <x:c r="B27" s="0" t="s">
-        <x:v>109</x:v>
+        <x:v>159</x:v>
       </x:c>
       <x:c r="C27" s="0" t="s">
         <x:v>12</x:v>
       </x:c>
       <x:c r="D27" s="0" t="s">
-        <x:v>156</x:v>
+        <x:v>160</x:v>
       </x:c>
       <x:c r="E27" s="0">
-        <x:v>12.99</x:v>
+        <x:v>19.99</x:v>
       </x:c>
       <x:c r="F27" s="0">
-        <x:v>23</x:v>
+        <x:v>82</x:v>
       </x:c>
     </x:row>
     <x:row r="28" spans="1:6">
       <x:c r="A28" s="0" t="s">
-        <x:v>157</x:v>
+        <x:v>161</x:v>
       </x:c>
       <x:c r="B28" s="0" t="s">
-        <x:v>18</x:v>
+        <x:v>162</x:v>
       </x:c>
       <x:c r="C28" s="0" t="s">
-        <x:v>81</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="D28" s="0" t="s">
-        <x:v>158</x:v>
+        <x:v>163</x:v>
       </x:c>
       <x:c r="E28" s="0">
-        <x:v>16.9</x:v>
+        <x:v>11.99</x:v>
       </x:c>
       <x:c r="F28" s="0">
-        <x:v>45</x:v>
+        <x:v>355</x:v>
       </x:c>
     </x:row>
     <x:row r="29" spans="1:6">
       <x:c r="A29" s="0" t="s">
-        <x:v>98</x:v>
+        <x:v>164</x:v>
       </x:c>
       <x:c r="B29" s="0" t="s">
-        <x:v>159</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="C29" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>116</x:v>
       </x:c>
       <x:c r="D29" s="0" t="s">
-        <x:v>160</x:v>
+        <x:v>165</x:v>
       </x:c>
       <x:c r="E29" s="0">
-        <x:v>7.89</x:v>
+        <x:v>16.9</x:v>
       </x:c>
       <x:c r="F29" s="0">
-        <x:v>230</x:v>
+        <x:v>45</x:v>
       </x:c>
     </x:row>
     <x:row r="30" spans="1:6">
       <x:c r="A30" s="0" t="s">
-        <x:v>161</x:v>
+        <x:v>166</x:v>
       </x:c>
       <x:c r="B30" s="0" t="s">
-        <x:v>7</x:v>
+        <x:v>167</x:v>
       </x:c>
       <x:c r="C30" s="0" t="s">
         <x:v>12</x:v>
       </x:c>
       <x:c r="D30" s="0" t="s">
-        <x:v>162</x:v>
+        <x:v>110</x:v>
       </x:c>
       <x:c r="E30" s="0">
-        <x:v>15.9</x:v>
+        <x:v>24.38</x:v>
       </x:c>
       <x:c r="F30" s="0">
-        <x:v>16</x:v>
+        <x:v>1600</x:v>
       </x:c>
     </x:row>
     <x:row r="31" spans="1:6">
       <x:c r="A31" s="0" t="s">
-        <x:v>163</x:v>
+        <x:v>168</x:v>
       </x:c>
       <x:c r="B31" s="0" t="s">
-        <x:v>164</x:v>
+        <x:v>140</x:v>
       </x:c>
       <x:c r="C31" s="0" t="s">
         <x:v>12</x:v>
       </x:c>
       <x:c r="D31" s="0" t="s">
-        <x:v>165</x:v>
+        <x:v>169</x:v>
       </x:c>
       <x:c r="E31" s="0">
-        <x:v>6.49</x:v>
+        <x:v>12.99</x:v>
       </x:c>
       <x:c r="F31" s="0">
-        <x:v>2900</x:v>
+        <x:v>23</x:v>
       </x:c>
     </x:row>
     <x:row r="32" spans="1:6">
       <x:c r="A32" s="0" t="s">
-        <x:v>166</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="B32" s="0" t="s">
-        <x:v>25</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="C32" s="0" t="s">
         <x:v>12</x:v>
       </x:c>
       <x:c r="D32" s="0" t="s">
-        <x:v>167</x:v>
+        <x:v>171</x:v>
       </x:c>
       <x:c r="E32" s="0">
+        <x:v>7.89</x:v>
+      </x:c>
+      <x:c r="F32" s="0">
+        <x:v>230</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="33" spans="1:6">
+      <x:c r="A33" s="0" t="s">
+        <x:v>172</x:v>
+      </x:c>
+      <x:c r="B33" s="0" t="s">
+        <x:v>173</x:v>
+      </x:c>
+      <x:c r="C33" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="D33" s="0" t="s">
+        <x:v>174</x:v>
+      </x:c>
+      <x:c r="E33" s="0">
         <x:v>24.9</x:v>
       </x:c>
-      <x:c r="F32" s="0">
+      <x:c r="F33" s="0">
         <x:v>2200</x:v>
       </x:c>
     </x:row>
@@ -2960,16 +3003,16 @@
     </x:row>
     <x:row r="2" spans="1:6">
       <x:c r="A2" s="0" t="s">
-        <x:v>168</x:v>
+        <x:v>175</x:v>
       </x:c>
       <x:c r="B2" s="0" t="s">
-        <x:v>169</x:v>
+        <x:v>176</x:v>
       </x:c>
       <x:c r="C2" s="0" t="s">
-        <x:v>71</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="D2" s="0" t="s">
-        <x:v>170</x:v>
+        <x:v>177</x:v>
       </x:c>
       <x:c r="E2" s="0">
         <x:v>10.97</x:v>
@@ -2980,16 +3023,16 @@
     </x:row>
     <x:row r="3" spans="1:6">
       <x:c r="A3" s="0" t="s">
-        <x:v>171</x:v>
+        <x:v>178</x:v>
       </x:c>
       <x:c r="B3" s="0" t="s">
-        <x:v>172</x:v>
+        <x:v>179</x:v>
       </x:c>
       <x:c r="C3" s="0" t="s">
-        <x:v>173</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="D3" s="0" t="s">
-        <x:v>174</x:v>
+        <x:v>180</x:v>
       </x:c>
       <x:c r="E3" s="0">
         <x:v>4.89</x:v>
@@ -3000,16 +3043,16 @@
     </x:row>
     <x:row r="4" spans="1:6">
       <x:c r="A4" s="0" t="s">
-        <x:v>175</x:v>
+        <x:v>181</x:v>
       </x:c>
       <x:c r="B4" s="0" t="s">
-        <x:v>176</x:v>
+        <x:v>182</x:v>
       </x:c>
       <x:c r="C4" s="0" t="s">
         <x:v>12</x:v>
       </x:c>
       <x:c r="D4" s="0" t="s">
-        <x:v>177</x:v>
+        <x:v>183</x:v>
       </x:c>
       <x:c r="E4" s="0">
         <x:v>5.9</x:v>
@@ -3020,16 +3063,16 @@
     </x:row>
     <x:row r="5" spans="1:6">
       <x:c r="A5" s="0" t="s">
-        <x:v>178</x:v>
+        <x:v>184</x:v>
       </x:c>
       <x:c r="B5" s="0" t="s">
-        <x:v>179</x:v>
+        <x:v>185</x:v>
       </x:c>
       <x:c r="C5" s="0" t="s">
         <x:v>12</x:v>
       </x:c>
       <x:c r="D5" s="0" t="s">
-        <x:v>180</x:v>
+        <x:v>186</x:v>
       </x:c>
       <x:c r="E5" s="0">
         <x:v>15.34</x:v>
@@ -3040,16 +3083,16 @@
     </x:row>
     <x:row r="6" spans="1:6">
       <x:c r="A6" s="0" t="s">
-        <x:v>181</x:v>
+        <x:v>187</x:v>
       </x:c>
       <x:c r="B6" s="0" t="s">
-        <x:v>176</x:v>
+        <x:v>182</x:v>
       </x:c>
       <x:c r="C6" s="0" t="s">
         <x:v>12</x:v>
       </x:c>
       <x:c r="D6" s="0" t="s">
-        <x:v>182</x:v>
+        <x:v>188</x:v>
       </x:c>
       <x:c r="E6" s="0">
         <x:v>5.9</x:v>
@@ -3060,16 +3103,16 @@
     </x:row>
     <x:row r="7" spans="1:6">
       <x:c r="A7" s="0" t="s">
-        <x:v>183</x:v>
+        <x:v>189</x:v>
       </x:c>
       <x:c r="B7" s="0" t="s">
-        <x:v>184</x:v>
+        <x:v>190</x:v>
       </x:c>
       <x:c r="C7" s="0" t="s">
-        <x:v>63</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="D7" s="0" t="s">
-        <x:v>167</x:v>
+        <x:v>174</x:v>
       </x:c>
       <x:c r="E7" s="0">
         <x:v>8.81</x:v>
@@ -3080,16 +3123,16 @@
     </x:row>
     <x:row r="8" spans="1:6">
       <x:c r="A8" s="0" t="s">
-        <x:v>185</x:v>
+        <x:v>191</x:v>
       </x:c>
       <x:c r="B8" s="0" t="s">
-        <x:v>186</x:v>
+        <x:v>192</x:v>
       </x:c>
       <x:c r="C8" s="0" t="s">
         <x:v>22</x:v>
       </x:c>
       <x:c r="D8" s="0" t="s">
-        <x:v>187</x:v>
+        <x:v>193</x:v>
       </x:c>
       <x:c r="E8" s="0">
         <x:v>6.34</x:v>
@@ -3100,16 +3143,16 @@
     </x:row>
     <x:row r="9" spans="1:6">
       <x:c r="A9" s="0" t="s">
-        <x:v>188</x:v>
+        <x:v>194</x:v>
       </x:c>
       <x:c r="B9" s="0" t="s">
-        <x:v>189</x:v>
+        <x:v>195</x:v>
       </x:c>
       <x:c r="C9" s="0" t="s">
         <x:v>22</x:v>
       </x:c>
       <x:c r="D9" s="0" t="s">
-        <x:v>190</x:v>
+        <x:v>196</x:v>
       </x:c>
       <x:c r="E9" s="0">
         <x:v>7.81</x:v>
@@ -3120,96 +3163,96 @@
     </x:row>
     <x:row r="10" spans="1:6">
       <x:c r="A10" s="0" t="s">
-        <x:v>191</x:v>
+        <x:v>197</x:v>
       </x:c>
       <x:c r="B10" s="0" t="s">
-        <x:v>192</x:v>
+        <x:v>198</x:v>
       </x:c>
       <x:c r="C10" s="0" t="s">
         <x:v>22</x:v>
       </x:c>
       <x:c r="D10" s="0" t="s">
-        <x:v>193</x:v>
+        <x:v>199</x:v>
       </x:c>
       <x:c r="E10" s="0">
-        <x:v>8.9</x:v>
+        <x:v>7.34</x:v>
       </x:c>
       <x:c r="F10" s="0">
-        <x:v>158</x:v>
+        <x:v>4300</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:6">
       <x:c r="A11" s="0" t="s">
-        <x:v>194</x:v>
+        <x:v>200</x:v>
       </x:c>
       <x:c r="B11" s="0" t="s">
-        <x:v>195</x:v>
+        <x:v>201</x:v>
       </x:c>
       <x:c r="C11" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>120</x:v>
       </x:c>
       <x:c r="D11" s="0" t="s">
-        <x:v>196</x:v>
+        <x:v>82</x:v>
       </x:c>
       <x:c r="E11" s="0">
-        <x:v>7.34</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="F11" s="0">
-        <x:v>4300</x:v>
+        <x:v>6</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:6">
       <x:c r="A12" s="0" t="s">
-        <x:v>197</x:v>
+        <x:v>202</x:v>
       </x:c>
       <x:c r="B12" s="0" t="s">
-        <x:v>198</x:v>
+        <x:v>203</x:v>
       </x:c>
       <x:c r="C12" s="0" t="s">
-        <x:v>199</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D12" s="0" t="s">
-        <x:v>69</x:v>
+        <x:v>204</x:v>
       </x:c>
       <x:c r="E12" s="0">
-        <x:v>5</x:v>
+        <x:v>21.9</x:v>
       </x:c>
       <x:c r="F12" s="0">
-        <x:v>6</x:v>
+        <x:v>21</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="1:6">
       <x:c r="A13" s="0" t="s">
-        <x:v>200</x:v>
+        <x:v>205</x:v>
       </x:c>
       <x:c r="B13" s="0" t="s">
-        <x:v>201</x:v>
+        <x:v>206</x:v>
       </x:c>
       <x:c r="C13" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>130</x:v>
       </x:c>
       <x:c r="D13" s="0" t="s">
-        <x:v>202</x:v>
+        <x:v>207</x:v>
       </x:c>
       <x:c r="E13" s="0">
-        <x:v>21.9</x:v>
+        <x:v>14.97</x:v>
       </x:c>
       <x:c r="F13" s="0">
-        <x:v>21</x:v>
+        <x:v>78</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:6">
       <x:c r="A14" s="0" t="s">
+        <x:v>208</x:v>
+      </x:c>
+      <x:c r="B14" s="0" t="s">
         <x:v>203</x:v>
       </x:c>
-      <x:c r="B14" s="0" t="s">
-        <x:v>201</x:v>
-      </x:c>
       <x:c r="C14" s="0" t="s">
         <x:v>12</x:v>
       </x:c>
       <x:c r="D14" s="0" t="s">
-        <x:v>202</x:v>
+        <x:v>204</x:v>
       </x:c>
       <x:c r="E14" s="0">
         <x:v>21.9</x:v>
@@ -3220,16 +3263,16 @@
     </x:row>
     <x:row r="15" spans="1:6">
       <x:c r="A15" s="0" t="s">
-        <x:v>204</x:v>
+        <x:v>209</x:v>
       </x:c>
       <x:c r="B15" s="0" t="s">
-        <x:v>201</x:v>
+        <x:v>203</x:v>
       </x:c>
       <x:c r="C15" s="0" t="s">
         <x:v>12</x:v>
       </x:c>
       <x:c r="D15" s="0" t="s">
-        <x:v>108</x:v>
+        <x:v>117</x:v>
       </x:c>
       <x:c r="E15" s="0">
         <x:v>21.9</x:v>
@@ -3240,136 +3283,136 @@
     </x:row>
     <x:row r="16" spans="1:6">
       <x:c r="A16" s="0" t="s">
-        <x:v>205</x:v>
+        <x:v>210</x:v>
       </x:c>
       <x:c r="B16" s="0" t="s">
-        <x:v>201</x:v>
+        <x:v>203</x:v>
       </x:c>
       <x:c r="C16" s="0" t="s">
         <x:v>12</x:v>
       </x:c>
       <x:c r="D16" s="0" t="s">
-        <x:v>48</x:v>
+        <x:v>169</x:v>
       </x:c>
       <x:c r="E16" s="0">
         <x:v>21.9</x:v>
       </x:c>
       <x:c r="F16" s="0">
-        <x:v>14</x:v>
+        <x:v>23</x:v>
       </x:c>
     </x:row>
     <x:row r="17" spans="1:6">
       <x:c r="A17" s="0" t="s">
-        <x:v>206</x:v>
+        <x:v>211</x:v>
       </x:c>
       <x:c r="B17" s="0" t="s">
-        <x:v>207</x:v>
+        <x:v>203</x:v>
       </x:c>
       <x:c r="C17" s="0" t="s">
         <x:v>12</x:v>
       </x:c>
       <x:c r="D17" s="0" t="s">
-        <x:v>208</x:v>
+        <x:v>139</x:v>
       </x:c>
       <x:c r="E17" s="0">
-        <x:v>19.99</x:v>
+        <x:v>21.9</x:v>
       </x:c>
       <x:c r="F17" s="0">
-        <x:v>85</x:v>
+        <x:v>14</x:v>
       </x:c>
     </x:row>
     <x:row r="18" spans="1:6">
       <x:c r="A18" s="0" t="s">
-        <x:v>209</x:v>
+        <x:v>212</x:v>
       </x:c>
       <x:c r="B18" s="0" t="s">
-        <x:v>192</x:v>
+        <x:v>159</x:v>
       </x:c>
       <x:c r="C18" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>120</x:v>
       </x:c>
       <x:c r="D18" s="0" t="s">
-        <x:v>210</x:v>
+        <x:v>213</x:v>
       </x:c>
       <x:c r="E18" s="0">
-        <x:v>8.9</x:v>
+        <x:v>19.99</x:v>
       </x:c>
       <x:c r="F18" s="0">
-        <x:v>27</x:v>
+        <x:v>815</x:v>
       </x:c>
     </x:row>
     <x:row r="19" spans="1:6">
       <x:c r="A19" s="0" t="s">
-        <x:v>211</x:v>
+        <x:v>214</x:v>
       </x:c>
       <x:c r="B19" s="0" t="s">
-        <x:v>212</x:v>
+        <x:v>215</x:v>
       </x:c>
       <x:c r="C19" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="D19" s="0" t="s">
-        <x:v>213</x:v>
+        <x:v>216</x:v>
       </x:c>
       <x:c r="E19" s="0">
-        <x:v>3.98</x:v>
+        <x:v>8.9</x:v>
       </x:c>
       <x:c r="F19" s="0">
-        <x:v>130</x:v>
+        <x:v>27</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="1:6">
       <x:c r="A20" s="0" t="s">
-        <x:v>214</x:v>
+        <x:v>217</x:v>
       </x:c>
       <x:c r="B20" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>218</x:v>
       </x:c>
       <x:c r="C20" s="0" t="s">
         <x:v>12</x:v>
       </x:c>
       <x:c r="D20" s="0" t="s">
-        <x:v>215</x:v>
+        <x:v>219</x:v>
       </x:c>
       <x:c r="E20" s="0">
-        <x:v>19.9</x:v>
+        <x:v>3.98</x:v>
       </x:c>
       <x:c r="F20" s="0">
-        <x:v>965</x:v>
+        <x:v>130</x:v>
       </x:c>
     </x:row>
     <x:row r="21" spans="1:6">
       <x:c r="A21" s="0" t="s">
-        <x:v>216</x:v>
+        <x:v>220</x:v>
       </x:c>
       <x:c r="B21" s="0" t="s">
-        <x:v>217</x:v>
+        <x:v>201</x:v>
       </x:c>
       <x:c r="C21" s="0" t="s">
-        <x:v>173</x:v>
+        <x:v>120</x:v>
       </x:c>
       <x:c r="D21" s="0" t="s">
-        <x:v>218</x:v>
+        <x:v>221</x:v>
       </x:c>
       <x:c r="E21" s="0">
-        <x:v>5.67</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="F21" s="0">
-        <x:v>685</x:v>
+        <x:v>1300</x:v>
       </x:c>
     </x:row>
     <x:row r="22" spans="1:6">
       <x:c r="A22" s="0" t="s">
-        <x:v>219</x:v>
+        <x:v>222</x:v>
       </x:c>
       <x:c r="B22" s="0" t="s">
-        <x:v>220</x:v>
+        <x:v>223</x:v>
       </x:c>
       <x:c r="C22" s="0" t="s">
         <x:v>22</x:v>
       </x:c>
       <x:c r="D22" s="0" t="s">
-        <x:v>221</x:v>
+        <x:v>224</x:v>
       </x:c>
       <x:c r="E22" s="0">
         <x:v>14</x:v>
@@ -3380,16 +3423,16 @@
     </x:row>
     <x:row r="23" spans="1:6">
       <x:c r="A23" s="0" t="s">
-        <x:v>222</x:v>
+        <x:v>225</x:v>
       </x:c>
       <x:c r="B23" s="0" t="s">
-        <x:v>223</x:v>
+        <x:v>226</x:v>
       </x:c>
       <x:c r="C23" s="0" t="s">
         <x:v>12</x:v>
       </x:c>
       <x:c r="D23" s="0" t="s">
-        <x:v>224</x:v>
+        <x:v>227</x:v>
       </x:c>
       <x:c r="E23" s="0">
         <x:v>26.74</x:v>
@@ -3400,16 +3443,16 @@
     </x:row>
     <x:row r="24" spans="1:6">
       <x:c r="A24" s="0" t="s">
-        <x:v>225</x:v>
+        <x:v>228</x:v>
       </x:c>
       <x:c r="B24" s="0" t="s">
-        <x:v>226</x:v>
+        <x:v>229</x:v>
       </x:c>
       <x:c r="C24" s="0" t="s">
         <x:v>22</x:v>
       </x:c>
       <x:c r="D24" s="0" t="s">
-        <x:v>227</x:v>
+        <x:v>230</x:v>
       </x:c>
       <x:c r="E24" s="0">
         <x:v>5.62</x:v>
@@ -3420,16 +3463,16 @@
     </x:row>
     <x:row r="25" spans="1:6">
       <x:c r="A25" s="0" t="s">
-        <x:v>228</x:v>
+        <x:v>231</x:v>
       </x:c>
       <x:c r="B25" s="0" t="s">
-        <x:v>229</x:v>
+        <x:v>232</x:v>
       </x:c>
       <x:c r="C25" s="0" t="s">
         <x:v>12</x:v>
       </x:c>
       <x:c r="D25" s="0" t="s">
-        <x:v>230</x:v>
+        <x:v>233</x:v>
       </x:c>
       <x:c r="E25" s="0">
         <x:v>6.9</x:v>
@@ -3440,16 +3483,16 @@
     </x:row>
     <x:row r="26" spans="1:6">
       <x:c r="A26" s="0" t="s">
-        <x:v>231</x:v>
+        <x:v>234</x:v>
       </x:c>
       <x:c r="B26" s="0" t="s">
-        <x:v>176</x:v>
+        <x:v>182</x:v>
       </x:c>
       <x:c r="C26" s="0" t="s">
         <x:v>12</x:v>
       </x:c>
       <x:c r="D26" s="0" t="s">
-        <x:v>232</x:v>
+        <x:v>235</x:v>
       </x:c>
       <x:c r="E26" s="0">
         <x:v>5.9</x:v>
@@ -3460,16 +3503,16 @@
     </x:row>
     <x:row r="27" spans="1:6">
       <x:c r="A27" s="0" t="s">
-        <x:v>233</x:v>
+        <x:v>236</x:v>
       </x:c>
       <x:c r="B27" s="0" t="s">
-        <x:v>234</x:v>
+        <x:v>237</x:v>
       </x:c>
       <x:c r="C27" s="0" t="s">
         <x:v>12</x:v>
       </x:c>
       <x:c r="D27" s="0" t="s">
-        <x:v>132</x:v>
+        <x:v>136</x:v>
       </x:c>
       <x:c r="E27" s="0">
         <x:v>15.44</x:v>
@@ -3520,16 +3563,16 @@
     </x:row>
     <x:row r="2" spans="1:6">
       <x:c r="A2" s="0" t="s">
-        <x:v>235</x:v>
+        <x:v>238</x:v>
       </x:c>
       <x:c r="B2" s="0" t="s">
-        <x:v>236</x:v>
+        <x:v>239</x:v>
       </x:c>
       <x:c r="C2" s="0" t="s">
         <x:v>22</x:v>
       </x:c>
       <x:c r="D2" s="0" t="s">
-        <x:v>237</x:v>
+        <x:v>240</x:v>
       </x:c>
       <x:c r="E2" s="0">
         <x:v>12.11</x:v>
@@ -3540,16 +3583,16 @@
     </x:row>
     <x:row r="3" spans="1:6">
       <x:c r="A3" s="0" t="s">
-        <x:v>238</x:v>
+        <x:v>241</x:v>
       </x:c>
       <x:c r="B3" s="0" t="s">
-        <x:v>239</x:v>
+        <x:v>242</x:v>
       </x:c>
       <x:c r="C3" s="0" t="s">
         <x:v>22</x:v>
       </x:c>
       <x:c r="D3" s="0" t="s">
-        <x:v>240</x:v>
+        <x:v>243</x:v>
       </x:c>
       <x:c r="E3" s="0">
         <x:v>8.34</x:v>
@@ -3560,56 +3603,56 @@
     </x:row>
     <x:row r="4" spans="1:6">
       <x:c r="A4" s="0" t="s">
-        <x:v>241</x:v>
+        <x:v>244</x:v>
       </x:c>
       <x:c r="B4" s="0" t="s">
-        <x:v>115</x:v>
+        <x:v>245</x:v>
       </x:c>
       <x:c r="C4" s="0" t="s">
-        <x:v>71</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D4" s="0" t="s">
-        <x:v>242</x:v>
+        <x:v>246</x:v>
       </x:c>
       <x:c r="E4" s="0">
-        <x:v>9.9</x:v>
+        <x:v>10.1</x:v>
       </x:c>
       <x:c r="F4" s="0">
-        <x:v>63</x:v>
+        <x:v>249</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:6">
       <x:c r="A5" s="0" t="s">
-        <x:v>243</x:v>
+        <x:v>247</x:v>
       </x:c>
       <x:c r="B5" s="0" t="s">
-        <x:v>244</x:v>
+        <x:v>122</x:v>
       </x:c>
       <x:c r="C5" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="D5" s="0" t="s">
-        <x:v>245</x:v>
+        <x:v>248</x:v>
       </x:c>
       <x:c r="E5" s="0">
-        <x:v>10.1</x:v>
+        <x:v>9.9</x:v>
       </x:c>
       <x:c r="F5" s="0">
-        <x:v>249</x:v>
+        <x:v>63</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:6">
       <x:c r="A6" s="0" t="s">
-        <x:v>246</x:v>
+        <x:v>249</x:v>
       </x:c>
       <x:c r="B6" s="0" t="s">
-        <x:v>247</x:v>
+        <x:v>250</x:v>
       </x:c>
       <x:c r="C6" s="0" t="s">
         <x:v>22</x:v>
       </x:c>
       <x:c r="D6" s="0" t="s">
-        <x:v>248</x:v>
+        <x:v>251</x:v>
       </x:c>
       <x:c r="E6" s="0">
         <x:v>4.84</x:v>
@@ -3620,16 +3663,16 @@
     </x:row>
     <x:row r="7" spans="1:6">
       <x:c r="A7" s="0" t="s">
-        <x:v>249</x:v>
+        <x:v>252</x:v>
       </x:c>
       <x:c r="B7" s="0" t="s">
-        <x:v>250</x:v>
+        <x:v>253</x:v>
       </x:c>
       <x:c r="C7" s="0" t="s">
         <x:v>22</x:v>
       </x:c>
       <x:c r="D7" s="0" t="s">
-        <x:v>251</x:v>
+        <x:v>254</x:v>
       </x:c>
       <x:c r="E7" s="0">
         <x:v>13.43</x:v>
@@ -3640,16 +3683,16 @@
     </x:row>
     <x:row r="8" spans="1:6">
       <x:c r="A8" s="0" t="s">
-        <x:v>252</x:v>
+        <x:v>255</x:v>
       </x:c>
       <x:c r="B8" s="0" t="s">
-        <x:v>253</x:v>
+        <x:v>256</x:v>
       </x:c>
       <x:c r="C8" s="0" t="s">
         <x:v>22</x:v>
       </x:c>
       <x:c r="D8" s="0" t="s">
-        <x:v>254</x:v>
+        <x:v>257</x:v>
       </x:c>
       <x:c r="E8" s="0">
         <x:v>14.1</x:v>
@@ -3660,16 +3703,16 @@
     </x:row>
     <x:row r="9" spans="1:6">
       <x:c r="A9" s="0" t="s">
-        <x:v>255</x:v>
+        <x:v>258</x:v>
       </x:c>
       <x:c r="B9" s="0" t="s">
-        <x:v>256</x:v>
+        <x:v>259</x:v>
       </x:c>
       <x:c r="C9" s="0" t="s">
         <x:v>22</x:v>
       </x:c>
       <x:c r="D9" s="0" t="s">
-        <x:v>257</x:v>
+        <x:v>260</x:v>
       </x:c>
       <x:c r="E9" s="0">
         <x:v>13.1</x:v>
@@ -3680,7 +3723,7 @@
     </x:row>
     <x:row r="10" spans="1:6">
       <x:c r="A10" s="0" t="s">
-        <x:v>258</x:v>
+        <x:v>261</x:v>
       </x:c>
       <x:c r="B10" s="0" t="s">
         <x:v>15</x:v>
@@ -3689,7 +3732,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="D10" s="0" t="s">
-        <x:v>259</x:v>
+        <x:v>262</x:v>
       </x:c>
       <x:c r="E10" s="0">
         <x:v>25.9</x:v>
@@ -3700,36 +3743,36 @@
     </x:row>
     <x:row r="11" spans="1:6">
       <x:c r="A11" s="0" t="s">
-        <x:v>260</x:v>
+        <x:v>263</x:v>
       </x:c>
       <x:c r="B11" s="0" t="s">
-        <x:v>261</x:v>
+        <x:v>264</x:v>
       </x:c>
       <x:c r="C11" s="0" t="s">
         <x:v>22</x:v>
       </x:c>
       <x:c r="D11" s="0" t="s">
-        <x:v>221</x:v>
+        <x:v>163</x:v>
       </x:c>
       <x:c r="E11" s="0">
-        <x:v>15.24</x:v>
+        <x:v>10.83</x:v>
       </x:c>
       <x:c r="F11" s="0">
-        <x:v>1100</x:v>
+        <x:v>355</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:6">
       <x:c r="A12" s="0" t="s">
-        <x:v>262</x:v>
+        <x:v>265</x:v>
       </x:c>
       <x:c r="B12" s="0" t="s">
-        <x:v>192</x:v>
+        <x:v>215</x:v>
       </x:c>
       <x:c r="C12" s="0" t="s">
-        <x:v>71</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="D12" s="0" t="s">
-        <x:v>263</x:v>
+        <x:v>266</x:v>
       </x:c>
       <x:c r="E12" s="0">
         <x:v>8.9</x:v>
@@ -3740,16 +3783,16 @@
     </x:row>
     <x:row r="13" spans="1:6">
       <x:c r="A13" s="0" t="s">
-        <x:v>264</x:v>
+        <x:v>267</x:v>
       </x:c>
       <x:c r="B13" s="0" t="s">
-        <x:v>265</x:v>
+        <x:v>268</x:v>
       </x:c>
       <x:c r="C13" s="0" t="s">
-        <x:v>71</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="D13" s="0" t="s">
-        <x:v>266</x:v>
+        <x:v>269</x:v>
       </x:c>
       <x:c r="E13" s="0">
         <x:v>7.69</x:v>
@@ -3760,56 +3803,56 @@
     </x:row>
     <x:row r="14" spans="1:6">
       <x:c r="A14" s="0" t="s">
-        <x:v>267</x:v>
+        <x:v>270</x:v>
       </x:c>
       <x:c r="B14" s="0" t="s">
-        <x:v>268</x:v>
+        <x:v>271</x:v>
       </x:c>
       <x:c r="C14" s="0" t="s">
-        <x:v>199</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="D14" s="0" t="s">
-        <x:v>269</x:v>
+        <x:v>272</x:v>
       </x:c>
       <x:c r="E14" s="0">
-        <x:v>19</x:v>
+        <x:v>8.8</x:v>
       </x:c>
       <x:c r="F14" s="0">
-        <x:v>3200</x:v>
+        <x:v>334</x:v>
       </x:c>
     </x:row>
     <x:row r="15" spans="1:6">
       <x:c r="A15" s="0" t="s">
-        <x:v>270</x:v>
+        <x:v>273</x:v>
       </x:c>
       <x:c r="B15" s="0" t="s">
-        <x:v>192</x:v>
+        <x:v>274</x:v>
       </x:c>
       <x:c r="C15" s="0" t="s">
-        <x:v>71</x:v>
+        <x:v>120</x:v>
       </x:c>
       <x:c r="D15" s="0" t="s">
-        <x:v>271</x:v>
+        <x:v>275</x:v>
       </x:c>
       <x:c r="E15" s="0">
-        <x:v>8.9</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="F15" s="0">
-        <x:v>350</x:v>
+        <x:v>3200</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="1:6">
       <x:c r="A16" s="0" t="s">
-        <x:v>272</x:v>
+        <x:v>276</x:v>
       </x:c>
       <x:c r="B16" s="0" t="s">
         <x:v>7</x:v>
       </x:c>
       <x:c r="C16" s="0" t="s">
-        <x:v>81</x:v>
+        <x:v>116</x:v>
       </x:c>
       <x:c r="D16" s="0" t="s">
-        <x:v>273</x:v>
+        <x:v>277</x:v>
       </x:c>
       <x:c r="E16" s="0">
         <x:v>15.9</x:v>
@@ -3820,16 +3863,16 @@
     </x:row>
     <x:row r="17" spans="1:6">
       <x:c r="A17" s="0" t="s">
-        <x:v>274</x:v>
+        <x:v>278</x:v>
       </x:c>
       <x:c r="B17" s="0" t="s">
-        <x:v>275</x:v>
+        <x:v>279</x:v>
       </x:c>
       <x:c r="C17" s="0" t="s">
         <x:v>12</x:v>
       </x:c>
       <x:c r="D17" s="0" t="s">
-        <x:v>60</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="E17" s="0">
         <x:v>22.67</x:v>
@@ -3840,36 +3883,36 @@
     </x:row>
     <x:row r="18" spans="1:6">
       <x:c r="A18" s="0" t="s">
-        <x:v>276</x:v>
+        <x:v>280</x:v>
       </x:c>
       <x:c r="B18" s="0" t="s">
-        <x:v>277</x:v>
+        <x:v>201</x:v>
       </x:c>
       <x:c r="C18" s="0" t="s">
-        <x:v>199</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="D18" s="0" t="s">
-        <x:v>278</x:v>
+        <x:v>281</x:v>
       </x:c>
       <x:c r="E18" s="0">
-        <x:v>26</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="F18" s="0">
-        <x:v>292</x:v>
+        <x:v>212</x:v>
       </x:c>
     </x:row>
     <x:row r="19" spans="1:6">
       <x:c r="A19" s="0" t="s">
-        <x:v>279</x:v>
+        <x:v>282</x:v>
       </x:c>
       <x:c r="B19" s="0" t="s">
-        <x:v>280</x:v>
+        <x:v>283</x:v>
       </x:c>
       <x:c r="C19" s="0" t="s">
-        <x:v>281</x:v>
+        <x:v>284</x:v>
       </x:c>
       <x:c r="D19" s="0" t="s">
-        <x:v>282</x:v>
+        <x:v>285</x:v>
       </x:c>
       <x:c r="E19" s="0">
         <x:v>16.99</x:v>
@@ -3880,76 +3923,76 @@
     </x:row>
     <x:row r="20" spans="1:6">
       <x:c r="A20" s="0" t="s">
-        <x:v>283</x:v>
+        <x:v>286</x:v>
       </x:c>
       <x:c r="B20" s="0" t="s">
-        <x:v>284</x:v>
+        <x:v>287</x:v>
       </x:c>
       <x:c r="C20" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="D20" s="0" t="s">
-        <x:v>285</x:v>
+        <x:v>288</x:v>
       </x:c>
       <x:c r="E20" s="0">
-        <x:v>32.5</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="F20" s="0">
-        <x:v>406</x:v>
+        <x:v>175</x:v>
       </x:c>
     </x:row>
     <x:row r="21" spans="1:6">
       <x:c r="A21" s="0" t="s">
-        <x:v>286</x:v>
+        <x:v>289</x:v>
       </x:c>
       <x:c r="B21" s="0" t="s">
-        <x:v>287</x:v>
+        <x:v>290</x:v>
       </x:c>
       <x:c r="C21" s="0" t="s">
-        <x:v>63</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="D21" s="0" t="s">
-        <x:v>288</x:v>
+        <x:v>291</x:v>
       </x:c>
       <x:c r="E21" s="0">
-        <x:v>10</x:v>
+        <x:v>32.5</x:v>
       </x:c>
       <x:c r="F21" s="0">
-        <x:v>175</x:v>
+        <x:v>406</x:v>
       </x:c>
     </x:row>
     <x:row r="22" spans="1:6">
       <x:c r="A22" s="0" t="s">
-        <x:v>289</x:v>
+        <x:v>292</x:v>
       </x:c>
       <x:c r="B22" s="0" t="s">
-        <x:v>290</x:v>
+        <x:v>293</x:v>
       </x:c>
       <x:c r="C22" s="0" t="s">
-        <x:v>199</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D22" s="0" t="s">
-        <x:v>291</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="E22" s="0">
-        <x:v>13.2</x:v>
+        <x:v>18.99</x:v>
       </x:c>
       <x:c r="F22" s="0">
-        <x:v>19</x:v>
+        <x:v>77</x:v>
       </x:c>
     </x:row>
     <x:row r="23" spans="1:6">
       <x:c r="A23" s="0" t="s">
-        <x:v>292</x:v>
+        <x:v>294</x:v>
       </x:c>
       <x:c r="B23" s="0" t="s">
-        <x:v>293</x:v>
+        <x:v>295</x:v>
       </x:c>
       <x:c r="C23" s="0" t="s">
-        <x:v>199</x:v>
+        <x:v>120</x:v>
       </x:c>
       <x:c r="D23" s="0" t="s">
-        <x:v>221</x:v>
+        <x:v>224</x:v>
       </x:c>
       <x:c r="E23" s="0">
         <x:v>16.89</x:v>
@@ -3960,16 +4003,16 @@
     </x:row>
     <x:row r="24" spans="1:6">
       <x:c r="A24" s="0" t="s">
-        <x:v>294</x:v>
+        <x:v>296</x:v>
       </x:c>
       <x:c r="B24" s="0" t="s">
-        <x:v>295</x:v>
+        <x:v>297</x:v>
       </x:c>
       <x:c r="C24" s="0" t="s">
         <x:v>12</x:v>
       </x:c>
       <x:c r="D24" s="0" t="s">
-        <x:v>296</x:v>
+        <x:v>298</x:v>
       </x:c>
       <x:c r="E24" s="0">
         <x:v>31</x:v>
@@ -3980,276 +4023,276 @@
     </x:row>
     <x:row r="25" spans="1:6">
       <x:c r="A25" s="0" t="s">
-        <x:v>297</x:v>
+        <x:v>299</x:v>
       </x:c>
       <x:c r="B25" s="0" t="s">
-        <x:v>298</x:v>
+        <x:v>300</x:v>
       </x:c>
       <x:c r="C25" s="0" t="s">
-        <x:v>199</x:v>
+        <x:v>120</x:v>
       </x:c>
       <x:c r="D25" s="0" t="s">
-        <x:v>299</x:v>
+        <x:v>301</x:v>
       </x:c>
       <x:c r="E25" s="0">
-        <x:v>9</x:v>
+        <x:v>13.2</x:v>
       </x:c>
       <x:c r="F25" s="0">
-        <x:v>193</x:v>
+        <x:v>19</x:v>
       </x:c>
     </x:row>
     <x:row r="26" spans="1:6">
       <x:c r="A26" s="0" t="s">
-        <x:v>300</x:v>
+        <x:v>302</x:v>
       </x:c>
       <x:c r="B26" s="0" t="s">
-        <x:v>89</x:v>
+        <x:v>303</x:v>
       </x:c>
       <x:c r="C26" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="D26" s="0" t="s">
-        <x:v>301</x:v>
+        <x:v>169</x:v>
       </x:c>
       <x:c r="E26" s="0">
-        <x:v>19.7</x:v>
+        <x:v>21.26</x:v>
       </x:c>
       <x:c r="F26" s="0">
-        <x:v>214</x:v>
+        <x:v>23</x:v>
       </x:c>
     </x:row>
     <x:row r="27" spans="1:6">
       <x:c r="A27" s="0" t="s">
-        <x:v>302</x:v>
+        <x:v>304</x:v>
       </x:c>
       <x:c r="B27" s="0" t="s">
-        <x:v>298</x:v>
+        <x:v>305</x:v>
       </x:c>
       <x:c r="C27" s="0" t="s">
-        <x:v>71</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D27" s="0" t="s">
-        <x:v>303</x:v>
+        <x:v>306</x:v>
       </x:c>
       <x:c r="E27" s="0">
-        <x:v>9</x:v>
+        <x:v>19.7</x:v>
       </x:c>
       <x:c r="F27" s="0">
-        <x:v>485</x:v>
+        <x:v>214</x:v>
       </x:c>
     </x:row>
     <x:row r="28" spans="1:6">
       <x:c r="A28" s="0" t="s">
-        <x:v>304</x:v>
+        <x:v>307</x:v>
       </x:c>
       <x:c r="B28" s="0" t="s">
-        <x:v>305</x:v>
+        <x:v>308</x:v>
       </x:c>
       <x:c r="C28" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>120</x:v>
       </x:c>
       <x:c r="D28" s="0" t="s">
-        <x:v>306</x:v>
+        <x:v>309</x:v>
       </x:c>
       <x:c r="E28" s="0">
-        <x:v>37.95</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="F28" s="0">
-        <x:v>846</x:v>
+        <x:v>193</x:v>
       </x:c>
     </x:row>
     <x:row r="29" spans="1:6">
       <x:c r="A29" s="0" t="s">
-        <x:v>307</x:v>
+        <x:v>310</x:v>
       </x:c>
       <x:c r="B29" s="0" t="s">
-        <x:v>308</x:v>
+        <x:v>311</x:v>
       </x:c>
       <x:c r="C29" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D29" s="0" t="s">
-        <x:v>156</x:v>
+        <x:v>312</x:v>
       </x:c>
       <x:c r="E29" s="0">
-        <x:v>21.26</x:v>
+        <x:v>21.2</x:v>
       </x:c>
       <x:c r="F29" s="0">
-        <x:v>23</x:v>
+        <x:v>339</x:v>
       </x:c>
     </x:row>
     <x:row r="30" spans="1:6">
       <x:c r="A30" s="0" t="s">
-        <x:v>309</x:v>
+        <x:v>313</x:v>
       </x:c>
       <x:c r="B30" s="0" t="s">
-        <x:v>310</x:v>
+        <x:v>274</x:v>
       </x:c>
       <x:c r="C30" s="0" t="s">
-        <x:v>199</x:v>
+        <x:v>120</x:v>
       </x:c>
       <x:c r="D30" s="0" t="s">
-        <x:v>311</x:v>
+        <x:v>314</x:v>
       </x:c>
       <x:c r="E30" s="0">
-        <x:v>29</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="F30" s="0">
-        <x:v>33</x:v>
+        <x:v>103</x:v>
       </x:c>
     </x:row>
     <x:row r="31" spans="1:6">
       <x:c r="A31" s="0" t="s">
-        <x:v>312</x:v>
+        <x:v>315</x:v>
       </x:c>
       <x:c r="B31" s="0" t="s">
-        <x:v>313</x:v>
+        <x:v>316</x:v>
       </x:c>
       <x:c r="C31" s="0" t="s">
-        <x:v>199</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D31" s="0" t="s">
-        <x:v>314</x:v>
+        <x:v>317</x:v>
       </x:c>
       <x:c r="E31" s="0">
-        <x:v>15.89</x:v>
+        <x:v>37.95</x:v>
       </x:c>
       <x:c r="F31" s="0">
-        <x:v>372</x:v>
+        <x:v>846</x:v>
       </x:c>
     </x:row>
     <x:row r="32" spans="1:6">
       <x:c r="A32" s="0" t="s">
-        <x:v>315</x:v>
+        <x:v>318</x:v>
       </x:c>
       <x:c r="B32" s="0" t="s">
-        <x:v>316</x:v>
+        <x:v>308</x:v>
       </x:c>
       <x:c r="C32" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="D32" s="0" t="s">
-        <x:v>317</x:v>
+        <x:v>319</x:v>
       </x:c>
       <x:c r="E32" s="0">
-        <x:v>17.39</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="F32" s="0">
-        <x:v>910</x:v>
+        <x:v>485</x:v>
       </x:c>
     </x:row>
     <x:row r="33" spans="1:6">
       <x:c r="A33" s="0" t="s">
-        <x:v>318</x:v>
+        <x:v>320</x:v>
       </x:c>
       <x:c r="B33" s="0" t="s">
-        <x:v>295</x:v>
+        <x:v>321</x:v>
       </x:c>
       <x:c r="C33" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>120</x:v>
       </x:c>
       <x:c r="D33" s="0" t="s">
-        <x:v>319</x:v>
+        <x:v>322</x:v>
       </x:c>
       <x:c r="E33" s="0">
-        <x:v>31</x:v>
+        <x:v>15.89</x:v>
       </x:c>
       <x:c r="F33" s="0">
-        <x:v>514</x:v>
+        <x:v>372</x:v>
       </x:c>
     </x:row>
     <x:row r="34" spans="1:6">
       <x:c r="A34" s="0" t="s">
-        <x:v>320</x:v>
+        <x:v>323</x:v>
       </x:c>
       <x:c r="B34" s="0" t="s">
-        <x:v>293</x:v>
+        <x:v>324</x:v>
       </x:c>
       <x:c r="C34" s="0" t="s">
-        <x:v>199</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D34" s="0" t="s">
-        <x:v>321</x:v>
+        <x:v>322</x:v>
       </x:c>
       <x:c r="E34" s="0">
-        <x:v>16.89</x:v>
+        <x:v>15.5</x:v>
       </x:c>
       <x:c r="F34" s="0">
-        <x:v>481</x:v>
+        <x:v>372</x:v>
       </x:c>
     </x:row>
     <x:row r="35" spans="1:6">
       <x:c r="A35" s="0" t="s">
-        <x:v>322</x:v>
+        <x:v>325</x:v>
       </x:c>
       <x:c r="B35" s="0" t="s">
-        <x:v>323</x:v>
+        <x:v>326</x:v>
       </x:c>
       <x:c r="C35" s="0" t="s">
         <x:v>12</x:v>
       </x:c>
       <x:c r="D35" s="0" t="s">
-        <x:v>314</x:v>
+        <x:v>327</x:v>
       </x:c>
       <x:c r="E35" s="0">
-        <x:v>15.5</x:v>
+        <x:v>29.99</x:v>
       </x:c>
       <x:c r="F35" s="0">
-        <x:v>372</x:v>
+        <x:v>11</x:v>
       </x:c>
     </x:row>
     <x:row r="36" spans="1:6">
       <x:c r="A36" s="0" t="s">
-        <x:v>324</x:v>
+        <x:v>328</x:v>
       </x:c>
       <x:c r="B36" s="0" t="s">
-        <x:v>310</x:v>
+        <x:v>297</x:v>
       </x:c>
       <x:c r="C36" s="0" t="s">
-        <x:v>199</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D36" s="0" t="s">
-        <x:v>325</x:v>
+        <x:v>329</x:v>
       </x:c>
       <x:c r="E36" s="0">
-        <x:v>29</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="F36" s="0">
-        <x:v>51</x:v>
+        <x:v>514</x:v>
       </x:c>
     </x:row>
     <x:row r="37" spans="1:6">
       <x:c r="A37" s="0" t="s">
-        <x:v>326</x:v>
+        <x:v>330</x:v>
       </x:c>
       <x:c r="B37" s="0" t="s">
-        <x:v>327</x:v>
+        <x:v>331</x:v>
       </x:c>
       <x:c r="C37" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>120</x:v>
       </x:c>
       <x:c r="D37" s="0" t="s">
-        <x:v>328</x:v>
+        <x:v>332</x:v>
       </x:c>
       <x:c r="E37" s="0">
-        <x:v>16.73</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="F37" s="0">
-        <x:v>695</x:v>
+        <x:v>803</x:v>
       </x:c>
     </x:row>
     <x:row r="38" spans="1:6">
       <x:c r="A38" s="0" t="s">
-        <x:v>329</x:v>
+        <x:v>333</x:v>
       </x:c>
       <x:c r="B38" s="0" t="s">
-        <x:v>330</x:v>
+        <x:v>334</x:v>
       </x:c>
       <x:c r="C38" s="0" t="s">
         <x:v>12</x:v>
       </x:c>
       <x:c r="D38" s="0" t="s">
-        <x:v>331</x:v>
+        <x:v>335</x:v>
       </x:c>
       <x:c r="E38" s="0">
         <x:v>15</x:v>
@@ -4260,56 +4303,56 @@
     </x:row>
     <x:row r="39" spans="1:6">
       <x:c r="A39" s="0" t="s">
-        <x:v>332</x:v>
+        <x:v>336</x:v>
       </x:c>
       <x:c r="B39" s="0" t="s">
-        <x:v>330</x:v>
+        <x:v>295</x:v>
       </x:c>
       <x:c r="C39" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>120</x:v>
       </x:c>
       <x:c r="D39" s="0" t="s">
-        <x:v>333</x:v>
+        <x:v>337</x:v>
       </x:c>
       <x:c r="E39" s="0">
-        <x:v>15</x:v>
+        <x:v>16.89</x:v>
       </x:c>
       <x:c r="F39" s="0">
-        <x:v>78</x:v>
+        <x:v>481</x:v>
       </x:c>
     </x:row>
     <x:row r="40" spans="1:6">
       <x:c r="A40" s="0" t="s">
-        <x:v>334</x:v>
+        <x:v>338</x:v>
       </x:c>
       <x:c r="B40" s="0" t="s">
-        <x:v>335</x:v>
+        <x:v>339</x:v>
       </x:c>
       <x:c r="C40" s="0" t="s">
-        <x:v>199</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D40" s="0" t="s">
-        <x:v>336</x:v>
+        <x:v>340</x:v>
       </x:c>
       <x:c r="E40" s="0">
-        <x:v>15.99</x:v>
+        <x:v>16.73</x:v>
       </x:c>
       <x:c r="F40" s="0">
-        <x:v>426</x:v>
+        <x:v>695</x:v>
       </x:c>
     </x:row>
     <x:row r="41" spans="1:6">
       <x:c r="A41" s="0" t="s">
-        <x:v>337</x:v>
+        <x:v>341</x:v>
       </x:c>
       <x:c r="B41" s="0" t="s">
-        <x:v>338</x:v>
+        <x:v>342</x:v>
       </x:c>
       <x:c r="C41" s="0" t="s">
-        <x:v>199</x:v>
+        <x:v>120</x:v>
       </x:c>
       <x:c r="D41" s="0" t="s">
-        <x:v>339</x:v>
+        <x:v>343</x:v>
       </x:c>
       <x:c r="E41" s="0">
         <x:v>33</x:v>
@@ -4360,16 +4403,16 @@
     </x:row>
     <x:row r="2" spans="1:6">
       <x:c r="A2" s="0" t="s">
-        <x:v>340</x:v>
+        <x:v>344</x:v>
       </x:c>
       <x:c r="B2" s="0" t="s">
-        <x:v>341</x:v>
+        <x:v>345</x:v>
       </x:c>
       <x:c r="C2" s="0" t="s">
         <x:v>12</x:v>
       </x:c>
       <x:c r="D2" s="0" t="s">
-        <x:v>342</x:v>
+        <x:v>346</x:v>
       </x:c>
       <x:c r="E2" s="0">
         <x:v>1.99</x:v>
@@ -4380,390 +4423,390 @@
     </x:row>
     <x:row r="3" spans="1:6">
       <x:c r="A3" s="0" t="s">
-        <x:v>343</x:v>
+        <x:v>347</x:v>
       </x:c>
       <x:c r="B3" s="0" t="s">
-        <x:v>344</x:v>
+        <x:v>348</x:v>
       </x:c>
       <x:c r="C3" s="0" t="s">
         <x:v>12</x:v>
       </x:c>
       <x:c r="D3" s="0" t="s">
-        <x:v>345</x:v>
+        <x:v>349</x:v>
       </x:c>
       <x:c r="E3" s="0">
-        <x:v>4.99</x:v>
+        <x:v>5.99</x:v>
       </x:c>
       <x:c r="F3" s="0">
-        <x:v>884</x:v>
+        <x:v>220</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:6">
       <x:c r="A4" s="0" t="s">
-        <x:v>346</x:v>
+        <x:v>350</x:v>
       </x:c>
       <x:c r="B4" s="0" t="s">
-        <x:v>347</x:v>
+        <x:v>351</x:v>
       </x:c>
       <x:c r="C4" s="0" t="s">
-        <x:v>81</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D4" s="0" t="s">
-        <x:v>348</x:v>
+        <x:v>160</x:v>
       </x:c>
       <x:c r="E4" s="0">
-        <x:v>3.99</x:v>
+        <x:v>3.88</x:v>
       </x:c>
       <x:c r="F4" s="0">
-        <x:v>4100</x:v>
+        <x:v>82</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:6">
       <x:c r="A5" s="0" t="s">
-        <x:v>349</x:v>
+        <x:v>352</x:v>
       </x:c>
       <x:c r="B5" s="0" t="s">
-        <x:v>347</x:v>
+        <x:v>353</x:v>
       </x:c>
       <x:c r="C5" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="D5" s="0" t="s">
-        <x:v>350</x:v>
+        <x:v>354</x:v>
       </x:c>
       <x:c r="E5" s="0">
-        <x:v>3.99</x:v>
+        <x:v>6.96</x:v>
       </x:c>
       <x:c r="F5" s="0">
-        <x:v>115</x:v>
+        <x:v>224</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:6">
       <x:c r="A6" s="0" t="s">
-        <x:v>351</x:v>
+        <x:v>355</x:v>
       </x:c>
       <x:c r="B6" s="0" t="s">
-        <x:v>352</x:v>
+        <x:v>232</x:v>
       </x:c>
       <x:c r="C6" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="D6" s="0" t="s">
-        <x:v>353</x:v>
+        <x:v>356</x:v>
       </x:c>
       <x:c r="E6" s="0">
-        <x:v>9.85</x:v>
+        <x:v>6.9</x:v>
       </x:c>
       <x:c r="F6" s="0">
-        <x:v>124</x:v>
+        <x:v>482</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:6">
       <x:c r="A7" s="0" t="s">
-        <x:v>354</x:v>
+        <x:v>357</x:v>
       </x:c>
       <x:c r="B7" s="0" t="s">
-        <x:v>344</x:v>
+        <x:v>358</x:v>
       </x:c>
       <x:c r="C7" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="D7" s="0" t="s">
-        <x:v>355</x:v>
+        <x:v>154</x:v>
       </x:c>
       <x:c r="E7" s="0">
-        <x:v>4.99</x:v>
+        <x:v>0.54</x:v>
       </x:c>
       <x:c r="F7" s="0">
-        <x:v>337</x:v>
+        <x:v>1500</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:6">
       <x:c r="A8" s="0" t="s">
-        <x:v>356</x:v>
+        <x:v>359</x:v>
       </x:c>
       <x:c r="B8" s="0" t="s">
-        <x:v>357</x:v>
+        <x:v>152</x:v>
       </x:c>
       <x:c r="C8" s="0" t="s">
-        <x:v>358</x:v>
+        <x:v>120</x:v>
       </x:c>
       <x:c r="D8" s="0" t="s">
-        <x:v>359</x:v>
+        <x:v>360</x:v>
       </x:c>
       <x:c r="E8" s="0">
-        <x:v>9.23</x:v>
+        <x:v>6.99</x:v>
       </x:c>
       <x:c r="F8" s="0">
-        <x:v>759</x:v>
+        <x:v>237</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:6">
       <x:c r="A9" s="0" t="s">
-        <x:v>360</x:v>
+        <x:v>361</x:v>
       </x:c>
       <x:c r="B9" s="0" t="s">
-        <x:v>134</x:v>
+        <x:v>362</x:v>
       </x:c>
       <x:c r="C9" s="0" t="s">
-        <x:v>199</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D9" s="0" t="s">
-        <x:v>361</x:v>
+        <x:v>363</x:v>
       </x:c>
       <x:c r="E9" s="0">
-        <x:v>6.99</x:v>
+        <x:v>10.5</x:v>
       </x:c>
       <x:c r="F9" s="0">
-        <x:v>237</x:v>
+        <x:v>294</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:6">
       <x:c r="A10" s="0" t="s">
-        <x:v>362</x:v>
+        <x:v>364</x:v>
       </x:c>
       <x:c r="B10" s="0" t="s">
-        <x:v>347</x:v>
+        <x:v>365</x:v>
       </x:c>
       <x:c r="C10" s="0" t="s">
         <x:v>12</x:v>
       </x:c>
       <x:c r="D10" s="0" t="s">
-        <x:v>363</x:v>
+        <x:v>366</x:v>
       </x:c>
       <x:c r="E10" s="0">
-        <x:v>3.99</x:v>
+        <x:v>12.9</x:v>
       </x:c>
       <x:c r="F10" s="0">
-        <x:v>4200</x:v>
+        <x:v>710</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:6">
       <x:c r="A11" s="0" t="s">
-        <x:v>364</x:v>
+        <x:v>367</x:v>
       </x:c>
       <x:c r="B11" s="0" t="s">
-        <x:v>365</x:v>
+        <x:v>368</x:v>
       </x:c>
       <x:c r="C11" s="0" t="s">
-        <x:v>63</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="D11" s="0" t="s">
-        <x:v>35</x:v>
+        <x:v>346</x:v>
       </x:c>
       <x:c r="E11" s="0">
-        <x:v>12</x:v>
+        <x:v>18.67</x:v>
       </x:c>
       <x:c r="F11" s="0">
-        <x:v>28</x:v>
+        <x:v>1200</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:6">
       <x:c r="A12" s="0" t="s">
-        <x:v>366</x:v>
+        <x:v>369</x:v>
       </x:c>
       <x:c r="B12" s="0" t="s">
-        <x:v>367</x:v>
+        <x:v>370</x:v>
       </x:c>
       <x:c r="C12" s="0" t="s">
-        <x:v>63</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D12" s="0" t="s">
-        <x:v>368</x:v>
+        <x:v>224</x:v>
       </x:c>
       <x:c r="E12" s="0">
-        <x:v>3.59</x:v>
+        <x:v>14.5</x:v>
       </x:c>
       <x:c r="F12" s="0">
-        <x:v>1300</x:v>
+        <x:v>1100</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="1:6">
       <x:c r="A13" s="0" t="s">
-        <x:v>369</x:v>
+        <x:v>371</x:v>
       </x:c>
       <x:c r="B13" s="0" t="s">
-        <x:v>370</x:v>
+        <x:v>372</x:v>
       </x:c>
       <x:c r="C13" s="0" t="s">
-        <x:v>358</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D13" s="0" t="s">
-        <x:v>342</x:v>
+        <x:v>373</x:v>
       </x:c>
       <x:c r="E13" s="0">
-        <x:v>18.67</x:v>
+        <x:v>6.89</x:v>
       </x:c>
       <x:c r="F13" s="0">
-        <x:v>1200</x:v>
+        <x:v>535</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:6">
       <x:c r="A14" s="0" t="s">
-        <x:v>371</x:v>
+        <x:v>374</x:v>
       </x:c>
       <x:c r="B14" s="0" t="s">
-        <x:v>372</x:v>
+        <x:v>375</x:v>
       </x:c>
       <x:c r="C14" s="0" t="s">
         <x:v>12</x:v>
       </x:c>
       <x:c r="D14" s="0" t="s">
-        <x:v>373</x:v>
+        <x:v>141</x:v>
       </x:c>
       <x:c r="E14" s="0">
-        <x:v>3.66</x:v>
+        <x:v>12.12</x:v>
       </x:c>
       <x:c r="F14" s="0">
-        <x:v>3800</x:v>
+        <x:v>1800</x:v>
       </x:c>
     </x:row>
     <x:row r="15" spans="1:6">
       <x:c r="A15" s="0" t="s">
-        <x:v>374</x:v>
+        <x:v>376</x:v>
       </x:c>
       <x:c r="B15" s="0" t="s">
-        <x:v>375</x:v>
+        <x:v>377</x:v>
       </x:c>
       <x:c r="C15" s="0" t="s">
         <x:v>12</x:v>
       </x:c>
       <x:c r="D15" s="0" t="s">
-        <x:v>110</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="E15" s="0">
-        <x:v>12.12</x:v>
+        <x:v>18.9</x:v>
       </x:c>
       <x:c r="F15" s="0">
-        <x:v>1800</x:v>
+        <x:v>34</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="1:6">
       <x:c r="A16" s="0" t="s">
-        <x:v>376</x:v>
+        <x:v>378</x:v>
       </x:c>
       <x:c r="B16" s="0" t="s">
-        <x:v>377</x:v>
+        <x:v>379</x:v>
       </x:c>
       <x:c r="C16" s="0" t="s">
-        <x:v>63</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="D16" s="0" t="s">
-        <x:v>119</x:v>
+        <x:v>380</x:v>
       </x:c>
       <x:c r="E16" s="0">
-        <x:v>0.54</x:v>
+        <x:v>9.6</x:v>
       </x:c>
       <x:c r="F16" s="0">
-        <x:v>2700</x:v>
+        <x:v>416</x:v>
       </x:c>
     </x:row>
     <x:row r="17" spans="1:6">
       <x:c r="A17" s="0" t="s">
-        <x:v>378</x:v>
+        <x:v>381</x:v>
       </x:c>
       <x:c r="B17" s="0" t="s">
-        <x:v>377</x:v>
+        <x:v>138</x:v>
       </x:c>
       <x:c r="C17" s="0" t="s">
-        <x:v>63</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="D17" s="0" t="s">
-        <x:v>379</x:v>
+        <x:v>133</x:v>
       </x:c>
       <x:c r="E17" s="0">
-        <x:v>0.54</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="F17" s="0">
-        <x:v>5800</x:v>
+        <x:v>200</x:v>
       </x:c>
     </x:row>
     <x:row r="18" spans="1:6">
       <x:c r="A18" s="0" t="s">
-        <x:v>380</x:v>
+        <x:v>382</x:v>
       </x:c>
       <x:c r="B18" s="0" t="s">
-        <x:v>381</x:v>
+        <x:v>383</x:v>
       </x:c>
       <x:c r="C18" s="0" t="s">
-        <x:v>71</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D18" s="0" t="s">
-        <x:v>282</x:v>
+        <x:v>384</x:v>
       </x:c>
       <x:c r="E18" s="0">
-        <x:v>6.5</x:v>
+        <x:v>13.41</x:v>
       </x:c>
       <x:c r="F18" s="0">
-        <x:v>59</x:v>
+        <x:v>123</x:v>
       </x:c>
     </x:row>
     <x:row r="19" spans="1:6">
       <x:c r="A19" s="0" t="s">
-        <x:v>382</x:v>
+        <x:v>385</x:v>
       </x:c>
       <x:c r="B19" s="0" t="s">
-        <x:v>383</x:v>
+        <x:v>182</x:v>
       </x:c>
       <x:c r="C19" s="0" t="s">
-        <x:v>71</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D19" s="0" t="s">
-        <x:v>384</x:v>
+        <x:v>386</x:v>
       </x:c>
       <x:c r="E19" s="0">
-        <x:v>18.93</x:v>
+        <x:v>5.9</x:v>
       </x:c>
       <x:c r="F19" s="0">
-        <x:v>180</x:v>
+        <x:v>264</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="1:6">
       <x:c r="A20" s="0" t="s">
-        <x:v>385</x:v>
+        <x:v>387</x:v>
       </x:c>
       <x:c r="B20" s="0" t="s">
-        <x:v>386</x:v>
+        <x:v>388</x:v>
       </x:c>
       <x:c r="C20" s="0" t="s">
-        <x:v>173</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="D20" s="0" t="s">
-        <x:v>387</x:v>
+        <x:v>389</x:v>
       </x:c>
       <x:c r="E20" s="0">
-        <x:v>9.6</x:v>
+        <x:v>5.5</x:v>
       </x:c>
       <x:c r="F20" s="0">
-        <x:v>416</x:v>
+        <x:v>878</x:v>
       </x:c>
     </x:row>
     <x:row r="21" spans="1:6">
       <x:c r="A21" s="0" t="s">
-        <x:v>388</x:v>
+        <x:v>390</x:v>
       </x:c>
       <x:c r="B21" s="0" t="s">
-        <x:v>389</x:v>
+        <x:v>391</x:v>
       </x:c>
       <x:c r="C21" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="D21" s="0" t="s">
-        <x:v>390</x:v>
+        <x:v>177</x:v>
       </x:c>
       <x:c r="E21" s="0">
-        <x:v>6.89</x:v>
+        <x:v>3.78</x:v>
       </x:c>
       <x:c r="F21" s="0">
-        <x:v>535</x:v>
+        <x:v>3900</x:v>
       </x:c>
     </x:row>
     <x:row r="22" spans="1:6">
       <x:c r="A22" s="0" t="s">
-        <x:v>391</x:v>
+        <x:v>392</x:v>
       </x:c>
       <x:c r="B22" s="0" t="s">
-        <x:v>392</x:v>
+        <x:v>182</x:v>
       </x:c>
       <x:c r="C22" s="0" t="s">
         <x:v>12</x:v>
@@ -4772,10 +4815,10 @@
         <x:v>393</x:v>
       </x:c>
       <x:c r="E22" s="0">
-        <x:v>13.41</x:v>
+        <x:v>5.9</x:v>
       </x:c>
       <x:c r="F22" s="0">
-        <x:v>123</x:v>
+        <x:v>159</x:v>
       </x:c>
     </x:row>
     <x:row r="23" spans="1:6">
@@ -4783,7 +4826,7 @@
         <x:v>394</x:v>
       </x:c>
       <x:c r="B23" s="0" t="s">
-        <x:v>176</x:v>
+        <x:v>122</x:v>
       </x:c>
       <x:c r="C23" s="0" t="s">
         <x:v>12</x:v>
@@ -4792,10 +4835,10 @@
         <x:v>395</x:v>
       </x:c>
       <x:c r="E23" s="0">
-        <x:v>5.9</x:v>
+        <x:v>9.9</x:v>
       </x:c>
       <x:c r="F23" s="0">
-        <x:v>264</x:v>
+        <x:v>151</x:v>
       </x:c>
     </x:row>
     <x:row r="24" spans="1:6">
@@ -4806,16 +4849,16 @@
         <x:v>397</x:v>
       </x:c>
       <x:c r="C24" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D24" s="0" t="s">
         <x:v>398</x:v>
       </x:c>
       <x:c r="E24" s="0">
-        <x:v>3.2</x:v>
+        <x:v>7.22</x:v>
       </x:c>
       <x:c r="F24" s="0">
-        <x:v>741</x:v>
+        <x:v>66</x:v>
       </x:c>
     </x:row>
     <x:row r="25" spans="1:6">
@@ -4826,196 +4869,196 @@
         <x:v>400</x:v>
       </x:c>
       <x:c r="C25" s="0" t="s">
-        <x:v>63</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="D25" s="0" t="s">
-        <x:v>221</x:v>
+        <x:v>401</x:v>
       </x:c>
       <x:c r="E25" s="0">
-        <x:v>4.96</x:v>
+        <x:v>1.08</x:v>
       </x:c>
       <x:c r="F25" s="0">
-        <x:v>1100</x:v>
+        <x:v>371</x:v>
       </x:c>
     </x:row>
     <x:row r="26" spans="1:6">
       <x:c r="A26" s="0" t="s">
-        <x:v>401</x:v>
+        <x:v>402</x:v>
       </x:c>
       <x:c r="B26" s="0" t="s">
-        <x:v>402</x:v>
+        <x:v>403</x:v>
       </x:c>
       <x:c r="C26" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D26" s="0" t="s">
-        <x:v>403</x:v>
+        <x:v>404</x:v>
       </x:c>
       <x:c r="E26" s="0">
-        <x:v>3.67</x:v>
+        <x:v>4.45</x:v>
       </x:c>
       <x:c r="F26" s="0">
-        <x:v>100</x:v>
+        <x:v>13900</x:v>
       </x:c>
     </x:row>
     <x:row r="27" spans="1:6">
       <x:c r="A27" s="0" t="s">
-        <x:v>404</x:v>
+        <x:v>405</x:v>
       </x:c>
       <x:c r="B27" s="0" t="s">
-        <x:v>115</x:v>
+        <x:v>406</x:v>
       </x:c>
       <x:c r="C27" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="D27" s="0" t="s">
-        <x:v>405</x:v>
+        <x:v>407</x:v>
       </x:c>
       <x:c r="E27" s="0">
-        <x:v>9.9</x:v>
+        <x:v>2.9</x:v>
       </x:c>
       <x:c r="F27" s="0">
-        <x:v>151</x:v>
+        <x:v>607</x:v>
       </x:c>
     </x:row>
     <x:row r="28" spans="1:6">
       <x:c r="A28" s="0" t="s">
-        <x:v>406</x:v>
+        <x:v>408</x:v>
       </x:c>
       <x:c r="B28" s="0" t="s">
-        <x:v>407</x:v>
+        <x:v>152</x:v>
       </x:c>
       <x:c r="C28" s="0" t="s">
-        <x:v>281</x:v>
+        <x:v>284</x:v>
       </x:c>
       <x:c r="D28" s="0" t="s">
-        <x:v>408</x:v>
+        <x:v>409</x:v>
       </x:c>
       <x:c r="E28" s="0">
-        <x:v>8.59</x:v>
+        <x:v>6.99</x:v>
       </x:c>
       <x:c r="F28" s="0">
-        <x:v>3100</x:v>
+        <x:v>4500</x:v>
       </x:c>
     </x:row>
     <x:row r="29" spans="1:6">
       <x:c r="A29" s="0" t="s">
-        <x:v>409</x:v>
+        <x:v>410</x:v>
       </x:c>
       <x:c r="B29" s="0" t="s">
-        <x:v>410</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="C29" s="0" t="s">
-        <x:v>173</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D29" s="0" t="s">
-        <x:v>170</x:v>
+        <x:v>411</x:v>
       </x:c>
       <x:c r="E29" s="0">
-        <x:v>3.78</x:v>
+        <x:v>8.5</x:v>
       </x:c>
       <x:c r="F29" s="0">
-        <x:v>3900</x:v>
+        <x:v>57</x:v>
       </x:c>
     </x:row>
     <x:row r="30" spans="1:6">
       <x:c r="A30" s="0" t="s">
-        <x:v>411</x:v>
+        <x:v>412</x:v>
       </x:c>
       <x:c r="B30" s="0" t="s">
-        <x:v>176</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="C30" s="0" t="s">
         <x:v>12</x:v>
       </x:c>
       <x:c r="D30" s="0" t="s">
-        <x:v>412</x:v>
+        <x:v>413</x:v>
       </x:c>
       <x:c r="E30" s="0">
-        <x:v>5.9</x:v>
+        <x:v>8.5</x:v>
       </x:c>
       <x:c r="F30" s="0">
-        <x:v>61</x:v>
+        <x:v>9400</x:v>
       </x:c>
     </x:row>
     <x:row r="31" spans="1:6">
       <x:c r="A31" s="0" t="s">
-        <x:v>413</x:v>
+        <x:v>414</x:v>
       </x:c>
       <x:c r="B31" s="0" t="s">
-        <x:v>414</x:v>
+        <x:v>415</x:v>
       </x:c>
       <x:c r="C31" s="0" t="s">
-        <x:v>63</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D31" s="0" t="s">
-        <x:v>415</x:v>
+        <x:v>416</x:v>
       </x:c>
       <x:c r="E31" s="0">
-        <x:v>1.08</x:v>
+        <x:v>3.99</x:v>
       </x:c>
       <x:c r="F31" s="0">
-        <x:v>371</x:v>
+        <x:v>500</x:v>
       </x:c>
     </x:row>
     <x:row r="32" spans="1:6">
       <x:c r="A32" s="0" t="s">
-        <x:v>416</x:v>
+        <x:v>417</x:v>
       </x:c>
       <x:c r="B32" s="0" t="s">
-        <x:v>417</x:v>
+        <x:v>418</x:v>
       </x:c>
       <x:c r="C32" s="0" t="s">
         <x:v>12</x:v>
       </x:c>
       <x:c r="D32" s="0" t="s">
-        <x:v>418</x:v>
+        <x:v>419</x:v>
       </x:c>
       <x:c r="E32" s="0">
-        <x:v>4.45</x:v>
+        <x:v>7.99</x:v>
       </x:c>
       <x:c r="F32" s="0">
-        <x:v>13900</x:v>
+        <x:v>191</x:v>
       </x:c>
     </x:row>
     <x:row r="33" spans="1:6">
       <x:c r="A33" s="0" t="s">
-        <x:v>419</x:v>
+        <x:v>420</x:v>
       </x:c>
       <x:c r="B33" s="0" t="s">
-        <x:v>347</x:v>
+        <x:v>421</x:v>
       </x:c>
       <x:c r="C33" s="0" t="s">
-        <x:v>281</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="D33" s="0" t="s">
-        <x:v>420</x:v>
+        <x:v>337</x:v>
       </x:c>
       <x:c r="E33" s="0">
-        <x:v>3.99</x:v>
+        <x:v>6.5</x:v>
       </x:c>
       <x:c r="F33" s="0">
-        <x:v>994</x:v>
+        <x:v>481</x:v>
       </x:c>
     </x:row>
     <x:row r="34" spans="1:6">
       <x:c r="A34" s="0" t="s">
-        <x:v>421</x:v>
+        <x:v>422</x:v>
       </x:c>
       <x:c r="B34" s="0" t="s">
-        <x:v>422</x:v>
+        <x:v>423</x:v>
       </x:c>
       <x:c r="C34" s="0" t="s">
         <x:v>12</x:v>
       </x:c>
       <x:c r="D34" s="0" t="s">
-        <x:v>423</x:v>
+        <x:v>110</x:v>
       </x:c>
       <x:c r="E34" s="0">
-        <x:v>12.9</x:v>
+        <x:v>2.8</x:v>
       </x:c>
       <x:c r="F34" s="0">
-        <x:v>710</x:v>
+        <x:v>1600</x:v>
       </x:c>
     </x:row>
     <x:row r="35" spans="1:6">
@@ -5023,39 +5066,39 @@
         <x:v>424</x:v>
       </x:c>
       <x:c r="B35" s="0" t="s">
-        <x:v>347</x:v>
+        <x:v>425</x:v>
       </x:c>
       <x:c r="C35" s="0" t="s">
         <x:v>12</x:v>
       </x:c>
       <x:c r="D35" s="0" t="s">
-        <x:v>425</x:v>
+        <x:v>426</x:v>
       </x:c>
       <x:c r="E35" s="0">
-        <x:v>3.99</x:v>
+        <x:v>2.69</x:v>
       </x:c>
       <x:c r="F35" s="0">
-        <x:v>500</x:v>
+        <x:v>80</x:v>
       </x:c>
     </x:row>
     <x:row r="36" spans="1:6">
       <x:c r="A36" s="0" t="s">
-        <x:v>426</x:v>
+        <x:v>427</x:v>
       </x:c>
       <x:c r="B36" s="0" t="s">
-        <x:v>131</x:v>
+        <x:v>428</x:v>
       </x:c>
       <x:c r="C36" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>120</x:v>
       </x:c>
       <x:c r="D36" s="0" t="s">
-        <x:v>427</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="E36" s="0">
-        <x:v>8.5</x:v>
+        <x:v>8.46</x:v>
       </x:c>
       <x:c r="F36" s="0">
-        <x:v>9400</x:v>
+        <x:v>22</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
